--- a/Documentation/Werte + Resourcen/Dez Hex ez.xlsx
+++ b/Documentation/Werte + Resourcen/Dez Hex ez.xlsx
@@ -1,22 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Silas\ItProject2018\Documentation\Werte + Resourcen\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A40ADE0E-5B28-4423-9AFC-03AB53BA6CD2}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="18915" windowHeight="11820"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="18915" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>1. beiden Ziffern MotLowTL, 2. beiden Ziffern MotLowTH</t>
+  </si>
+  <si>
+    <t>1. beiden Ziffern MotHighTL, 2. beiden Ziffern MotHighTH</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -58,14 +75,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -103,9 +123,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -138,9 +158,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -173,9 +210,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -348,24 +402,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E92"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="51.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="52.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>4</v>
       </c>
       <c r="D1">
         <v>10000</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>90</v>
       </c>
@@ -385,8 +449,14 @@
         <f>DEC2HEX($D2,4)</f>
         <v>25A8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>10000</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>SUM(A2+1)</f>
         <v>91</v>
@@ -407,8 +477,16 @@
         <f>DEC2HEX($D3,4)</f>
         <v>25A4</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <f>SUM($G$2-$H3)</f>
+        <v>9922</v>
+      </c>
+      <c r="H3">
+        <f>SUM($H2+78)</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A67" si="2">SUM(A3+1)</f>
         <v>92</v>
@@ -429,8 +507,24 @@
         <f t="shared" ref="E4:E67" si="3">DEC2HEX($D4,4)</f>
         <v>25A0</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <f>SUM($G$3-$H4)</f>
+        <v>9766</v>
+      </c>
+      <c r="H4">
+        <f>SUM($H3+78)</f>
+        <v>156</v>
+      </c>
+      <c r="J4" t="str">
+        <f>DEC2HEX($G4,4)</f>
+        <v>2626</v>
+      </c>
+      <c r="L4" t="str">
+        <f>DEC2HEX($H4,4)</f>
+        <v>009C</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="2"/>
         <v>93</v>
@@ -451,8 +545,24 @@
         <f t="shared" si="3"/>
         <v>259C</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <f>SUM($G$3-$H5)</f>
+        <v>9688</v>
+      </c>
+      <c r="H5">
+        <f>SUM($H4+78)</f>
+        <v>234</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" ref="J5:J68" si="4">DEC2HEX($G5,4)</f>
+        <v>25D8</v>
+      </c>
+      <c r="L5" t="str">
+        <f>DEC2HEX($H5,4)</f>
+        <v>00EA</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="2"/>
         <v>94</v>
@@ -473,14 +583,30 @@
         <f t="shared" si="3"/>
         <v>2598</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <f>SUM($G$3-$H6)</f>
+        <v>9610</v>
+      </c>
+      <c r="H6">
+        <f>SUM($H5+78)</f>
+        <v>312</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="4"/>
+        <v>258A</v>
+      </c>
+      <c r="L6" t="str">
+        <f>DEC2HEX($H6,4)</f>
+        <v>0138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="2"/>
         <v>95</v>
       </c>
       <c r="B7">
-        <f t="shared" ref="B7:B70" si="4">SUM($A7*$B$1)</f>
+        <f t="shared" ref="B7:B70" si="5">SUM($A7*$B$1)</f>
         <v>380</v>
       </c>
       <c r="C7" t="str">
@@ -495,14 +621,30 @@
         <f t="shared" si="3"/>
         <v>2594</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <f t="shared" ref="G7:G70" si="6">SUM($G$2-$H7)</f>
+        <v>9610</v>
+      </c>
+      <c r="H7">
+        <f>SUM($H6+78)</f>
+        <v>390</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="4"/>
+        <v>258A</v>
+      </c>
+      <c r="L7" t="str">
+        <f>DEC2HEX($H7,4)</f>
+        <v>0186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="2"/>
         <v>96</v>
       </c>
       <c r="B8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>384</v>
       </c>
       <c r="C8" t="str">
@@ -517,14 +659,30 @@
         <f t="shared" si="3"/>
         <v>2590</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <f t="shared" si="6"/>
+        <v>9532</v>
+      </c>
+      <c r="H8">
+        <f>SUM($H7+78)</f>
+        <v>468</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="4"/>
+        <v>253C</v>
+      </c>
+      <c r="L8" t="str">
+        <f>DEC2HEX($H8,4)</f>
+        <v>01D4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="2"/>
         <v>97</v>
       </c>
       <c r="B9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>388</v>
       </c>
       <c r="C9" t="str">
@@ -539,14 +697,30 @@
         <f t="shared" si="3"/>
         <v>258C</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <f t="shared" si="6"/>
+        <v>9454</v>
+      </c>
+      <c r="H9">
+        <f>SUM($H8+78)</f>
+        <v>546</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="4"/>
+        <v>24EE</v>
+      </c>
+      <c r="L9" t="str">
+        <f>DEC2HEX($H9,4)</f>
+        <v>0222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="2"/>
         <v>98</v>
       </c>
       <c r="B10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>392</v>
       </c>
       <c r="C10" t="str">
@@ -561,14 +735,30 @@
         <f t="shared" si="3"/>
         <v>2588</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <f t="shared" si="6"/>
+        <v>9376</v>
+      </c>
+      <c r="H10">
+        <f>SUM($H9+78)</f>
+        <v>624</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="4"/>
+        <v>24A0</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" ref="I10:L73" si="7">DEC2HEX($H10,4)</f>
+        <v>0270</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="2"/>
         <v>99</v>
       </c>
       <c r="B11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>396</v>
       </c>
       <c r="C11" t="str">
@@ -583,14 +773,30 @@
         <f t="shared" si="3"/>
         <v>2584</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <f t="shared" si="6"/>
+        <v>9298</v>
+      </c>
+      <c r="H11">
+        <f>SUM($H10+78)</f>
+        <v>702</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="4"/>
+        <v>2452</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="7"/>
+        <v>02BE</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="B12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>400</v>
       </c>
       <c r="C12" t="str">
@@ -605,14 +811,30 @@
         <f t="shared" si="3"/>
         <v>2580</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <f t="shared" si="6"/>
+        <v>9220</v>
+      </c>
+      <c r="H12">
+        <f>SUM($H11+78)</f>
+        <v>780</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="4"/>
+        <v>2404</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="7"/>
+        <v>030C</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="2"/>
         <v>101</v>
       </c>
       <c r="B13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>404</v>
       </c>
       <c r="C13" t="str">
@@ -627,14 +849,30 @@
         <f t="shared" si="3"/>
         <v>257C</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <f t="shared" si="6"/>
+        <v>9142</v>
+      </c>
+      <c r="H13">
+        <f>SUM($H12+78)</f>
+        <v>858</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="4"/>
+        <v>23B6</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="7"/>
+        <v>035A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="2"/>
         <v>102</v>
       </c>
       <c r="B14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>408</v>
       </c>
       <c r="C14" t="str">
@@ -649,14 +887,30 @@
         <f t="shared" si="3"/>
         <v>2578</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <f t="shared" si="6"/>
+        <v>9064</v>
+      </c>
+      <c r="H14">
+        <f>SUM($H13+78)</f>
+        <v>936</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="4"/>
+        <v>2368</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="7"/>
+        <v>03A8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="2"/>
         <v>103</v>
       </c>
       <c r="B15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>412</v>
       </c>
       <c r="C15" t="str">
@@ -671,14 +925,30 @@
         <f t="shared" si="3"/>
         <v>2574</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <f t="shared" si="6"/>
+        <v>8986</v>
+      </c>
+      <c r="H15">
+        <f>SUM($H14+78)</f>
+        <v>1014</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="4"/>
+        <v>231A</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="7"/>
+        <v>03F6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="2"/>
         <v>104</v>
       </c>
       <c r="B16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>416</v>
       </c>
       <c r="C16" t="str">
@@ -693,14 +963,30 @@
         <f t="shared" si="3"/>
         <v>2570</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <f t="shared" si="6"/>
+        <v>8908</v>
+      </c>
+      <c r="H16">
+        <f>SUM($H15+78)</f>
+        <v>1092</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="4"/>
+        <v>22CC</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="7"/>
+        <v>0444</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="2"/>
         <v>105</v>
       </c>
       <c r="B17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>420</v>
       </c>
       <c r="C17" t="str">
@@ -715,14 +1001,30 @@
         <f t="shared" si="3"/>
         <v>256C</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <f t="shared" si="6"/>
+        <v>8830</v>
+      </c>
+      <c r="H17">
+        <f>SUM($H16+78)</f>
+        <v>1170</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="4"/>
+        <v>227E</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="7"/>
+        <v>0492</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="2"/>
         <v>106</v>
       </c>
       <c r="B18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>424</v>
       </c>
       <c r="C18" t="str">
@@ -737,14 +1039,30 @@
         <f t="shared" si="3"/>
         <v>2568</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <f t="shared" si="6"/>
+        <v>8752</v>
+      </c>
+      <c r="H18">
+        <f>SUM($H17+78)</f>
+        <v>1248</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="4"/>
+        <v>2230</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="7"/>
+        <v>04E0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="2"/>
         <v>107</v>
       </c>
       <c r="B19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>428</v>
       </c>
       <c r="C19" t="str">
@@ -759,14 +1077,30 @@
         <f t="shared" si="3"/>
         <v>2564</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <f t="shared" si="6"/>
+        <v>8674</v>
+      </c>
+      <c r="H19">
+        <f>SUM($H18+78)</f>
+        <v>1326</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="4"/>
+        <v>21E2</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="7"/>
+        <v>052E</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="2"/>
         <v>108</v>
       </c>
       <c r="B20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>432</v>
       </c>
       <c r="C20" t="str">
@@ -781,14 +1115,30 @@
         <f t="shared" si="3"/>
         <v>2560</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <f t="shared" si="6"/>
+        <v>8596</v>
+      </c>
+      <c r="H20">
+        <f>SUM($H19+78)</f>
+        <v>1404</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="4"/>
+        <v>2194</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="7"/>
+        <v>057C</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="2"/>
         <v>109</v>
       </c>
       <c r="B21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>436</v>
       </c>
       <c r="C21" t="str">
@@ -803,14 +1153,30 @@
         <f t="shared" si="3"/>
         <v>255C</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <f t="shared" si="6"/>
+        <v>8518</v>
+      </c>
+      <c r="H21">
+        <f>SUM($H20+78)</f>
+        <v>1482</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="4"/>
+        <v>2146</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="7"/>
+        <v>05CA</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="2"/>
         <v>110</v>
       </c>
       <c r="B22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>440</v>
       </c>
       <c r="C22" t="str">
@@ -825,14 +1191,30 @@
         <f t="shared" si="3"/>
         <v>2558</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <f t="shared" si="6"/>
+        <v>8440</v>
+      </c>
+      <c r="H22">
+        <f>SUM($H21+78)</f>
+        <v>1560</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="4"/>
+        <v>20F8</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="7"/>
+        <v>0618</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="2"/>
         <v>111</v>
       </c>
       <c r="B23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>444</v>
       </c>
       <c r="C23" t="str">
@@ -847,14 +1229,30 @@
         <f t="shared" si="3"/>
         <v>2554</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <f t="shared" si="6"/>
+        <v>8362</v>
+      </c>
+      <c r="H23">
+        <f>SUM($H22+78)</f>
+        <v>1638</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="4"/>
+        <v>20AA</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="7"/>
+        <v>0666</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="2"/>
         <v>112</v>
       </c>
       <c r="B24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>448</v>
       </c>
       <c r="C24" t="str">
@@ -869,14 +1267,30 @@
         <f t="shared" si="3"/>
         <v>2550</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <f t="shared" si="6"/>
+        <v>8284</v>
+      </c>
+      <c r="H24">
+        <f>SUM($H23+78)</f>
+        <v>1716</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="4"/>
+        <v>205C</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="7"/>
+        <v>06B4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="2"/>
         <v>113</v>
       </c>
       <c r="B25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>452</v>
       </c>
       <c r="C25" t="str">
@@ -891,14 +1305,30 @@
         <f t="shared" si="3"/>
         <v>254C</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <f t="shared" si="6"/>
+        <v>8206</v>
+      </c>
+      <c r="H25">
+        <f>SUM($H24+78)</f>
+        <v>1794</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="4"/>
+        <v>200E</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="7"/>
+        <v>0702</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="2"/>
         <v>114</v>
       </c>
       <c r="B26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>456</v>
       </c>
       <c r="C26" t="str">
@@ -913,14 +1343,30 @@
         <f t="shared" si="3"/>
         <v>2548</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <f t="shared" si="6"/>
+        <v>8128</v>
+      </c>
+      <c r="H26">
+        <f>SUM($H25+78)</f>
+        <v>1872</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="4"/>
+        <v>1FC0</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="7"/>
+        <v>0750</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="2"/>
         <v>115</v>
       </c>
       <c r="B27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>460</v>
       </c>
       <c r="C27" t="str">
@@ -935,14 +1381,30 @@
         <f t="shared" si="3"/>
         <v>2544</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <f t="shared" si="6"/>
+        <v>8050</v>
+      </c>
+      <c r="H27">
+        <f>SUM($H26+78)</f>
+        <v>1950</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="4"/>
+        <v>1F72</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="7"/>
+        <v>079E</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="2"/>
         <v>116</v>
       </c>
       <c r="B28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>464</v>
       </c>
       <c r="C28" t="str">
@@ -957,14 +1419,30 @@
         <f t="shared" si="3"/>
         <v>2540</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <f t="shared" si="6"/>
+        <v>7972</v>
+      </c>
+      <c r="H28">
+        <f>SUM($H27+78)</f>
+        <v>2028</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="4"/>
+        <v>1F24</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="7"/>
+        <v>07EC</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="2"/>
         <v>117</v>
       </c>
       <c r="B29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>468</v>
       </c>
       <c r="C29" t="str">
@@ -979,14 +1457,30 @@
         <f t="shared" si="3"/>
         <v>253C</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <f t="shared" si="6"/>
+        <v>7894</v>
+      </c>
+      <c r="H29">
+        <f>SUM($H28+78)</f>
+        <v>2106</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="4"/>
+        <v>1ED6</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="7"/>
+        <v>083A</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="2"/>
         <v>118</v>
       </c>
       <c r="B30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>472</v>
       </c>
       <c r="C30" t="str">
@@ -1001,14 +1495,30 @@
         <f t="shared" si="3"/>
         <v>2538</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <f t="shared" si="6"/>
+        <v>7816</v>
+      </c>
+      <c r="H30">
+        <f>SUM($H29+78)</f>
+        <v>2184</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="4"/>
+        <v>1E88</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="7"/>
+        <v>0888</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="2"/>
         <v>119</v>
       </c>
       <c r="B31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>476</v>
       </c>
       <c r="C31" t="str">
@@ -1023,14 +1533,30 @@
         <f t="shared" si="3"/>
         <v>2534</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G31">
+        <f t="shared" si="6"/>
+        <v>7738</v>
+      </c>
+      <c r="H31">
+        <f>SUM($H30+78)</f>
+        <v>2262</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="4"/>
+        <v>1E3A</v>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" si="7"/>
+        <v>08D6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
       <c r="B32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>480</v>
       </c>
       <c r="C32" t="str">
@@ -1045,14 +1571,30 @@
         <f t="shared" si="3"/>
         <v>2530</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G32">
+        <f t="shared" si="6"/>
+        <v>7660</v>
+      </c>
+      <c r="H32">
+        <f>SUM($H31+78)</f>
+        <v>2340</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="4"/>
+        <v>1DEC</v>
+      </c>
+      <c r="L32" t="str">
+        <f t="shared" si="7"/>
+        <v>0924</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="2"/>
         <v>121</v>
       </c>
       <c r="B33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>484</v>
       </c>
       <c r="C33" t="str">
@@ -1067,14 +1609,30 @@
         <f t="shared" si="3"/>
         <v>252C</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <f t="shared" si="6"/>
+        <v>7582</v>
+      </c>
+      <c r="H33">
+        <f>SUM($H32+78)</f>
+        <v>2418</v>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" si="4"/>
+        <v>1D9E</v>
+      </c>
+      <c r="L33" t="str">
+        <f t="shared" si="7"/>
+        <v>0972</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="2"/>
         <v>122</v>
       </c>
       <c r="B34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>488</v>
       </c>
       <c r="C34" t="str">
@@ -1089,14 +1647,30 @@
         <f t="shared" si="3"/>
         <v>2528</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G34">
+        <f t="shared" si="6"/>
+        <v>7504</v>
+      </c>
+      <c r="H34">
+        <f>SUM($H33+78)</f>
+        <v>2496</v>
+      </c>
+      <c r="J34" t="str">
+        <f t="shared" si="4"/>
+        <v>1D50</v>
+      </c>
+      <c r="L34" t="str">
+        <f t="shared" si="7"/>
+        <v>09C0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="2"/>
         <v>123</v>
       </c>
       <c r="B35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>492</v>
       </c>
       <c r="C35" t="str">
@@ -1111,14 +1685,30 @@
         <f t="shared" si="3"/>
         <v>2524</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G35">
+        <f t="shared" si="6"/>
+        <v>7426</v>
+      </c>
+      <c r="H35">
+        <f>SUM($H34+78)</f>
+        <v>2574</v>
+      </c>
+      <c r="J35" t="str">
+        <f t="shared" si="4"/>
+        <v>1D02</v>
+      </c>
+      <c r="L35" t="str">
+        <f t="shared" si="7"/>
+        <v>0A0E</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="2"/>
         <v>124</v>
       </c>
       <c r="B36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>496</v>
       </c>
       <c r="C36" t="str">
@@ -1133,14 +1723,30 @@
         <f t="shared" si="3"/>
         <v>2520</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G36">
+        <f t="shared" si="6"/>
+        <v>7348</v>
+      </c>
+      <c r="H36">
+        <f t="shared" ref="H36:H76" si="8">SUM($H35+78)</f>
+        <v>2652</v>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" si="4"/>
+        <v>1CB4</v>
+      </c>
+      <c r="L36" t="str">
+        <f t="shared" si="7"/>
+        <v>0A5C</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="2"/>
         <v>125</v>
       </c>
       <c r="B37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>500</v>
       </c>
       <c r="C37" t="str">
@@ -1155,14 +1761,30 @@
         <f t="shared" si="3"/>
         <v>251C</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G37">
+        <f t="shared" si="6"/>
+        <v>7270</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="8"/>
+        <v>2730</v>
+      </c>
+      <c r="J37" t="str">
+        <f t="shared" si="4"/>
+        <v>1C66</v>
+      </c>
+      <c r="L37" t="str">
+        <f t="shared" si="7"/>
+        <v>0AAA</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="2"/>
         <v>126</v>
       </c>
       <c r="B38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>504</v>
       </c>
       <c r="C38" t="str">
@@ -1177,14 +1799,30 @@
         <f t="shared" si="3"/>
         <v>2518</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G38">
+        <f t="shared" si="6"/>
+        <v>7192</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="8"/>
+        <v>2808</v>
+      </c>
+      <c r="J38" t="str">
+        <f t="shared" si="4"/>
+        <v>1C18</v>
+      </c>
+      <c r="L38" t="str">
+        <f t="shared" si="7"/>
+        <v>0AF8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="2"/>
         <v>127</v>
       </c>
       <c r="B39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>508</v>
       </c>
       <c r="C39" t="str">
@@ -1199,14 +1837,30 @@
         <f t="shared" si="3"/>
         <v>2514</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G39">
+        <f t="shared" si="6"/>
+        <v>7114</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="8"/>
+        <v>2886</v>
+      </c>
+      <c r="J39" t="str">
+        <f t="shared" si="4"/>
+        <v>1BCA</v>
+      </c>
+      <c r="L39" t="str">
+        <f t="shared" si="7"/>
+        <v>0B46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="2"/>
         <v>128</v>
       </c>
       <c r="B40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>512</v>
       </c>
       <c r="C40" t="str">
@@ -1221,14 +1875,30 @@
         <f t="shared" si="3"/>
         <v>2510</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G40">
+        <f t="shared" si="6"/>
+        <v>7036</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="8"/>
+        <v>2964</v>
+      </c>
+      <c r="J40" t="str">
+        <f t="shared" si="4"/>
+        <v>1B7C</v>
+      </c>
+      <c r="L40" t="str">
+        <f t="shared" si="7"/>
+        <v>0B94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="2"/>
         <v>129</v>
       </c>
       <c r="B41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>516</v>
       </c>
       <c r="C41" t="str">
@@ -1243,14 +1913,30 @@
         <f t="shared" si="3"/>
         <v>250C</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G41">
+        <f t="shared" si="6"/>
+        <v>6958</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="8"/>
+        <v>3042</v>
+      </c>
+      <c r="J41" t="str">
+        <f t="shared" si="4"/>
+        <v>1B2E</v>
+      </c>
+      <c r="L41" t="str">
+        <f t="shared" si="7"/>
+        <v>0BE2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="2"/>
         <v>130</v>
       </c>
       <c r="B42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>520</v>
       </c>
       <c r="C42" t="str">
@@ -1265,14 +1951,30 @@
         <f t="shared" si="3"/>
         <v>2508</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G42">
+        <f t="shared" si="6"/>
+        <v>6880</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="8"/>
+        <v>3120</v>
+      </c>
+      <c r="J42" t="str">
+        <f t="shared" si="4"/>
+        <v>1AE0</v>
+      </c>
+      <c r="L42" t="str">
+        <f t="shared" si="7"/>
+        <v>0C30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="2"/>
         <v>131</v>
       </c>
       <c r="B43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>524</v>
       </c>
       <c r="C43" t="str">
@@ -1287,14 +1989,30 @@
         <f t="shared" si="3"/>
         <v>2504</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G43">
+        <f t="shared" si="6"/>
+        <v>6802</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="8"/>
+        <v>3198</v>
+      </c>
+      <c r="J43" t="str">
+        <f t="shared" si="4"/>
+        <v>1A92</v>
+      </c>
+      <c r="L43" t="str">
+        <f t="shared" si="7"/>
+        <v>0C7E</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="2"/>
         <v>132</v>
       </c>
       <c r="B44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>528</v>
       </c>
       <c r="C44" t="str">
@@ -1309,14 +2027,30 @@
         <f t="shared" si="3"/>
         <v>2500</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G44">
+        <f t="shared" si="6"/>
+        <v>6724</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="8"/>
+        <v>3276</v>
+      </c>
+      <c r="J44" t="str">
+        <f t="shared" si="4"/>
+        <v>1A44</v>
+      </c>
+      <c r="L44" t="str">
+        <f t="shared" si="7"/>
+        <v>0CCC</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="2"/>
         <v>133</v>
       </c>
       <c r="B45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>532</v>
       </c>
       <c r="C45" t="str">
@@ -1331,14 +2065,30 @@
         <f t="shared" si="3"/>
         <v>24FC</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G45">
+        <f t="shared" si="6"/>
+        <v>6646</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="8"/>
+        <v>3354</v>
+      </c>
+      <c r="J45" t="str">
+        <f t="shared" si="4"/>
+        <v>19F6</v>
+      </c>
+      <c r="L45" t="str">
+        <f t="shared" si="7"/>
+        <v>0D1A</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="2"/>
         <v>134</v>
       </c>
       <c r="B46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>536</v>
       </c>
       <c r="C46" t="str">
@@ -1353,14 +2103,30 @@
         <f t="shared" si="3"/>
         <v>24F8</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G46">
+        <f t="shared" si="6"/>
+        <v>6568</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="8"/>
+        <v>3432</v>
+      </c>
+      <c r="J46" t="str">
+        <f t="shared" si="4"/>
+        <v>19A8</v>
+      </c>
+      <c r="L46" t="str">
+        <f t="shared" si="7"/>
+        <v>0D68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="2"/>
         <v>135</v>
       </c>
       <c r="B47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>540</v>
       </c>
       <c r="C47" t="str">
@@ -1375,14 +2141,30 @@
         <f t="shared" si="3"/>
         <v>24F4</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G47">
+        <f t="shared" si="6"/>
+        <v>6490</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="8"/>
+        <v>3510</v>
+      </c>
+      <c r="J47" t="str">
+        <f t="shared" si="4"/>
+        <v>195A</v>
+      </c>
+      <c r="L47" t="str">
+        <f t="shared" si="7"/>
+        <v>0DB6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="2"/>
         <v>136</v>
       </c>
       <c r="B48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>544</v>
       </c>
       <c r="C48" t="str">
@@ -1397,14 +2179,30 @@
         <f t="shared" si="3"/>
         <v>24F0</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G48">
+        <f t="shared" si="6"/>
+        <v>6412</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="8"/>
+        <v>3588</v>
+      </c>
+      <c r="J48" t="str">
+        <f t="shared" si="4"/>
+        <v>190C</v>
+      </c>
+      <c r="L48" t="str">
+        <f t="shared" si="7"/>
+        <v>0E04</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="2"/>
         <v>137</v>
       </c>
       <c r="B49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>548</v>
       </c>
       <c r="C49" t="str">
@@ -1419,14 +2217,30 @@
         <f t="shared" si="3"/>
         <v>24EC</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G49">
+        <f t="shared" si="6"/>
+        <v>6334</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="8"/>
+        <v>3666</v>
+      </c>
+      <c r="J49" t="str">
+        <f t="shared" si="4"/>
+        <v>18BE</v>
+      </c>
+      <c r="L49" t="str">
+        <f t="shared" si="7"/>
+        <v>0E52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="2"/>
         <v>138</v>
       </c>
       <c r="B50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>552</v>
       </c>
       <c r="C50" t="str">
@@ -1441,14 +2255,30 @@
         <f t="shared" si="3"/>
         <v>24E8</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G50">
+        <f t="shared" si="6"/>
+        <v>6256</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="8"/>
+        <v>3744</v>
+      </c>
+      <c r="J50" t="str">
+        <f t="shared" si="4"/>
+        <v>1870</v>
+      </c>
+      <c r="L50" t="str">
+        <f t="shared" si="7"/>
+        <v>0EA0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="2"/>
         <v>139</v>
       </c>
       <c r="B51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>556</v>
       </c>
       <c r="C51" t="str">
@@ -1463,14 +2293,30 @@
         <f t="shared" si="3"/>
         <v>24E4</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G51">
+        <f t="shared" si="6"/>
+        <v>6178</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="8"/>
+        <v>3822</v>
+      </c>
+      <c r="J51" t="str">
+        <f t="shared" si="4"/>
+        <v>1822</v>
+      </c>
+      <c r="L51" t="str">
+        <f t="shared" si="7"/>
+        <v>0EEE</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="B52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>560</v>
       </c>
       <c r="C52" t="str">
@@ -1485,14 +2331,30 @@
         <f t="shared" si="3"/>
         <v>24E0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G52">
+        <f t="shared" si="6"/>
+        <v>6100</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="8"/>
+        <v>3900</v>
+      </c>
+      <c r="J52" t="str">
+        <f t="shared" si="4"/>
+        <v>17D4</v>
+      </c>
+      <c r="L52" t="str">
+        <f t="shared" si="7"/>
+        <v>0F3C</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="2"/>
         <v>141</v>
       </c>
       <c r="B53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>564</v>
       </c>
       <c r="C53" t="str">
@@ -1507,14 +2369,30 @@
         <f t="shared" si="3"/>
         <v>24DC</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G53">
+        <f t="shared" si="6"/>
+        <v>6022</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="8"/>
+        <v>3978</v>
+      </c>
+      <c r="J53" t="str">
+        <f t="shared" si="4"/>
+        <v>1786</v>
+      </c>
+      <c r="L53" t="str">
+        <f t="shared" si="7"/>
+        <v>0F8A</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="2"/>
         <v>142</v>
       </c>
       <c r="B54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>568</v>
       </c>
       <c r="C54" t="str">
@@ -1529,14 +2407,30 @@
         <f t="shared" si="3"/>
         <v>24D8</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G54">
+        <f t="shared" si="6"/>
+        <v>5944</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="8"/>
+        <v>4056</v>
+      </c>
+      <c r="J54" t="str">
+        <f t="shared" si="4"/>
+        <v>1738</v>
+      </c>
+      <c r="L54" t="str">
+        <f t="shared" si="7"/>
+        <v>0FD8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" si="2"/>
         <v>143</v>
       </c>
       <c r="B55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>572</v>
       </c>
       <c r="C55" t="str">
@@ -1551,14 +2445,30 @@
         <f t="shared" si="3"/>
         <v>24D4</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G55">
+        <f t="shared" si="6"/>
+        <v>5866</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="8"/>
+        <v>4134</v>
+      </c>
+      <c r="J55" t="str">
+        <f t="shared" si="4"/>
+        <v>16EA</v>
+      </c>
+      <c r="L55" t="str">
+        <f t="shared" si="7"/>
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" si="2"/>
         <v>144</v>
       </c>
       <c r="B56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>576</v>
       </c>
       <c r="C56" t="str">
@@ -1573,14 +2483,30 @@
         <f t="shared" si="3"/>
         <v>24D0</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G56">
+        <f t="shared" si="6"/>
+        <v>5788</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="8"/>
+        <v>4212</v>
+      </c>
+      <c r="J56" t="str">
+        <f t="shared" si="4"/>
+        <v>169C</v>
+      </c>
+      <c r="L56" t="str">
+        <f t="shared" si="7"/>
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" si="2"/>
         <v>145</v>
       </c>
       <c r="B57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>580</v>
       </c>
       <c r="C57" t="str">
@@ -1595,14 +2521,30 @@
         <f t="shared" si="3"/>
         <v>24CC</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G57">
+        <f t="shared" si="6"/>
+        <v>5710</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="8"/>
+        <v>4290</v>
+      </c>
+      <c r="J57" t="str">
+        <f t="shared" si="4"/>
+        <v>164E</v>
+      </c>
+      <c r="L57" t="str">
+        <f t="shared" si="7"/>
+        <v>10C2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" si="2"/>
         <v>146</v>
       </c>
       <c r="B58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>584</v>
       </c>
       <c r="C58" t="str">
@@ -1617,14 +2559,30 @@
         <f t="shared" si="3"/>
         <v>24C8</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G58">
+        <f t="shared" si="6"/>
+        <v>5632</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="8"/>
+        <v>4368</v>
+      </c>
+      <c r="J58" t="str">
+        <f t="shared" si="4"/>
+        <v>1600</v>
+      </c>
+      <c r="L58" t="str">
+        <f t="shared" si="7"/>
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" si="2"/>
         <v>147</v>
       </c>
       <c r="B59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>588</v>
       </c>
       <c r="C59" t="str">
@@ -1639,14 +2597,30 @@
         <f t="shared" si="3"/>
         <v>24C4</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G59">
+        <f t="shared" si="6"/>
+        <v>5554</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="8"/>
+        <v>4446</v>
+      </c>
+      <c r="J59" t="str">
+        <f t="shared" si="4"/>
+        <v>15B2</v>
+      </c>
+      <c r="L59" t="str">
+        <f t="shared" si="7"/>
+        <v>115E</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" si="2"/>
         <v>148</v>
       </c>
       <c r="B60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>592</v>
       </c>
       <c r="C60" t="str">
@@ -1661,14 +2635,30 @@
         <f t="shared" si="3"/>
         <v>24C0</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G60">
+        <f t="shared" si="6"/>
+        <v>5476</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="8"/>
+        <v>4524</v>
+      </c>
+      <c r="J60" t="str">
+        <f t="shared" si="4"/>
+        <v>1564</v>
+      </c>
+      <c r="L60" t="str">
+        <f t="shared" si="7"/>
+        <v>11AC</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" si="2"/>
         <v>149</v>
       </c>
       <c r="B61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>596</v>
       </c>
       <c r="C61" t="str">
@@ -1683,14 +2673,30 @@
         <f t="shared" si="3"/>
         <v>24BC</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G61">
+        <f t="shared" si="6"/>
+        <v>5398</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="8"/>
+        <v>4602</v>
+      </c>
+      <c r="J61" t="str">
+        <f t="shared" si="4"/>
+        <v>1516</v>
+      </c>
+      <c r="L61" t="str">
+        <f t="shared" si="7"/>
+        <v>11FA</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="B62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>600</v>
       </c>
       <c r="C62" t="str">
@@ -1705,14 +2711,30 @@
         <f t="shared" si="3"/>
         <v>24B8</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G62">
+        <f t="shared" si="6"/>
+        <v>5320</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="8"/>
+        <v>4680</v>
+      </c>
+      <c r="J62" t="str">
+        <f t="shared" si="4"/>
+        <v>14C8</v>
+      </c>
+      <c r="L62" t="str">
+        <f t="shared" si="7"/>
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63">
         <f t="shared" si="2"/>
         <v>151</v>
       </c>
       <c r="B63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>604</v>
       </c>
       <c r="C63" t="str">
@@ -1727,14 +2749,30 @@
         <f t="shared" si="3"/>
         <v>24B4</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G63">
+        <f t="shared" si="6"/>
+        <v>5242</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="8"/>
+        <v>4758</v>
+      </c>
+      <c r="J63" t="str">
+        <f t="shared" si="4"/>
+        <v>147A</v>
+      </c>
+      <c r="L63" t="str">
+        <f t="shared" si="7"/>
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64">
         <f t="shared" si="2"/>
         <v>152</v>
       </c>
       <c r="B64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>608</v>
       </c>
       <c r="C64" t="str">
@@ -1749,14 +2787,30 @@
         <f t="shared" si="3"/>
         <v>24B0</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G64">
+        <f t="shared" si="6"/>
+        <v>5164</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="8"/>
+        <v>4836</v>
+      </c>
+      <c r="J64" t="str">
+        <f t="shared" si="4"/>
+        <v>142C</v>
+      </c>
+      <c r="L64" t="str">
+        <f t="shared" si="7"/>
+        <v>12E4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65">
         <f t="shared" si="2"/>
         <v>153</v>
       </c>
       <c r="B65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>612</v>
       </c>
       <c r="C65" t="str">
@@ -1771,14 +2825,30 @@
         <f t="shared" si="3"/>
         <v>24AC</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G65">
+        <f t="shared" si="6"/>
+        <v>5086</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="8"/>
+        <v>4914</v>
+      </c>
+      <c r="J65" t="str">
+        <f t="shared" si="4"/>
+        <v>13DE</v>
+      </c>
+      <c r="L65" t="str">
+        <f t="shared" si="7"/>
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
         <f t="shared" si="2"/>
         <v>154</v>
       </c>
       <c r="B66">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>616</v>
       </c>
       <c r="C66" t="str">
@@ -1793,577 +2863,2989 @@
         <f t="shared" si="3"/>
         <v>24A8</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G66">
+        <f t="shared" si="6"/>
+        <v>5008</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="8"/>
+        <v>4992</v>
+      </c>
+      <c r="J66" t="str">
+        <f t="shared" si="4"/>
+        <v>1390</v>
+      </c>
+      <c r="L66" t="str">
+        <f t="shared" si="7"/>
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67">
         <f t="shared" si="2"/>
         <v>155</v>
       </c>
       <c r="B67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>620</v>
       </c>
       <c r="C67" t="str">
-        <f t="shared" ref="C67:C92" si="5">DEC2HEX($B67,4)</f>
+        <f t="shared" ref="C67:C92" si="9">DEC2HEX($B67,4)</f>
         <v>026C</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:D92" si="6">SUM($D$1-$B67)</f>
+        <f t="shared" ref="D67:D92" si="10">SUM($D$1-$B67)</f>
         <v>9380</v>
       </c>
       <c r="E67" t="str">
         <f t="shared" si="3"/>
         <v>24A4</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G67">
+        <f t="shared" si="6"/>
+        <v>4930</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="8"/>
+        <v>5070</v>
+      </c>
+      <c r="J67" t="str">
+        <f t="shared" si="4"/>
+        <v>1342</v>
+      </c>
+      <c r="L67" t="str">
+        <f t="shared" si="7"/>
+        <v>13CE</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68">
-        <f t="shared" ref="A68:A86" si="7">SUM(A67+1)</f>
+        <f t="shared" ref="A68:A86" si="11">SUM(A67+1)</f>
         <v>156</v>
       </c>
       <c r="B68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>624</v>
       </c>
       <c r="C68" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0270</v>
       </c>
       <c r="D68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>9376</v>
       </c>
       <c r="E68" t="str">
-        <f t="shared" ref="E68:E92" si="8">DEC2HEX($D68,4)</f>
+        <f t="shared" ref="E68:E92" si="12">DEC2HEX($D68,4)</f>
         <v>24A0</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G68">
+        <f t="shared" si="6"/>
+        <v>4852</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="8"/>
+        <v>5148</v>
+      </c>
+      <c r="J68" t="str">
+        <f t="shared" si="4"/>
+        <v>12F4</v>
+      </c>
+      <c r="L68" t="str">
+        <f t="shared" si="7"/>
+        <v>141C</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>157</v>
       </c>
       <c r="B69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>628</v>
       </c>
       <c r="C69" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0274</v>
       </c>
       <c r="D69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>9372</v>
       </c>
       <c r="E69" t="str">
+        <f t="shared" si="12"/>
+        <v>249C</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="6"/>
+        <v>4774</v>
+      </c>
+      <c r="H69">
         <f t="shared" si="8"/>
-        <v>249C</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5226</v>
+      </c>
+      <c r="J69" t="str">
+        <f t="shared" ref="J69:J131" si="13">DEC2HEX($G69,4)</f>
+        <v>12A6</v>
+      </c>
+      <c r="L69" t="str">
+        <f t="shared" si="7"/>
+        <v>146A</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>158</v>
       </c>
       <c r="B70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>632</v>
       </c>
       <c r="C70" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0278</v>
       </c>
       <c r="D70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>9368</v>
       </c>
       <c r="E70" t="str">
+        <f t="shared" si="12"/>
+        <v>2498</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="6"/>
+        <v>4696</v>
+      </c>
+      <c r="H70">
         <f t="shared" si="8"/>
-        <v>2498</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5304</v>
+      </c>
+      <c r="J70" t="str">
+        <f t="shared" si="13"/>
+        <v>1258</v>
+      </c>
+      <c r="L70" t="str">
+        <f t="shared" si="7"/>
+        <v>14B8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>159</v>
       </c>
       <c r="B71">
-        <f t="shared" ref="B71:B92" si="9">SUM($A71*$B$1)</f>
+        <f t="shared" ref="B71:B92" si="14">SUM($A71*$B$1)</f>
         <v>636</v>
       </c>
       <c r="C71" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>027C</v>
       </c>
       <c r="D71">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>9364</v>
       </c>
       <c r="E71" t="str">
+        <f t="shared" si="12"/>
+        <v>2494</v>
+      </c>
+      <c r="G71">
+        <f t="shared" ref="G71:G134" si="15">SUM($G$2-$H71)</f>
+        <v>4618</v>
+      </c>
+      <c r="H71">
         <f t="shared" si="8"/>
-        <v>2494</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5382</v>
+      </c>
+      <c r="J71" t="str">
+        <f t="shared" si="13"/>
+        <v>120A</v>
+      </c>
+      <c r="L71" t="str">
+        <f t="shared" si="7"/>
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>160</v>
       </c>
       <c r="B72">
+        <f t="shared" si="14"/>
+        <v>640</v>
+      </c>
+      <c r="C72" t="str">
         <f t="shared" si="9"/>
+        <v>0280</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="10"/>
+        <v>9360</v>
+      </c>
+      <c r="E72" t="str">
+        <f t="shared" si="12"/>
+        <v>2490</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="15"/>
+        <v>4540</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="8"/>
+        <v>5460</v>
+      </c>
+      <c r="J72" t="str">
+        <f t="shared" si="13"/>
+        <v>11BC</v>
+      </c>
+      <c r="L72" t="str">
+        <f t="shared" si="7"/>
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <f t="shared" si="11"/>
+        <v>161</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="14"/>
+        <v>644</v>
+      </c>
+      <c r="C73" t="str">
+        <f t="shared" si="9"/>
+        <v>0284</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="10"/>
+        <v>9356</v>
+      </c>
+      <c r="E73" t="str">
+        <f t="shared" si="12"/>
+        <v>248C</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="15"/>
+        <v>4462</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="8"/>
+        <v>5538</v>
+      </c>
+      <c r="J73" t="str">
+        <f t="shared" si="13"/>
+        <v>116E</v>
+      </c>
+      <c r="L73" t="str">
+        <f t="shared" si="7"/>
+        <v>15A2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <f t="shared" si="11"/>
+        <v>162</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="14"/>
+        <v>648</v>
+      </c>
+      <c r="C74" t="str">
+        <f t="shared" si="9"/>
+        <v>0288</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="10"/>
+        <v>9352</v>
+      </c>
+      <c r="E74" t="str">
+        <f t="shared" si="12"/>
+        <v>2488</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="15"/>
+        <v>4384</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="8"/>
+        <v>5616</v>
+      </c>
+      <c r="J74" t="str">
+        <f t="shared" si="13"/>
+        <v>1120</v>
+      </c>
+      <c r="L74" t="str">
+        <f t="shared" ref="I74:L131" si="16">DEC2HEX($H74,4)</f>
+        <v>15F0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <f t="shared" si="11"/>
+        <v>163</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="14"/>
+        <v>652</v>
+      </c>
+      <c r="C75" t="str">
+        <f t="shared" si="9"/>
+        <v>028C</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="10"/>
+        <v>9348</v>
+      </c>
+      <c r="E75" t="str">
+        <f t="shared" si="12"/>
+        <v>2484</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="15"/>
+        <v>4306</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="8"/>
+        <v>5694</v>
+      </c>
+      <c r="J75" t="str">
+        <f t="shared" si="13"/>
+        <v>10D2</v>
+      </c>
+      <c r="L75" t="str">
+        <f t="shared" si="16"/>
+        <v>163E</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <f t="shared" si="11"/>
+        <v>164</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="14"/>
+        <v>656</v>
+      </c>
+      <c r="C76" t="str">
+        <f t="shared" si="9"/>
+        <v>0290</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="10"/>
+        <v>9344</v>
+      </c>
+      <c r="E76" t="str">
+        <f t="shared" si="12"/>
+        <v>2480</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="15"/>
+        <v>4228</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="8"/>
+        <v>5772</v>
+      </c>
+      <c r="J76" t="str">
+        <f t="shared" si="13"/>
+        <v>1084</v>
+      </c>
+      <c r="L76" t="str">
+        <f t="shared" si="16"/>
+        <v>168C</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <f t="shared" si="11"/>
+        <v>165</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="14"/>
+        <v>660</v>
+      </c>
+      <c r="C77" t="str">
+        <f t="shared" si="9"/>
+        <v>0294</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="10"/>
+        <v>9340</v>
+      </c>
+      <c r="E77" t="str">
+        <f t="shared" si="12"/>
+        <v>247C</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="15"/>
+        <v>4150</v>
+      </c>
+      <c r="H77">
+        <f>SUM($H76+78)</f>
+        <v>5850</v>
+      </c>
+      <c r="J77" t="str">
+        <f t="shared" si="13"/>
+        <v>1036</v>
+      </c>
+      <c r="L77" t="str">
+        <f t="shared" si="16"/>
+        <v>16DA</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <f t="shared" si="11"/>
+        <v>166</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="14"/>
+        <v>664</v>
+      </c>
+      <c r="C78" t="str">
+        <f t="shared" si="9"/>
+        <v>0298</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="10"/>
+        <v>9336</v>
+      </c>
+      <c r="E78" t="str">
+        <f t="shared" si="12"/>
+        <v>2478</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="15"/>
+        <v>4072</v>
+      </c>
+      <c r="H78">
+        <f>SUM($H77+78)</f>
+        <v>5928</v>
+      </c>
+      <c r="J78" t="str">
+        <f t="shared" si="13"/>
+        <v>0FE8</v>
+      </c>
+      <c r="L78" t="str">
+        <f t="shared" si="16"/>
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <f t="shared" si="11"/>
+        <v>167</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="14"/>
+        <v>668</v>
+      </c>
+      <c r="C79" t="str">
+        <f t="shared" si="9"/>
+        <v>029C</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="10"/>
+        <v>9332</v>
+      </c>
+      <c r="E79" t="str">
+        <f t="shared" si="12"/>
+        <v>2474</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="15"/>
+        <v>3994</v>
+      </c>
+      <c r="H79">
+        <f>SUM($H78+78)</f>
+        <v>6006</v>
+      </c>
+      <c r="J79" t="str">
+        <f t="shared" si="13"/>
+        <v>0F9A</v>
+      </c>
+      <c r="L79" t="str">
+        <f t="shared" si="16"/>
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <f t="shared" si="11"/>
+        <v>168</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="14"/>
+        <v>672</v>
+      </c>
+      <c r="C80" t="str">
+        <f t="shared" si="9"/>
+        <v>02A0</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="10"/>
+        <v>9328</v>
+      </c>
+      <c r="E80" t="str">
+        <f t="shared" si="12"/>
+        <v>2470</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="15"/>
+        <v>3916</v>
+      </c>
+      <c r="H80">
+        <f>SUM($H79+78)</f>
+        <v>6084</v>
+      </c>
+      <c r="J80" t="str">
+        <f t="shared" si="13"/>
+        <v>0F4C</v>
+      </c>
+      <c r="L80" t="str">
+        <f t="shared" si="16"/>
+        <v>17C4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <f t="shared" si="11"/>
+        <v>169</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="14"/>
+        <v>676</v>
+      </c>
+      <c r="C81" t="str">
+        <f t="shared" si="9"/>
+        <v>02A4</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="10"/>
+        <v>9324</v>
+      </c>
+      <c r="E81" t="str">
+        <f t="shared" si="12"/>
+        <v>246C</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="15"/>
+        <v>3838</v>
+      </c>
+      <c r="H81">
+        <f>SUM($H80+78)</f>
+        <v>6162</v>
+      </c>
+      <c r="J81" t="str">
+        <f t="shared" si="13"/>
+        <v>0EFE</v>
+      </c>
+      <c r="L81" t="str">
+        <f t="shared" si="16"/>
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <f t="shared" si="11"/>
+        <v>170</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="14"/>
+        <v>680</v>
+      </c>
+      <c r="C82" t="str">
+        <f t="shared" si="9"/>
+        <v>02A8</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="10"/>
+        <v>9320</v>
+      </c>
+      <c r="E82" t="str">
+        <f t="shared" si="12"/>
+        <v>2468</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="15"/>
+        <v>3760</v>
+      </c>
+      <c r="H82">
+        <f>SUM($H81+78)</f>
+        <v>6240</v>
+      </c>
+      <c r="J82" t="str">
+        <f t="shared" si="13"/>
+        <v>0EB0</v>
+      </c>
+      <c r="L82" t="str">
+        <f t="shared" si="16"/>
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <f t="shared" si="11"/>
+        <v>171</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="14"/>
+        <v>684</v>
+      </c>
+      <c r="C83" t="str">
+        <f t="shared" si="9"/>
+        <v>02AC</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="10"/>
+        <v>9316</v>
+      </c>
+      <c r="E83" t="str">
+        <f t="shared" si="12"/>
+        <v>2464</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="15"/>
+        <v>3682</v>
+      </c>
+      <c r="H83">
+        <f>SUM($H82+78)</f>
+        <v>6318</v>
+      </c>
+      <c r="J83" t="str">
+        <f t="shared" si="13"/>
+        <v>0E62</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="16"/>
+        <v>18AE</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <f t="shared" si="11"/>
+        <v>172</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="14"/>
+        <v>688</v>
+      </c>
+      <c r="C84" t="str">
+        <f t="shared" si="9"/>
+        <v>02B0</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="10"/>
+        <v>9312</v>
+      </c>
+      <c r="E84" t="str">
+        <f t="shared" si="12"/>
+        <v>2460</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="15"/>
+        <v>3604</v>
+      </c>
+      <c r="H84">
+        <f>SUM($H83+78)</f>
+        <v>6396</v>
+      </c>
+      <c r="J84" t="str">
+        <f t="shared" si="13"/>
+        <v>0E14</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="16"/>
+        <v>18FC</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <f t="shared" si="11"/>
+        <v>173</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="14"/>
+        <v>692</v>
+      </c>
+      <c r="C85" t="str">
+        <f t="shared" si="9"/>
+        <v>02B4</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="10"/>
+        <v>9308</v>
+      </c>
+      <c r="E85" t="str">
+        <f t="shared" si="12"/>
+        <v>245C</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="15"/>
+        <v>3526</v>
+      </c>
+      <c r="H85">
+        <f>SUM($H84+78)</f>
+        <v>6474</v>
+      </c>
+      <c r="J85" t="str">
+        <f t="shared" si="13"/>
+        <v>0DC6</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="16"/>
+        <v>194A</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <f t="shared" si="11"/>
+        <v>174</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="14"/>
+        <v>696</v>
+      </c>
+      <c r="C86" t="str">
+        <f t="shared" si="9"/>
+        <v>02B8</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="10"/>
+        <v>9304</v>
+      </c>
+      <c r="E86" t="str">
+        <f t="shared" si="12"/>
+        <v>2458</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="15"/>
+        <v>3448</v>
+      </c>
+      <c r="H86">
+        <f>SUM($H85+78)</f>
+        <v>6552</v>
+      </c>
+      <c r="J86" t="str">
+        <f t="shared" si="13"/>
+        <v>0D78</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="16"/>
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <f t="shared" ref="A87:A92" si="17">SUM(A86+1)</f>
+        <v>175</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="14"/>
+        <v>700</v>
+      </c>
+      <c r="C87" t="str">
+        <f t="shared" si="9"/>
+        <v>02BC</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="10"/>
+        <v>9300</v>
+      </c>
+      <c r="E87" t="str">
+        <f t="shared" si="12"/>
+        <v>2454</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="15"/>
+        <v>3370</v>
+      </c>
+      <c r="H87">
+        <f>SUM($H86+78)</f>
+        <v>6630</v>
+      </c>
+      <c r="J87" t="str">
+        <f t="shared" si="13"/>
+        <v>0D2A</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="16"/>
+        <v>19E6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <f t="shared" si="17"/>
+        <v>176</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="14"/>
+        <v>704</v>
+      </c>
+      <c r="C88" t="str">
+        <f t="shared" si="9"/>
+        <v>02C0</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="10"/>
+        <v>9296</v>
+      </c>
+      <c r="E88" t="str">
+        <f t="shared" si="12"/>
+        <v>2450</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="15"/>
+        <v>3292</v>
+      </c>
+      <c r="H88">
+        <f>SUM($H87+78)</f>
+        <v>6708</v>
+      </c>
+      <c r="J88" t="str">
+        <f t="shared" si="13"/>
+        <v>0CDC</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="16"/>
+        <v>1A34</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <f t="shared" si="17"/>
+        <v>177</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="14"/>
+        <v>708</v>
+      </c>
+      <c r="C89" t="str">
+        <f t="shared" si="9"/>
+        <v>02C4</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="10"/>
+        <v>9292</v>
+      </c>
+      <c r="E89" t="str">
+        <f t="shared" si="12"/>
+        <v>244C</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="15"/>
+        <v>3214</v>
+      </c>
+      <c r="H89">
+        <f>SUM($H88+78)</f>
+        <v>6786</v>
+      </c>
+      <c r="J89" t="str">
+        <f t="shared" si="13"/>
+        <v>0C8E</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="16"/>
+        <v>1A82</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <f t="shared" si="17"/>
+        <v>178</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="14"/>
+        <v>712</v>
+      </c>
+      <c r="C90" t="str">
+        <f t="shared" si="9"/>
+        <v>02C8</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="10"/>
+        <v>9288</v>
+      </c>
+      <c r="E90" t="str">
+        <f t="shared" si="12"/>
+        <v>2448</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="15"/>
+        <v>3136</v>
+      </c>
+      <c r="H90">
+        <f>SUM($H89+78)</f>
+        <v>6864</v>
+      </c>
+      <c r="J90" t="str">
+        <f t="shared" si="13"/>
+        <v>0C40</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="16"/>
+        <v>1AD0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <f t="shared" si="17"/>
+        <v>179</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="14"/>
+        <v>716</v>
+      </c>
+      <c r="C91" t="str">
+        <f t="shared" si="9"/>
+        <v>02CC</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="10"/>
+        <v>9284</v>
+      </c>
+      <c r="E91" t="str">
+        <f t="shared" si="12"/>
+        <v>2444</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="15"/>
+        <v>3058</v>
+      </c>
+      <c r="H91">
+        <f>SUM($H90+78)</f>
+        <v>6942</v>
+      </c>
+      <c r="J91" t="str">
+        <f t="shared" si="13"/>
+        <v>0BF2</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="16"/>
+        <v>1B1E</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <f t="shared" si="17"/>
+        <v>180</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="14"/>
+        <v>720</v>
+      </c>
+      <c r="C92" t="str">
+        <f t="shared" si="9"/>
+        <v>02D0</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="10"/>
+        <v>9280</v>
+      </c>
+      <c r="E92" t="str">
+        <f t="shared" si="12"/>
+        <v>2440</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="15"/>
+        <v>2980</v>
+      </c>
+      <c r="H92">
+        <f>SUM($H91+78)</f>
+        <v>7020</v>
+      </c>
+      <c r="J92" t="str">
+        <f t="shared" si="13"/>
+        <v>0BA4</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="16"/>
+        <v>1B6C</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G93">
+        <f t="shared" si="15"/>
+        <v>2902</v>
+      </c>
+      <c r="H93">
+        <f>SUM($H92+78)</f>
+        <v>7098</v>
+      </c>
+      <c r="J93" t="str">
+        <f t="shared" si="13"/>
+        <v>0B56</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="16"/>
+        <v>1BBA</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G94">
+        <f t="shared" si="15"/>
+        <v>2824</v>
+      </c>
+      <c r="H94">
+        <f>SUM($H93+78)</f>
+        <v>7176</v>
+      </c>
+      <c r="J94" t="str">
+        <f t="shared" si="13"/>
+        <v>0B08</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="16"/>
+        <v>1C08</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G95">
+        <f t="shared" si="15"/>
+        <v>2746</v>
+      </c>
+      <c r="H95">
+        <f>SUM($H94+78)</f>
+        <v>7254</v>
+      </c>
+      <c r="J95" t="str">
+        <f t="shared" si="13"/>
+        <v>0ABA</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="16"/>
+        <v>1C56</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G96">
+        <f t="shared" si="15"/>
+        <v>2668</v>
+      </c>
+      <c r="H96">
+        <f>SUM($H95+78)</f>
+        <v>7332</v>
+      </c>
+      <c r="J96" t="str">
+        <f t="shared" si="13"/>
+        <v>0A6C</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="16"/>
+        <v>1CA4</v>
+      </c>
+    </row>
+    <row r="97" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G97">
+        <f t="shared" si="15"/>
+        <v>2590</v>
+      </c>
+      <c r="H97">
+        <f>SUM($H96+78)</f>
+        <v>7410</v>
+      </c>
+      <c r="J97" t="str">
+        <f t="shared" si="13"/>
+        <v>0A1E</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="16"/>
+        <v>1CF2</v>
+      </c>
+    </row>
+    <row r="98" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G98">
+        <f t="shared" si="15"/>
+        <v>2512</v>
+      </c>
+      <c r="H98">
+        <f>SUM($H97+78)</f>
+        <v>7488</v>
+      </c>
+      <c r="J98" t="str">
+        <f t="shared" si="13"/>
+        <v>09D0</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="16"/>
+        <v>1D40</v>
+      </c>
+    </row>
+    <row r="99" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G99">
+        <f t="shared" si="15"/>
+        <v>2434</v>
+      </c>
+      <c r="H99">
+        <f>SUM($H98+78)</f>
+        <v>7566</v>
+      </c>
+      <c r="J99" t="str">
+        <f t="shared" si="13"/>
+        <v>0982</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="16"/>
+        <v>1D8E</v>
+      </c>
+    </row>
+    <row r="100" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G100">
+        <f t="shared" si="15"/>
+        <v>2356</v>
+      </c>
+      <c r="H100">
+        <f>SUM($H99+78)</f>
+        <v>7644</v>
+      </c>
+      <c r="J100" t="str">
+        <f t="shared" si="13"/>
+        <v>0934</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="16"/>
+        <v>1DDC</v>
+      </c>
+    </row>
+    <row r="101" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G101">
+        <f t="shared" si="15"/>
+        <v>2278</v>
+      </c>
+      <c r="H101">
+        <f>SUM($H100+78)</f>
+        <v>7722</v>
+      </c>
+      <c r="J101" t="str">
+        <f t="shared" si="13"/>
+        <v>08E6</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="16"/>
+        <v>1E2A</v>
+      </c>
+    </row>
+    <row r="102" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G102">
+        <f t="shared" si="15"/>
+        <v>2200</v>
+      </c>
+      <c r="H102">
+        <f>SUM($H101+78)</f>
+        <v>7800</v>
+      </c>
+      <c r="J102" t="str">
+        <f t="shared" si="13"/>
+        <v>0898</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="16"/>
+        <v>1E78</v>
+      </c>
+    </row>
+    <row r="103" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G103">
+        <f t="shared" si="15"/>
+        <v>2122</v>
+      </c>
+      <c r="H103">
+        <f>SUM($H102+78)</f>
+        <v>7878</v>
+      </c>
+      <c r="J103" t="str">
+        <f t="shared" si="13"/>
+        <v>084A</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="16"/>
+        <v>1EC6</v>
+      </c>
+    </row>
+    <row r="104" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G104">
+        <f t="shared" si="15"/>
+        <v>2044</v>
+      </c>
+      <c r="H104">
+        <f>SUM($H103+78)</f>
+        <v>7956</v>
+      </c>
+      <c r="J104" t="str">
+        <f t="shared" si="13"/>
+        <v>07FC</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="16"/>
+        <v>1F14</v>
+      </c>
+    </row>
+    <row r="105" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G105">
+        <f t="shared" si="15"/>
+        <v>1966</v>
+      </c>
+      <c r="H105">
+        <f>SUM($H104+78)</f>
+        <v>8034</v>
+      </c>
+      <c r="J105" t="str">
+        <f t="shared" si="13"/>
+        <v>07AE</v>
+      </c>
+      <c r="L105" t="str">
+        <f t="shared" si="16"/>
+        <v>1F62</v>
+      </c>
+    </row>
+    <row r="106" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G106">
+        <f t="shared" si="15"/>
+        <v>1888</v>
+      </c>
+      <c r="H106">
+        <f>SUM($H105+78)</f>
+        <v>8112</v>
+      </c>
+      <c r="J106" t="str">
+        <f t="shared" si="13"/>
+        <v>0760</v>
+      </c>
+      <c r="L106" t="str">
+        <f t="shared" si="16"/>
+        <v>1FB0</v>
+      </c>
+    </row>
+    <row r="107" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G107">
+        <f t="shared" si="15"/>
+        <v>1810</v>
+      </c>
+      <c r="H107">
+        <f>SUM($H106+78)</f>
+        <v>8190</v>
+      </c>
+      <c r="J107" t="str">
+        <f t="shared" si="13"/>
+        <v>0712</v>
+      </c>
+      <c r="L107" t="str">
+        <f t="shared" si="16"/>
+        <v>1FFE</v>
+      </c>
+    </row>
+    <row r="108" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G108">
+        <f t="shared" si="15"/>
+        <v>1732</v>
+      </c>
+      <c r="H108">
+        <f>SUM($H107+78)</f>
+        <v>8268</v>
+      </c>
+      <c r="J108" t="str">
+        <f t="shared" si="13"/>
+        <v>06C4</v>
+      </c>
+      <c r="L108" t="str">
+        <f t="shared" si="16"/>
+        <v>204C</v>
+      </c>
+    </row>
+    <row r="109" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G109">
+        <f t="shared" si="15"/>
+        <v>1654</v>
+      </c>
+      <c r="H109">
+        <f>SUM($H108+78)</f>
+        <v>8346</v>
+      </c>
+      <c r="J109" t="str">
+        <f t="shared" si="13"/>
+        <v>0676</v>
+      </c>
+      <c r="L109" t="str">
+        <f t="shared" si="16"/>
+        <v>209A</v>
+      </c>
+    </row>
+    <row r="110" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G110">
+        <f t="shared" si="15"/>
+        <v>1576</v>
+      </c>
+      <c r="H110">
+        <f>SUM($H109+78)</f>
+        <v>8424</v>
+      </c>
+      <c r="J110" t="str">
+        <f t="shared" si="13"/>
+        <v>0628</v>
+      </c>
+      <c r="L110" t="str">
+        <f t="shared" si="16"/>
+        <v>20E8</v>
+      </c>
+    </row>
+    <row r="111" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G111">
+        <f t="shared" si="15"/>
+        <v>1498</v>
+      </c>
+      <c r="H111">
+        <f>SUM($H110+78)</f>
+        <v>8502</v>
+      </c>
+      <c r="J111" t="str">
+        <f t="shared" si="13"/>
+        <v>05DA</v>
+      </c>
+      <c r="L111" t="str">
+        <f t="shared" si="16"/>
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="112" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G112">
+        <f t="shared" si="15"/>
+        <v>1420</v>
+      </c>
+      <c r="H112">
+        <f>SUM($H111+78)</f>
+        <v>8580</v>
+      </c>
+      <c r="J112" t="str">
+        <f t="shared" si="13"/>
+        <v>058C</v>
+      </c>
+      <c r="L112" t="str">
+        <f t="shared" si="16"/>
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="113" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G113">
+        <f t="shared" si="15"/>
+        <v>1342</v>
+      </c>
+      <c r="H113">
+        <f>SUM($H112+78)</f>
+        <v>8658</v>
+      </c>
+      <c r="J113" t="str">
+        <f t="shared" si="13"/>
+        <v>053E</v>
+      </c>
+      <c r="L113" t="str">
+        <f t="shared" si="16"/>
+        <v>21D2</v>
+      </c>
+    </row>
+    <row r="114" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G114">
+        <f t="shared" si="15"/>
+        <v>1264</v>
+      </c>
+      <c r="H114">
+        <f>SUM($H113+78)</f>
+        <v>8736</v>
+      </c>
+      <c r="J114" t="str">
+        <f t="shared" si="13"/>
+        <v>04F0</v>
+      </c>
+      <c r="L114" t="str">
+        <f t="shared" si="16"/>
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="115" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G115">
+        <f t="shared" si="15"/>
+        <v>1186</v>
+      </c>
+      <c r="H115">
+        <f>SUM($H114+78)</f>
+        <v>8814</v>
+      </c>
+      <c r="J115" t="str">
+        <f t="shared" si="13"/>
+        <v>04A2</v>
+      </c>
+      <c r="L115" t="str">
+        <f t="shared" si="16"/>
+        <v>226E</v>
+      </c>
+    </row>
+    <row r="116" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G116">
+        <f t="shared" si="15"/>
+        <v>1108</v>
+      </c>
+      <c r="H116">
+        <f>SUM($H115+78)</f>
+        <v>8892</v>
+      </c>
+      <c r="J116" t="str">
+        <f t="shared" si="13"/>
+        <v>0454</v>
+      </c>
+      <c r="L116" t="str">
+        <f t="shared" si="16"/>
+        <v>22BC</v>
+      </c>
+    </row>
+    <row r="117" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G117">
+        <f t="shared" si="15"/>
+        <v>1030</v>
+      </c>
+      <c r="H117">
+        <f>SUM($H116+78)</f>
+        <v>8970</v>
+      </c>
+      <c r="J117" t="str">
+        <f t="shared" si="13"/>
+        <v>0406</v>
+      </c>
+      <c r="L117" t="str">
+        <f t="shared" si="16"/>
+        <v>230A</v>
+      </c>
+    </row>
+    <row r="118" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G118">
+        <f t="shared" si="15"/>
+        <v>952</v>
+      </c>
+      <c r="H118">
+        <f>SUM($H117+78)</f>
+        <v>9048</v>
+      </c>
+      <c r="J118" t="str">
+        <f t="shared" si="13"/>
+        <v>03B8</v>
+      </c>
+      <c r="L118" t="str">
+        <f t="shared" si="16"/>
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="119" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G119">
+        <f t="shared" si="15"/>
+        <v>874</v>
+      </c>
+      <c r="H119">
+        <f>SUM($H118+78)</f>
+        <v>9126</v>
+      </c>
+      <c r="J119" t="str">
+        <f t="shared" si="13"/>
+        <v>036A</v>
+      </c>
+      <c r="L119" t="str">
+        <f t="shared" si="16"/>
+        <v>23A6</v>
+      </c>
+    </row>
+    <row r="120" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G120">
+        <f t="shared" si="15"/>
+        <v>796</v>
+      </c>
+      <c r="H120">
+        <f>SUM($H119+78)</f>
+        <v>9204</v>
+      </c>
+      <c r="J120" t="str">
+        <f t="shared" si="13"/>
+        <v>031C</v>
+      </c>
+      <c r="L120" t="str">
+        <f t="shared" si="16"/>
+        <v>23F4</v>
+      </c>
+    </row>
+    <row r="121" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G121">
+        <f t="shared" si="15"/>
+        <v>718</v>
+      </c>
+      <c r="H121">
+        <f>SUM($H120+78)</f>
+        <v>9282</v>
+      </c>
+      <c r="J121" t="str">
+        <f t="shared" si="13"/>
+        <v>02CE</v>
+      </c>
+      <c r="L121" t="str">
+        <f t="shared" si="16"/>
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="122" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G122">
+        <f t="shared" si="15"/>
         <v>640</v>
       </c>
-      <c r="C72" t="str">
-        <f t="shared" si="5"/>
+      <c r="H122">
+        <f>SUM($H121+78)</f>
+        <v>9360</v>
+      </c>
+      <c r="J122" t="str">
+        <f t="shared" si="13"/>
         <v>0280</v>
       </c>
-      <c r="D72">
-        <f t="shared" si="6"/>
+      <c r="L122" t="str">
+        <f t="shared" si="16"/>
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="123" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G123">
+        <f t="shared" si="15"/>
+        <v>562</v>
+      </c>
+      <c r="H123">
+        <f>SUM($H122+78)</f>
+        <v>9438</v>
+      </c>
+      <c r="J123" t="str">
+        <f t="shared" si="13"/>
+        <v>0232</v>
+      </c>
+      <c r="L123" t="str">
+        <f t="shared" si="16"/>
+        <v>24DE</v>
+      </c>
+    </row>
+    <row r="124" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G124">
+        <f t="shared" si="15"/>
+        <v>484</v>
+      </c>
+      <c r="H124">
+        <f>SUM($H123+78)</f>
+        <v>9516</v>
+      </c>
+      <c r="J124" t="str">
+        <f t="shared" si="13"/>
+        <v>01E4</v>
+      </c>
+      <c r="L124" t="str">
+        <f t="shared" si="16"/>
+        <v>252C</v>
+      </c>
+    </row>
+    <row r="125" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G125">
+        <f t="shared" si="15"/>
+        <v>406</v>
+      </c>
+      <c r="H125">
+        <f>SUM($H124+78)</f>
+        <v>9594</v>
+      </c>
+      <c r="J125" t="str">
+        <f t="shared" si="13"/>
+        <v>0196</v>
+      </c>
+      <c r="L125" t="str">
+        <f t="shared" si="16"/>
+        <v>257A</v>
+      </c>
+    </row>
+    <row r="126" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G126">
+        <f t="shared" si="15"/>
+        <v>328</v>
+      </c>
+      <c r="H126">
+        <f>SUM($H125+78)</f>
+        <v>9672</v>
+      </c>
+      <c r="J126" t="str">
+        <f t="shared" si="13"/>
+        <v>0148</v>
+      </c>
+      <c r="L126" t="str">
+        <f t="shared" si="16"/>
+        <v>25C8</v>
+      </c>
+    </row>
+    <row r="127" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G127">
+        <f t="shared" si="15"/>
+        <v>250</v>
+      </c>
+      <c r="H127">
+        <f>SUM($H126+78)</f>
+        <v>9750</v>
+      </c>
+      <c r="J127" t="str">
+        <f t="shared" si="13"/>
+        <v>00FA</v>
+      </c>
+      <c r="L127" t="str">
+        <f t="shared" si="16"/>
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="128" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G128">
+        <f t="shared" si="15"/>
+        <v>172</v>
+      </c>
+      <c r="H128">
+        <f>SUM($H127+78)</f>
+        <v>9828</v>
+      </c>
+      <c r="J128" t="str">
+        <f t="shared" si="13"/>
+        <v>00AC</v>
+      </c>
+      <c r="L128" t="str">
+        <f t="shared" si="16"/>
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="129" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G129">
+        <f t="shared" si="15"/>
+        <v>94</v>
+      </c>
+      <c r="H129">
+        <f>SUM($H128+78)</f>
+        <v>9906</v>
+      </c>
+      <c r="J129" t="str">
+        <f t="shared" si="13"/>
+        <v>005E</v>
+      </c>
+      <c r="L129" t="str">
+        <f t="shared" si="16"/>
+        <v>26B2</v>
+      </c>
+    </row>
+    <row r="130" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G130">
+        <f t="shared" si="15"/>
+        <v>16</v>
+      </c>
+      <c r="H130">
+        <f>SUM($H129+78)</f>
+        <v>9984</v>
+      </c>
+      <c r="J130" t="str">
+        <f t="shared" si="13"/>
+        <v>0010</v>
+      </c>
+      <c r="L130" t="str">
+        <f t="shared" si="16"/>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="131" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G131">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <v>10000</v>
+      </c>
+      <c r="J131" t="str">
+        <f t="shared" si="13"/>
+        <v>0000</v>
+      </c>
+      <c r="L131" t="str">
+        <f t="shared" si="16"/>
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="132" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G132">
+        <f t="shared" si="15"/>
+        <v>78</v>
+      </c>
+      <c r="H132">
+        <f>SUM($H131-78)</f>
+        <v>9922</v>
+      </c>
+    </row>
+    <row r="133" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G133">
+        <f t="shared" si="15"/>
+        <v>156</v>
+      </c>
+      <c r="H133">
+        <f t="shared" ref="H133:H196" si="18">SUM($H132-78)</f>
+        <v>9844</v>
+      </c>
+    </row>
+    <row r="134" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G134">
+        <f t="shared" si="15"/>
+        <v>234</v>
+      </c>
+      <c r="H134">
+        <f t="shared" si="18"/>
+        <v>9766</v>
+      </c>
+    </row>
+    <row r="135" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G135">
+        <f t="shared" ref="G135:G198" si="19">SUM($G$2-$H135)</f>
+        <v>312</v>
+      </c>
+      <c r="H135">
+        <f t="shared" si="18"/>
+        <v>9688</v>
+      </c>
+    </row>
+    <row r="136" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G136">
+        <f t="shared" si="19"/>
+        <v>390</v>
+      </c>
+      <c r="H136">
+        <f t="shared" si="18"/>
+        <v>9610</v>
+      </c>
+    </row>
+    <row r="137" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G137">
+        <f t="shared" si="19"/>
+        <v>468</v>
+      </c>
+      <c r="H137">
+        <f t="shared" si="18"/>
+        <v>9532</v>
+      </c>
+    </row>
+    <row r="138" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G138">
+        <f t="shared" si="19"/>
+        <v>546</v>
+      </c>
+      <c r="H138">
+        <f t="shared" si="18"/>
+        <v>9454</v>
+      </c>
+    </row>
+    <row r="139" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G139">
+        <f t="shared" si="19"/>
+        <v>624</v>
+      </c>
+      <c r="H139">
+        <f t="shared" si="18"/>
+        <v>9376</v>
+      </c>
+    </row>
+    <row r="140" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G140">
+        <f t="shared" si="19"/>
+        <v>702</v>
+      </c>
+      <c r="H140">
+        <f t="shared" si="18"/>
+        <v>9298</v>
+      </c>
+    </row>
+    <row r="141" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G141">
+        <f t="shared" si="19"/>
+        <v>780</v>
+      </c>
+      <c r="H141">
+        <f t="shared" si="18"/>
+        <v>9220</v>
+      </c>
+    </row>
+    <row r="142" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G142">
+        <f t="shared" si="19"/>
+        <v>858</v>
+      </c>
+      <c r="H142">
+        <f t="shared" si="18"/>
+        <v>9142</v>
+      </c>
+    </row>
+    <row r="143" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G143">
+        <f t="shared" si="19"/>
+        <v>936</v>
+      </c>
+      <c r="H143">
+        <f t="shared" si="18"/>
+        <v>9064</v>
+      </c>
+    </row>
+    <row r="144" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G144">
+        <f t="shared" si="19"/>
+        <v>1014</v>
+      </c>
+      <c r="H144">
+        <f t="shared" si="18"/>
+        <v>8986</v>
+      </c>
+    </row>
+    <row r="145" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G145">
+        <f t="shared" si="19"/>
+        <v>1092</v>
+      </c>
+      <c r="H145">
+        <f t="shared" si="18"/>
+        <v>8908</v>
+      </c>
+    </row>
+    <row r="146" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G146">
+        <f t="shared" si="19"/>
+        <v>1170</v>
+      </c>
+      <c r="H146">
+        <f t="shared" si="18"/>
+        <v>8830</v>
+      </c>
+    </row>
+    <row r="147" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G147">
+        <f t="shared" si="19"/>
+        <v>1248</v>
+      </c>
+      <c r="H147">
+        <f t="shared" si="18"/>
+        <v>8752</v>
+      </c>
+    </row>
+    <row r="148" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G148">
+        <f t="shared" si="19"/>
+        <v>1326</v>
+      </c>
+      <c r="H148">
+        <f t="shared" si="18"/>
+        <v>8674</v>
+      </c>
+    </row>
+    <row r="149" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G149">
+        <f t="shared" si="19"/>
+        <v>1404</v>
+      </c>
+      <c r="H149">
+        <f t="shared" si="18"/>
+        <v>8596</v>
+      </c>
+    </row>
+    <row r="150" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G150">
+        <f t="shared" si="19"/>
+        <v>1482</v>
+      </c>
+      <c r="H150">
+        <f t="shared" si="18"/>
+        <v>8518</v>
+      </c>
+    </row>
+    <row r="151" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G151">
+        <f t="shared" si="19"/>
+        <v>1560</v>
+      </c>
+      <c r="H151">
+        <f t="shared" si="18"/>
+        <v>8440</v>
+      </c>
+    </row>
+    <row r="152" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G152">
+        <f t="shared" si="19"/>
+        <v>1638</v>
+      </c>
+      <c r="H152">
+        <f t="shared" si="18"/>
+        <v>8362</v>
+      </c>
+    </row>
+    <row r="153" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G153">
+        <f t="shared" si="19"/>
+        <v>1716</v>
+      </c>
+      <c r="H153">
+        <f t="shared" si="18"/>
+        <v>8284</v>
+      </c>
+    </row>
+    <row r="154" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G154">
+        <f t="shared" si="19"/>
+        <v>1794</v>
+      </c>
+      <c r="H154">
+        <f t="shared" si="18"/>
+        <v>8206</v>
+      </c>
+    </row>
+    <row r="155" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G155">
+        <f t="shared" si="19"/>
+        <v>1872</v>
+      </c>
+      <c r="H155">
+        <f t="shared" si="18"/>
+        <v>8128</v>
+      </c>
+    </row>
+    <row r="156" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G156">
+        <f t="shared" si="19"/>
+        <v>1950</v>
+      </c>
+      <c r="H156">
+        <f t="shared" si="18"/>
+        <v>8050</v>
+      </c>
+    </row>
+    <row r="157" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G157">
+        <f t="shared" si="19"/>
+        <v>2028</v>
+      </c>
+      <c r="H157">
+        <f t="shared" si="18"/>
+        <v>7972</v>
+      </c>
+    </row>
+    <row r="158" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G158">
+        <f t="shared" si="19"/>
+        <v>2106</v>
+      </c>
+      <c r="H158">
+        <f t="shared" si="18"/>
+        <v>7894</v>
+      </c>
+    </row>
+    <row r="159" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G159">
+        <f t="shared" si="19"/>
+        <v>2184</v>
+      </c>
+      <c r="H159">
+        <f t="shared" si="18"/>
+        <v>7816</v>
+      </c>
+    </row>
+    <row r="160" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G160">
+        <f t="shared" si="19"/>
+        <v>2262</v>
+      </c>
+      <c r="H160">
+        <f t="shared" si="18"/>
+        <v>7738</v>
+      </c>
+    </row>
+    <row r="161" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G161">
+        <f t="shared" si="19"/>
+        <v>2340</v>
+      </c>
+      <c r="H161">
+        <f t="shared" si="18"/>
+        <v>7660</v>
+      </c>
+    </row>
+    <row r="162" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G162">
+        <f t="shared" si="19"/>
+        <v>2418</v>
+      </c>
+      <c r="H162">
+        <f t="shared" si="18"/>
+        <v>7582</v>
+      </c>
+    </row>
+    <row r="163" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G163">
+        <f t="shared" si="19"/>
+        <v>2496</v>
+      </c>
+      <c r="H163">
+        <f t="shared" si="18"/>
+        <v>7504</v>
+      </c>
+    </row>
+    <row r="164" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G164">
+        <f t="shared" si="19"/>
+        <v>2574</v>
+      </c>
+      <c r="H164">
+        <f t="shared" si="18"/>
+        <v>7426</v>
+      </c>
+    </row>
+    <row r="165" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G165">
+        <f t="shared" si="19"/>
+        <v>2652</v>
+      </c>
+      <c r="H165">
+        <f t="shared" si="18"/>
+        <v>7348</v>
+      </c>
+    </row>
+    <row r="166" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G166">
+        <f t="shared" si="19"/>
+        <v>2730</v>
+      </c>
+      <c r="H166">
+        <f t="shared" si="18"/>
+        <v>7270</v>
+      </c>
+    </row>
+    <row r="167" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G167">
+        <f t="shared" si="19"/>
+        <v>2808</v>
+      </c>
+      <c r="H167">
+        <f t="shared" si="18"/>
+        <v>7192</v>
+      </c>
+    </row>
+    <row r="168" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G168">
+        <f t="shared" si="19"/>
+        <v>2886</v>
+      </c>
+      <c r="H168">
+        <f t="shared" si="18"/>
+        <v>7114</v>
+      </c>
+    </row>
+    <row r="169" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G169">
+        <f t="shared" si="19"/>
+        <v>2964</v>
+      </c>
+      <c r="H169">
+        <f t="shared" si="18"/>
+        <v>7036</v>
+      </c>
+    </row>
+    <row r="170" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G170">
+        <f t="shared" si="19"/>
+        <v>3042</v>
+      </c>
+      <c r="H170">
+        <f t="shared" si="18"/>
+        <v>6958</v>
+      </c>
+    </row>
+    <row r="171" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G171">
+        <f t="shared" si="19"/>
+        <v>3120</v>
+      </c>
+      <c r="H171">
+        <f t="shared" si="18"/>
+        <v>6880</v>
+      </c>
+    </row>
+    <row r="172" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G172">
+        <f t="shared" si="19"/>
+        <v>3198</v>
+      </c>
+      <c r="H172">
+        <f t="shared" si="18"/>
+        <v>6802</v>
+      </c>
+    </row>
+    <row r="173" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G173">
+        <f t="shared" si="19"/>
+        <v>3276</v>
+      </c>
+      <c r="H173">
+        <f t="shared" si="18"/>
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="174" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G174">
+        <f t="shared" si="19"/>
+        <v>3354</v>
+      </c>
+      <c r="H174">
+        <f t="shared" si="18"/>
+        <v>6646</v>
+      </c>
+    </row>
+    <row r="175" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G175">
+        <f t="shared" si="19"/>
+        <v>3432</v>
+      </c>
+      <c r="H175">
+        <f t="shared" si="18"/>
+        <v>6568</v>
+      </c>
+    </row>
+    <row r="176" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G176">
+        <f t="shared" si="19"/>
+        <v>3510</v>
+      </c>
+      <c r="H176">
+        <f t="shared" si="18"/>
+        <v>6490</v>
+      </c>
+    </row>
+    <row r="177" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G177">
+        <f t="shared" si="19"/>
+        <v>3588</v>
+      </c>
+      <c r="H177">
+        <f t="shared" si="18"/>
+        <v>6412</v>
+      </c>
+    </row>
+    <row r="178" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G178">
+        <f t="shared" si="19"/>
+        <v>3666</v>
+      </c>
+      <c r="H178">
+        <f t="shared" si="18"/>
+        <v>6334</v>
+      </c>
+    </row>
+    <row r="179" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G179">
+        <f t="shared" si="19"/>
+        <v>3744</v>
+      </c>
+      <c r="H179">
+        <f t="shared" si="18"/>
+        <v>6256</v>
+      </c>
+    </row>
+    <row r="180" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G180">
+        <f t="shared" si="19"/>
+        <v>3822</v>
+      </c>
+      <c r="H180">
+        <f t="shared" si="18"/>
+        <v>6178</v>
+      </c>
+    </row>
+    <row r="181" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G181">
+        <f t="shared" si="19"/>
+        <v>3900</v>
+      </c>
+      <c r="H181">
+        <f t="shared" si="18"/>
+        <v>6100</v>
+      </c>
+    </row>
+    <row r="182" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G182">
+        <f t="shared" si="19"/>
+        <v>3978</v>
+      </c>
+      <c r="H182">
+        <f t="shared" si="18"/>
+        <v>6022</v>
+      </c>
+    </row>
+    <row r="183" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G183">
+        <f t="shared" si="19"/>
+        <v>4056</v>
+      </c>
+      <c r="H183">
+        <f t="shared" si="18"/>
+        <v>5944</v>
+      </c>
+    </row>
+    <row r="184" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G184">
+        <f t="shared" si="19"/>
+        <v>4134</v>
+      </c>
+      <c r="H184">
+        <f t="shared" si="18"/>
+        <v>5866</v>
+      </c>
+    </row>
+    <row r="185" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G185">
+        <f t="shared" si="19"/>
+        <v>4212</v>
+      </c>
+      <c r="H185">
+        <f t="shared" si="18"/>
+        <v>5788</v>
+      </c>
+    </row>
+    <row r="186" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G186">
+        <f t="shared" si="19"/>
+        <v>4290</v>
+      </c>
+      <c r="H186">
+        <f t="shared" si="18"/>
+        <v>5710</v>
+      </c>
+    </row>
+    <row r="187" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G187">
+        <f t="shared" si="19"/>
+        <v>4368</v>
+      </c>
+      <c r="H187">
+        <f t="shared" si="18"/>
+        <v>5632</v>
+      </c>
+    </row>
+    <row r="188" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G188">
+        <f t="shared" si="19"/>
+        <v>4446</v>
+      </c>
+      <c r="H188">
+        <f t="shared" si="18"/>
+        <v>5554</v>
+      </c>
+    </row>
+    <row r="189" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G189">
+        <f t="shared" si="19"/>
+        <v>4524</v>
+      </c>
+      <c r="H189">
+        <f t="shared" si="18"/>
+        <v>5476</v>
+      </c>
+    </row>
+    <row r="190" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G190">
+        <f t="shared" si="19"/>
+        <v>4602</v>
+      </c>
+      <c r="H190">
+        <f t="shared" si="18"/>
+        <v>5398</v>
+      </c>
+    </row>
+    <row r="191" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G191">
+        <f t="shared" si="19"/>
+        <v>4680</v>
+      </c>
+      <c r="H191">
+        <f t="shared" si="18"/>
+        <v>5320</v>
+      </c>
+    </row>
+    <row r="192" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G192">
+        <f t="shared" si="19"/>
+        <v>4758</v>
+      </c>
+      <c r="H192">
+        <f t="shared" si="18"/>
+        <v>5242</v>
+      </c>
+    </row>
+    <row r="193" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G193">
+        <f t="shared" si="19"/>
+        <v>4836</v>
+      </c>
+      <c r="H193">
+        <f t="shared" si="18"/>
+        <v>5164</v>
+      </c>
+    </row>
+    <row r="194" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G194">
+        <f t="shared" si="19"/>
+        <v>4914</v>
+      </c>
+      <c r="H194">
+        <f t="shared" si="18"/>
+        <v>5086</v>
+      </c>
+    </row>
+    <row r="195" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G195">
+        <f t="shared" si="19"/>
+        <v>4992</v>
+      </c>
+      <c r="H195">
+        <f t="shared" si="18"/>
+        <v>5008</v>
+      </c>
+    </row>
+    <row r="196" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G196">
+        <f t="shared" si="19"/>
+        <v>5070</v>
+      </c>
+      <c r="H196">
+        <f t="shared" si="18"/>
+        <v>4930</v>
+      </c>
+    </row>
+    <row r="197" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G197">
+        <f t="shared" si="19"/>
+        <v>5148</v>
+      </c>
+      <c r="H197">
+        <f t="shared" ref="H197:H260" si="20">SUM($H196-78)</f>
+        <v>4852</v>
+      </c>
+    </row>
+    <row r="198" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G198">
+        <f t="shared" si="19"/>
+        <v>5226</v>
+      </c>
+      <c r="H198">
+        <f t="shared" si="20"/>
+        <v>4774</v>
+      </c>
+    </row>
+    <row r="199" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G199">
+        <f t="shared" ref="G199:G259" si="21">SUM($G$2-$H199)</f>
+        <v>5304</v>
+      </c>
+      <c r="H199">
+        <f t="shared" si="20"/>
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="200" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G200">
+        <f t="shared" si="21"/>
+        <v>5382</v>
+      </c>
+      <c r="H200">
+        <f t="shared" si="20"/>
+        <v>4618</v>
+      </c>
+    </row>
+    <row r="201" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G201">
+        <f t="shared" si="21"/>
+        <v>5460</v>
+      </c>
+      <c r="H201">
+        <f t="shared" si="20"/>
+        <v>4540</v>
+      </c>
+    </row>
+    <row r="202" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G202">
+        <f t="shared" si="21"/>
+        <v>5538</v>
+      </c>
+      <c r="H202">
+        <f t="shared" si="20"/>
+        <v>4462</v>
+      </c>
+    </row>
+    <row r="203" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G203">
+        <f t="shared" si="21"/>
+        <v>5616</v>
+      </c>
+      <c r="H203">
+        <f t="shared" si="20"/>
+        <v>4384</v>
+      </c>
+    </row>
+    <row r="204" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G204">
+        <f t="shared" si="21"/>
+        <v>5694</v>
+      </c>
+      <c r="H204">
+        <f t="shared" si="20"/>
+        <v>4306</v>
+      </c>
+    </row>
+    <row r="205" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G205">
+        <f t="shared" si="21"/>
+        <v>5772</v>
+      </c>
+      <c r="H205">
+        <f t="shared" si="20"/>
+        <v>4228</v>
+      </c>
+    </row>
+    <row r="206" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G206">
+        <f t="shared" si="21"/>
+        <v>5850</v>
+      </c>
+      <c r="H206">
+        <f t="shared" si="20"/>
+        <v>4150</v>
+      </c>
+    </row>
+    <row r="207" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G207">
+        <f t="shared" si="21"/>
+        <v>5928</v>
+      </c>
+      <c r="H207">
+        <f t="shared" si="20"/>
+        <v>4072</v>
+      </c>
+    </row>
+    <row r="208" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G208">
+        <f t="shared" si="21"/>
+        <v>6006</v>
+      </c>
+      <c r="H208">
+        <f t="shared" si="20"/>
+        <v>3994</v>
+      </c>
+    </row>
+    <row r="209" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G209">
+        <f t="shared" si="21"/>
+        <v>6084</v>
+      </c>
+      <c r="H209">
+        <f t="shared" si="20"/>
+        <v>3916</v>
+      </c>
+    </row>
+    <row r="210" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G210">
+        <f t="shared" si="21"/>
+        <v>6162</v>
+      </c>
+      <c r="H210">
+        <f t="shared" si="20"/>
+        <v>3838</v>
+      </c>
+    </row>
+    <row r="211" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G211">
+        <f t="shared" si="21"/>
+        <v>6240</v>
+      </c>
+      <c r="H211">
+        <f t="shared" si="20"/>
+        <v>3760</v>
+      </c>
+    </row>
+    <row r="212" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G212">
+        <f t="shared" si="21"/>
+        <v>6318</v>
+      </c>
+      <c r="H212">
+        <f t="shared" si="20"/>
+        <v>3682</v>
+      </c>
+    </row>
+    <row r="213" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G213">
+        <f t="shared" si="21"/>
+        <v>6396</v>
+      </c>
+      <c r="H213">
+        <f t="shared" si="20"/>
+        <v>3604</v>
+      </c>
+    </row>
+    <row r="214" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G214">
+        <f t="shared" si="21"/>
+        <v>6474</v>
+      </c>
+      <c r="H214">
+        <f t="shared" si="20"/>
+        <v>3526</v>
+      </c>
+    </row>
+    <row r="215" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G215">
+        <f t="shared" si="21"/>
+        <v>6552</v>
+      </c>
+      <c r="H215">
+        <f t="shared" si="20"/>
+        <v>3448</v>
+      </c>
+    </row>
+    <row r="216" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G216">
+        <f t="shared" si="21"/>
+        <v>6630</v>
+      </c>
+      <c r="H216">
+        <f t="shared" si="20"/>
+        <v>3370</v>
+      </c>
+    </row>
+    <row r="217" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G217">
+        <f t="shared" si="21"/>
+        <v>6708</v>
+      </c>
+      <c r="H217">
+        <f t="shared" si="20"/>
+        <v>3292</v>
+      </c>
+    </row>
+    <row r="218" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G218">
+        <f t="shared" si="21"/>
+        <v>6786</v>
+      </c>
+      <c r="H218">
+        <f t="shared" si="20"/>
+        <v>3214</v>
+      </c>
+    </row>
+    <row r="219" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G219">
+        <f t="shared" si="21"/>
+        <v>6864</v>
+      </c>
+      <c r="H219">
+        <f t="shared" si="20"/>
+        <v>3136</v>
+      </c>
+    </row>
+    <row r="220" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G220">
+        <f t="shared" si="21"/>
+        <v>6942</v>
+      </c>
+      <c r="H220">
+        <f t="shared" si="20"/>
+        <v>3058</v>
+      </c>
+    </row>
+    <row r="221" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G221">
+        <f t="shared" si="21"/>
+        <v>7020</v>
+      </c>
+      <c r="H221">
+        <f t="shared" si="20"/>
+        <v>2980</v>
+      </c>
+    </row>
+    <row r="222" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G222">
+        <f t="shared" si="21"/>
+        <v>7098</v>
+      </c>
+      <c r="H222">
+        <f t="shared" si="20"/>
+        <v>2902</v>
+      </c>
+    </row>
+    <row r="223" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G223">
+        <f t="shared" si="21"/>
+        <v>7176</v>
+      </c>
+      <c r="H223">
+        <f t="shared" si="20"/>
+        <v>2824</v>
+      </c>
+    </row>
+    <row r="224" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G224">
+        <f t="shared" si="21"/>
+        <v>7254</v>
+      </c>
+      <c r="H224">
+        <f t="shared" si="20"/>
+        <v>2746</v>
+      </c>
+    </row>
+    <row r="225" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G225">
+        <f t="shared" si="21"/>
+        <v>7332</v>
+      </c>
+      <c r="H225">
+        <f t="shared" si="20"/>
+        <v>2668</v>
+      </c>
+    </row>
+    <row r="226" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G226">
+        <f t="shared" si="21"/>
+        <v>7410</v>
+      </c>
+      <c r="H226">
+        <f t="shared" si="20"/>
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="227" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G227">
+        <f t="shared" si="21"/>
+        <v>7488</v>
+      </c>
+      <c r="H227">
+        <f t="shared" si="20"/>
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="228" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G228">
+        <f t="shared" si="21"/>
+        <v>7566</v>
+      </c>
+      <c r="H228">
+        <f t="shared" si="20"/>
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="229" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G229">
+        <f t="shared" si="21"/>
+        <v>7644</v>
+      </c>
+      <c r="H229">
+        <f t="shared" si="20"/>
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="230" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G230">
+        <f t="shared" si="21"/>
+        <v>7722</v>
+      </c>
+      <c r="H230">
+        <f t="shared" si="20"/>
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="231" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G231">
+        <f t="shared" si="21"/>
+        <v>7800</v>
+      </c>
+      <c r="H231">
+        <f t="shared" si="20"/>
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="232" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G232">
+        <f t="shared" si="21"/>
+        <v>7878</v>
+      </c>
+      <c r="H232">
+        <f t="shared" si="20"/>
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="233" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G233">
+        <f t="shared" si="21"/>
+        <v>7956</v>
+      </c>
+      <c r="H233">
+        <f t="shared" si="20"/>
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="234" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G234">
+        <f t="shared" si="21"/>
+        <v>8034</v>
+      </c>
+      <c r="H234">
+        <f t="shared" si="20"/>
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="235" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G235">
+        <f t="shared" si="21"/>
+        <v>8112</v>
+      </c>
+      <c r="H235">
+        <f t="shared" si="20"/>
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="236" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G236">
+        <f t="shared" si="21"/>
+        <v>8190</v>
+      </c>
+      <c r="H236">
+        <f t="shared" si="20"/>
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="237" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G237">
+        <f t="shared" si="21"/>
+        <v>8268</v>
+      </c>
+      <c r="H237">
+        <f t="shared" si="20"/>
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="238" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G238">
+        <f t="shared" si="21"/>
+        <v>8346</v>
+      </c>
+      <c r="H238">
+        <f t="shared" si="20"/>
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="239" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G239">
+        <f t="shared" si="21"/>
+        <v>8424</v>
+      </c>
+      <c r="H239">
+        <f t="shared" si="20"/>
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="240" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G240">
+        <f t="shared" si="21"/>
+        <v>8502</v>
+      </c>
+      <c r="H240">
+        <f t="shared" si="20"/>
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="241" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G241">
+        <f t="shared" si="21"/>
+        <v>8580</v>
+      </c>
+      <c r="H241">
+        <f t="shared" si="20"/>
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="242" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G242">
+        <f t="shared" si="21"/>
+        <v>8658</v>
+      </c>
+      <c r="H242">
+        <f t="shared" si="20"/>
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="243" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G243">
+        <f t="shared" si="21"/>
+        <v>8736</v>
+      </c>
+      <c r="H243">
+        <f t="shared" si="20"/>
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="244" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G244">
+        <f t="shared" si="21"/>
+        <v>8814</v>
+      </c>
+      <c r="H244">
+        <f t="shared" si="20"/>
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="245" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G245">
+        <f t="shared" si="21"/>
+        <v>8892</v>
+      </c>
+      <c r="H245">
+        <f t="shared" si="20"/>
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="246" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G246">
+        <f t="shared" si="21"/>
+        <v>8970</v>
+      </c>
+      <c r="H246">
+        <f t="shared" si="20"/>
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="247" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G247">
+        <f t="shared" si="21"/>
+        <v>9048</v>
+      </c>
+      <c r="H247">
+        <f t="shared" si="20"/>
+        <v>952</v>
+      </c>
+    </row>
+    <row r="248" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G248">
+        <f t="shared" si="21"/>
+        <v>9126</v>
+      </c>
+      <c r="H248">
+        <f t="shared" si="20"/>
+        <v>874</v>
+      </c>
+    </row>
+    <row r="249" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G249">
+        <f t="shared" si="21"/>
+        <v>9204</v>
+      </c>
+      <c r="H249">
+        <f t="shared" si="20"/>
+        <v>796</v>
+      </c>
+    </row>
+    <row r="250" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G250">
+        <f t="shared" si="21"/>
+        <v>9282</v>
+      </c>
+      <c r="H250">
+        <f t="shared" si="20"/>
+        <v>718</v>
+      </c>
+    </row>
+    <row r="251" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G251">
+        <f t="shared" si="21"/>
         <v>9360</v>
       </c>
-      <c r="E72" t="str">
-        <f t="shared" si="8"/>
-        <v>2490</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <f t="shared" si="7"/>
-        <v>161</v>
-      </c>
-      <c r="B73">
-        <f t="shared" si="9"/>
-        <v>644</v>
-      </c>
-      <c r="C73" t="str">
-        <f t="shared" si="5"/>
-        <v>0284</v>
-      </c>
-      <c r="D73">
-        <f t="shared" si="6"/>
-        <v>9356</v>
-      </c>
-      <c r="E73" t="str">
-        <f t="shared" si="8"/>
-        <v>248C</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <f t="shared" si="7"/>
-        <v>162</v>
-      </c>
-      <c r="B74">
-        <f t="shared" si="9"/>
-        <v>648</v>
-      </c>
-      <c r="C74" t="str">
-        <f t="shared" si="5"/>
-        <v>0288</v>
-      </c>
-      <c r="D74">
-        <f t="shared" si="6"/>
-        <v>9352</v>
-      </c>
-      <c r="E74" t="str">
-        <f t="shared" si="8"/>
-        <v>2488</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <f t="shared" si="7"/>
-        <v>163</v>
-      </c>
-      <c r="B75">
-        <f t="shared" si="9"/>
-        <v>652</v>
-      </c>
-      <c r="C75" t="str">
-        <f t="shared" si="5"/>
-        <v>028C</v>
-      </c>
-      <c r="D75">
-        <f t="shared" si="6"/>
-        <v>9348</v>
-      </c>
-      <c r="E75" t="str">
-        <f t="shared" si="8"/>
-        <v>2484</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <f t="shared" si="7"/>
-        <v>164</v>
-      </c>
-      <c r="B76">
-        <f t="shared" si="9"/>
-        <v>656</v>
-      </c>
-      <c r="C76" t="str">
-        <f t="shared" si="5"/>
-        <v>0290</v>
-      </c>
-      <c r="D76">
-        <f t="shared" si="6"/>
-        <v>9344</v>
-      </c>
-      <c r="E76" t="str">
-        <f t="shared" si="8"/>
-        <v>2480</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <f t="shared" si="7"/>
-        <v>165</v>
-      </c>
-      <c r="B77">
-        <f t="shared" si="9"/>
-        <v>660</v>
-      </c>
-      <c r="C77" t="str">
-        <f t="shared" si="5"/>
-        <v>0294</v>
-      </c>
-      <c r="D77">
-        <f t="shared" si="6"/>
-        <v>9340</v>
-      </c>
-      <c r="E77" t="str">
-        <f t="shared" si="8"/>
-        <v>247C</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <f t="shared" si="7"/>
-        <v>166</v>
-      </c>
-      <c r="B78">
-        <f t="shared" si="9"/>
-        <v>664</v>
-      </c>
-      <c r="C78" t="str">
-        <f t="shared" si="5"/>
-        <v>0298</v>
-      </c>
-      <c r="D78">
-        <f t="shared" si="6"/>
-        <v>9336</v>
-      </c>
-      <c r="E78" t="str">
-        <f t="shared" si="8"/>
-        <v>2478</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <f t="shared" si="7"/>
-        <v>167</v>
-      </c>
-      <c r="B79">
-        <f t="shared" si="9"/>
-        <v>668</v>
-      </c>
-      <c r="C79" t="str">
-        <f t="shared" si="5"/>
-        <v>029C</v>
-      </c>
-      <c r="D79">
-        <f t="shared" si="6"/>
-        <v>9332</v>
-      </c>
-      <c r="E79" t="str">
-        <f t="shared" si="8"/>
-        <v>2474</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <f t="shared" si="7"/>
-        <v>168</v>
-      </c>
-      <c r="B80">
-        <f t="shared" si="9"/>
-        <v>672</v>
-      </c>
-      <c r="C80" t="str">
-        <f t="shared" si="5"/>
-        <v>02A0</v>
-      </c>
-      <c r="D80">
-        <f t="shared" si="6"/>
-        <v>9328</v>
-      </c>
-      <c r="E80" t="str">
-        <f t="shared" si="8"/>
-        <v>2470</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <f t="shared" si="7"/>
-        <v>169</v>
-      </c>
-      <c r="B81">
-        <f t="shared" si="9"/>
-        <v>676</v>
-      </c>
-      <c r="C81" t="str">
-        <f t="shared" si="5"/>
-        <v>02A4</v>
-      </c>
-      <c r="D81">
-        <f t="shared" si="6"/>
-        <v>9324</v>
-      </c>
-      <c r="E81" t="str">
-        <f t="shared" si="8"/>
-        <v>246C</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <f t="shared" si="7"/>
-        <v>170</v>
-      </c>
-      <c r="B82">
-        <f t="shared" si="9"/>
-        <v>680</v>
-      </c>
-      <c r="C82" t="str">
-        <f t="shared" si="5"/>
-        <v>02A8</v>
-      </c>
-      <c r="D82">
-        <f t="shared" si="6"/>
-        <v>9320</v>
-      </c>
-      <c r="E82" t="str">
-        <f t="shared" si="8"/>
-        <v>2468</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <f t="shared" si="7"/>
-        <v>171</v>
-      </c>
-      <c r="B83">
-        <f t="shared" si="9"/>
-        <v>684</v>
-      </c>
-      <c r="C83" t="str">
-        <f t="shared" si="5"/>
-        <v>02AC</v>
-      </c>
-      <c r="D83">
-        <f t="shared" si="6"/>
-        <v>9316</v>
-      </c>
-      <c r="E83" t="str">
-        <f t="shared" si="8"/>
-        <v>2464</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <f t="shared" si="7"/>
+      <c r="H251">
+        <f t="shared" si="20"/>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="252" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G252">
+        <f t="shared" si="21"/>
+        <v>9438</v>
+      </c>
+      <c r="H252">
+        <f t="shared" si="20"/>
+        <v>562</v>
+      </c>
+    </row>
+    <row r="253" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G253">
+        <f t="shared" si="21"/>
+        <v>9516</v>
+      </c>
+      <c r="H253">
+        <f t="shared" si="20"/>
+        <v>484</v>
+      </c>
+    </row>
+    <row r="254" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G254">
+        <f t="shared" si="21"/>
+        <v>9594</v>
+      </c>
+      <c r="H254">
+        <f t="shared" si="20"/>
+        <v>406</v>
+      </c>
+    </row>
+    <row r="255" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G255">
+        <f t="shared" si="21"/>
+        <v>9672</v>
+      </c>
+      <c r="H255">
+        <f t="shared" si="20"/>
+        <v>328</v>
+      </c>
+    </row>
+    <row r="256" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G256">
+        <f t="shared" si="21"/>
+        <v>9750</v>
+      </c>
+      <c r="H256">
+        <f t="shared" si="20"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="257" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G257">
+        <f t="shared" si="21"/>
+        <v>9828</v>
+      </c>
+      <c r="H257">
+        <f t="shared" si="20"/>
         <v>172</v>
       </c>
-      <c r="B84">
-        <f t="shared" si="9"/>
-        <v>688</v>
-      </c>
-      <c r="C84" t="str">
-        <f t="shared" si="5"/>
-        <v>02B0</v>
-      </c>
-      <c r="D84">
-        <f t="shared" si="6"/>
-        <v>9312</v>
-      </c>
-      <c r="E84" t="str">
-        <f t="shared" si="8"/>
-        <v>2460</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <f t="shared" si="7"/>
-        <v>173</v>
-      </c>
-      <c r="B85">
-        <f t="shared" si="9"/>
-        <v>692</v>
-      </c>
-      <c r="C85" t="str">
-        <f t="shared" si="5"/>
-        <v>02B4</v>
-      </c>
-      <c r="D85">
-        <f t="shared" si="6"/>
-        <v>9308</v>
-      </c>
-      <c r="E85" t="str">
-        <f t="shared" si="8"/>
-        <v>245C</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <f t="shared" si="7"/>
-        <v>174</v>
-      </c>
-      <c r="B86">
-        <f t="shared" si="9"/>
-        <v>696</v>
-      </c>
-      <c r="C86" t="str">
-        <f t="shared" si="5"/>
-        <v>02B8</v>
-      </c>
-      <c r="D86">
-        <f t="shared" si="6"/>
-        <v>9304</v>
-      </c>
-      <c r="E86" t="str">
-        <f t="shared" si="8"/>
-        <v>2458</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <f t="shared" ref="A87:A92" si="10">SUM(A86+1)</f>
-        <v>175</v>
-      </c>
-      <c r="B87">
-        <f t="shared" si="9"/>
-        <v>700</v>
-      </c>
-      <c r="C87" t="str">
-        <f t="shared" si="5"/>
-        <v>02BC</v>
-      </c>
-      <c r="D87">
-        <f t="shared" si="6"/>
-        <v>9300</v>
-      </c>
-      <c r="E87" t="str">
-        <f t="shared" si="8"/>
-        <v>2454</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <f t="shared" si="10"/>
-        <v>176</v>
-      </c>
-      <c r="B88">
-        <f t="shared" si="9"/>
-        <v>704</v>
-      </c>
-      <c r="C88" t="str">
-        <f t="shared" si="5"/>
-        <v>02C0</v>
-      </c>
-      <c r="D88">
-        <f t="shared" si="6"/>
-        <v>9296</v>
-      </c>
-      <c r="E88" t="str">
-        <f t="shared" si="8"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <f t="shared" si="10"/>
-        <v>177</v>
-      </c>
-      <c r="B89">
-        <f t="shared" si="9"/>
-        <v>708</v>
-      </c>
-      <c r="C89" t="str">
-        <f t="shared" si="5"/>
-        <v>02C4</v>
-      </c>
-      <c r="D89">
-        <f t="shared" si="6"/>
-        <v>9292</v>
-      </c>
-      <c r="E89" t="str">
-        <f t="shared" si="8"/>
-        <v>244C</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <f t="shared" si="10"/>
-        <v>178</v>
-      </c>
-      <c r="B90">
-        <f t="shared" si="9"/>
-        <v>712</v>
-      </c>
-      <c r="C90" t="str">
-        <f t="shared" si="5"/>
-        <v>02C8</v>
-      </c>
-      <c r="D90">
-        <f t="shared" si="6"/>
-        <v>9288</v>
-      </c>
-      <c r="E90" t="str">
-        <f t="shared" si="8"/>
-        <v>2448</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <f t="shared" si="10"/>
-        <v>179</v>
-      </c>
-      <c r="B91">
-        <f t="shared" si="9"/>
-        <v>716</v>
-      </c>
-      <c r="C91" t="str">
-        <f t="shared" si="5"/>
-        <v>02CC</v>
-      </c>
-      <c r="D91">
-        <f t="shared" si="6"/>
-        <v>9284</v>
-      </c>
-      <c r="E91" t="str">
-        <f t="shared" si="8"/>
-        <v>2444</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <f t="shared" si="10"/>
-        <v>180</v>
-      </c>
-      <c r="B92">
-        <f t="shared" si="9"/>
-        <v>720</v>
-      </c>
-      <c r="C92" t="str">
-        <f t="shared" si="5"/>
-        <v>02D0</v>
-      </c>
-      <c r="D92">
-        <f t="shared" si="6"/>
-        <v>9280</v>
-      </c>
-      <c r="E92" t="str">
-        <f t="shared" si="8"/>
-        <v>2440</v>
+    </row>
+    <row r="258" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G258">
+        <f t="shared" si="21"/>
+        <v>9906</v>
+      </c>
+      <c r="H258">
+        <f t="shared" si="20"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="259" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G259">
+        <f t="shared" si="21"/>
+        <v>10000</v>
+      </c>
+      <c r="H259">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2372,7 +5854,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2384,7 +5866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Documentation/Werte + Resourcen/Dez Hex ez.xlsx
+++ b/Documentation/Werte + Resourcen/Dez Hex ez.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Silas\ItProject2018\Documentation\Werte + Resourcen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A40ADE0E-5B28-4423-9AFC-03AB53BA6CD2}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BAE76A03-C782-460E-83C8-DEA1D0AD968E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="75" windowWidth="18915" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,10 +24,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>1. beiden Ziffern MotLowTL, 2. beiden Ziffern MotLowTH</t>
+    <t>1. beiden Ziffern MotLowTH, 2. beiden Ziffern MotLowTL</t>
   </si>
   <si>
-    <t>1. beiden Ziffern MotHighTL, 2. beiden Ziffern MotHighTH</t>
+    <t>1. beiden Ziffern MotHighTH, 2. beiden Ziffern MotHighTL</t>
   </si>
 </sst>
 </file>
@@ -406,7 +406,7 @@
   <dimension ref="A1:L259"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,13 +482,13 @@
         <v>9922</v>
       </c>
       <c r="H3">
-        <f>SUM($H2+78)</f>
+        <f t="shared" ref="H3:H35" si="2">SUM($H2+78)</f>
         <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:A67" si="2">SUM(A3+1)</f>
+        <f t="shared" ref="A4:A67" si="3">SUM(A3+1)</f>
         <v>92</v>
       </c>
       <c r="B4">
@@ -504,29 +504,29 @@
         <v>9632</v>
       </c>
       <c r="E4" t="str">
-        <f t="shared" ref="E4:E67" si="3">DEC2HEX($D4,4)</f>
+        <f t="shared" ref="E4:E67" si="4">DEC2HEX($D4,4)</f>
         <v>25A0</v>
       </c>
       <c r="G4">
-        <f>SUM($G$3-$H4)</f>
-        <v>9766</v>
+        <f>SUM($G$2-$H4)</f>
+        <v>9844</v>
       </c>
       <c r="H4">
-        <f>SUM($H3+78)</f>
+        <f t="shared" si="2"/>
         <v>156</v>
       </c>
       <c r="J4" t="str">
         <f>DEC2HEX($G4,4)</f>
-        <v>2626</v>
+        <v>2674</v>
       </c>
       <c r="L4" t="str">
-        <f>DEC2HEX($H4,4)</f>
+        <f t="shared" ref="L4:L9" si="5">DEC2HEX($H4,4)</f>
         <v>009C</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>93</v>
       </c>
       <c r="B5">
@@ -542,29 +542,29 @@
         <v>9628</v>
       </c>
       <c r="E5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>259C</v>
       </c>
       <c r="G5">
-        <f>SUM($G$3-$H5)</f>
-        <v>9688</v>
+        <f>SUM($G$2-$H5)</f>
+        <v>9766</v>
       </c>
       <c r="H5">
-        <f>SUM($H4+78)</f>
+        <f t="shared" si="2"/>
         <v>234</v>
       </c>
       <c r="J5" t="str">
-        <f t="shared" ref="J5:J68" si="4">DEC2HEX($G5,4)</f>
-        <v>25D8</v>
+        <f t="shared" ref="J5:J68" si="6">DEC2HEX($G5,4)</f>
+        <v>2626</v>
       </c>
       <c r="L5" t="str">
-        <f>DEC2HEX($H5,4)</f>
+        <f t="shared" si="5"/>
         <v>00EA</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>94</v>
       </c>
       <c r="B6">
@@ -580,1021 +580,1021 @@
         <v>9624</v>
       </c>
       <c r="E6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2598</v>
       </c>
       <c r="G6">
-        <f>SUM($G$3-$H6)</f>
-        <v>9610</v>
+        <f>SUM($G$2-$H6)</f>
+        <v>9688</v>
       </c>
       <c r="H6">
-        <f>SUM($H5+78)</f>
+        <f t="shared" si="2"/>
         <v>312</v>
       </c>
       <c r="J6" t="str">
-        <f t="shared" si="4"/>
-        <v>258A</v>
+        <f t="shared" si="6"/>
+        <v>25D8</v>
       </c>
       <c r="L6" t="str">
-        <f>DEC2HEX($H6,4)</f>
+        <f t="shared" si="5"/>
         <v>0138</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
+        <f t="shared" si="3"/>
+        <v>95</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ref="B7:B70" si="7">SUM($A7*$B$1)</f>
+        <v>380</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>017C</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>9620</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="4"/>
+        <v>2594</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ref="G7:G70" si="8">SUM($G$2-$H7)</f>
+        <v>9610</v>
+      </c>
+      <c r="H7">
         <f t="shared" si="2"/>
-        <v>95</v>
-      </c>
-      <c r="B7">
-        <f t="shared" ref="B7:B70" si="5">SUM($A7*$B$1)</f>
-        <v>380</v>
-      </c>
-      <c r="C7" t="str">
-        <f t="shared" si="0"/>
-        <v>017C</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="1"/>
-        <v>9620</v>
-      </c>
-      <c r="E7" t="str">
-        <f t="shared" si="3"/>
-        <v>2594</v>
-      </c>
-      <c r="G7">
-        <f t="shared" ref="G7:G70" si="6">SUM($G$2-$H7)</f>
-        <v>9610</v>
-      </c>
-      <c r="H7">
-        <f>SUM($H6+78)</f>
         <v>390</v>
       </c>
       <c r="J7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>258A</v>
       </c>
       <c r="L7" t="str">
-        <f>DEC2HEX($H7,4)</f>
+        <f t="shared" si="5"/>
         <v>0186</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
+        <f t="shared" si="3"/>
+        <v>96</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="7"/>
+        <v>384</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>0180</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>9616</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="4"/>
+        <v>2590</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="8"/>
+        <v>9532</v>
+      </c>
+      <c r="H8">
         <f t="shared" si="2"/>
-        <v>96</v>
-      </c>
-      <c r="B8">
+        <v>468</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="6"/>
+        <v>253C</v>
+      </c>
+      <c r="L8" t="str">
         <f t="shared" si="5"/>
-        <v>384</v>
-      </c>
-      <c r="C8" t="str">
-        <f t="shared" si="0"/>
-        <v>0180</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="1"/>
-        <v>9616</v>
-      </c>
-      <c r="E8" t="str">
-        <f t="shared" si="3"/>
-        <v>2590</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="6"/>
-        <v>9532</v>
-      </c>
-      <c r="H8">
-        <f>SUM($H7+78)</f>
-        <v>468</v>
-      </c>
-      <c r="J8" t="str">
-        <f t="shared" si="4"/>
-        <v>253C</v>
-      </c>
-      <c r="L8" t="str">
-        <f>DEC2HEX($H8,4)</f>
         <v>01D4</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
+        <f t="shared" si="3"/>
+        <v>97</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="7"/>
+        <v>388</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>0184</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>9612</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="4"/>
+        <v>258C</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="8"/>
+        <v>9454</v>
+      </c>
+      <c r="H9">
         <f t="shared" si="2"/>
-        <v>97</v>
-      </c>
-      <c r="B9">
+        <v>546</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="6"/>
+        <v>24EE</v>
+      </c>
+      <c r="L9" t="str">
         <f t="shared" si="5"/>
-        <v>388</v>
-      </c>
-      <c r="C9" t="str">
-        <f t="shared" si="0"/>
-        <v>0184</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="1"/>
-        <v>9612</v>
-      </c>
-      <c r="E9" t="str">
-        <f t="shared" si="3"/>
-        <v>258C</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="6"/>
-        <v>9454</v>
-      </c>
-      <c r="H9">
-        <f>SUM($H8+78)</f>
-        <v>546</v>
-      </c>
-      <c r="J9" t="str">
-        <f t="shared" si="4"/>
-        <v>24EE</v>
-      </c>
-      <c r="L9" t="str">
-        <f>DEC2HEX($H9,4)</f>
         <v>0222</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
+        <f t="shared" si="3"/>
+        <v>98</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="7"/>
+        <v>392</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>0188</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>9608</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="4"/>
+        <v>2588</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="8"/>
+        <v>9376</v>
+      </c>
+      <c r="H10">
         <f t="shared" si="2"/>
-        <v>98</v>
-      </c>
-      <c r="B10">
-        <f t="shared" si="5"/>
-        <v>392</v>
-      </c>
-      <c r="C10" t="str">
-        <f t="shared" si="0"/>
-        <v>0188</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="1"/>
-        <v>9608</v>
-      </c>
-      <c r="E10" t="str">
-        <f t="shared" si="3"/>
-        <v>2588</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="6"/>
-        <v>9376</v>
-      </c>
-      <c r="H10">
-        <f>SUM($H9+78)</f>
         <v>624</v>
       </c>
       <c r="J10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>24A0</v>
       </c>
       <c r="L10" t="str">
-        <f t="shared" ref="I10:L73" si="7">DEC2HEX($H10,4)</f>
+        <f t="shared" ref="L10:L73" si="9">DEC2HEX($H10,4)</f>
         <v>0270</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
+        <f t="shared" si="3"/>
+        <v>99</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="7"/>
+        <v>396</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>018C</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>9604</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="4"/>
+        <v>2584</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="8"/>
+        <v>9298</v>
+      </c>
+      <c r="H11">
         <f t="shared" si="2"/>
-        <v>99</v>
-      </c>
-      <c r="B11">
-        <f t="shared" si="5"/>
-        <v>396</v>
-      </c>
-      <c r="C11" t="str">
-        <f t="shared" si="0"/>
-        <v>018C</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="1"/>
-        <v>9604</v>
-      </c>
-      <c r="E11" t="str">
-        <f t="shared" si="3"/>
-        <v>2584</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="6"/>
-        <v>9298</v>
-      </c>
-      <c r="H11">
-        <f>SUM($H10+78)</f>
         <v>702</v>
       </c>
       <c r="J11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2452</v>
       </c>
       <c r="L11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>02BE</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="7"/>
+        <v>400</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>0190</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>9600</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="4"/>
+        <v>2580</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="8"/>
+        <v>9220</v>
+      </c>
+      <c r="H12">
         <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="B12">
-        <f t="shared" si="5"/>
-        <v>400</v>
-      </c>
-      <c r="C12" t="str">
-        <f t="shared" si="0"/>
-        <v>0190</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="1"/>
-        <v>9600</v>
-      </c>
-      <c r="E12" t="str">
-        <f t="shared" si="3"/>
-        <v>2580</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="6"/>
-        <v>9220</v>
-      </c>
-      <c r="H12">
-        <f>SUM($H11+78)</f>
         <v>780</v>
       </c>
       <c r="J12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2404</v>
       </c>
       <c r="L12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>030C</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
+        <f t="shared" si="3"/>
+        <v>101</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="7"/>
+        <v>404</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>0194</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>9596</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="4"/>
+        <v>257C</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="8"/>
+        <v>9142</v>
+      </c>
+      <c r="H13">
         <f t="shared" si="2"/>
-        <v>101</v>
-      </c>
-      <c r="B13">
-        <f t="shared" si="5"/>
-        <v>404</v>
-      </c>
-      <c r="C13" t="str">
-        <f t="shared" si="0"/>
-        <v>0194</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="1"/>
-        <v>9596</v>
-      </c>
-      <c r="E13" t="str">
-        <f t="shared" si="3"/>
-        <v>257C</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="6"/>
-        <v>9142</v>
-      </c>
-      <c r="H13">
-        <f>SUM($H12+78)</f>
         <v>858</v>
       </c>
       <c r="J13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>23B6</v>
       </c>
       <c r="L13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>035A</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
+        <f t="shared" si="3"/>
+        <v>102</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="7"/>
+        <v>408</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>0198</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>9592</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="4"/>
+        <v>2578</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="8"/>
+        <v>9064</v>
+      </c>
+      <c r="H14">
         <f t="shared" si="2"/>
-        <v>102</v>
-      </c>
-      <c r="B14">
-        <f t="shared" si="5"/>
-        <v>408</v>
-      </c>
-      <c r="C14" t="str">
-        <f t="shared" si="0"/>
-        <v>0198</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="1"/>
-        <v>9592</v>
-      </c>
-      <c r="E14" t="str">
-        <f t="shared" si="3"/>
-        <v>2578</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="6"/>
-        <v>9064</v>
-      </c>
-      <c r="H14">
-        <f>SUM($H13+78)</f>
         <v>936</v>
       </c>
       <c r="J14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2368</v>
       </c>
       <c r="L14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>03A8</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
+        <f t="shared" si="3"/>
+        <v>103</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="7"/>
+        <v>412</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>019C</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>9588</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="4"/>
+        <v>2574</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="8"/>
+        <v>8986</v>
+      </c>
+      <c r="H15">
         <f t="shared" si="2"/>
-        <v>103</v>
-      </c>
-      <c r="B15">
-        <f t="shared" si="5"/>
-        <v>412</v>
-      </c>
-      <c r="C15" t="str">
-        <f t="shared" si="0"/>
-        <v>019C</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="1"/>
-        <v>9588</v>
-      </c>
-      <c r="E15" t="str">
-        <f t="shared" si="3"/>
-        <v>2574</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="6"/>
-        <v>8986</v>
-      </c>
-      <c r="H15">
-        <f>SUM($H14+78)</f>
         <v>1014</v>
       </c>
       <c r="J15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>231A</v>
       </c>
       <c r="L15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>03F6</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
+        <f t="shared" si="3"/>
+        <v>104</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="7"/>
+        <v>416</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>01A0</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>9584</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="4"/>
+        <v>2570</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="8"/>
+        <v>8908</v>
+      </c>
+      <c r="H16">
         <f t="shared" si="2"/>
-        <v>104</v>
-      </c>
-      <c r="B16">
-        <f t="shared" si="5"/>
-        <v>416</v>
-      </c>
-      <c r="C16" t="str">
-        <f t="shared" si="0"/>
-        <v>01A0</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="1"/>
-        <v>9584</v>
-      </c>
-      <c r="E16" t="str">
-        <f t="shared" si="3"/>
-        <v>2570</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="6"/>
-        <v>8908</v>
-      </c>
-      <c r="H16">
-        <f>SUM($H15+78)</f>
         <v>1092</v>
       </c>
       <c r="J16" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>22CC</v>
       </c>
       <c r="L16" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0444</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
+        <f t="shared" si="3"/>
+        <v>105</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="7"/>
+        <v>420</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>01A4</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>9580</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="4"/>
+        <v>256C</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="8"/>
+        <v>8830</v>
+      </c>
+      <c r="H17">
         <f t="shared" si="2"/>
-        <v>105</v>
-      </c>
-      <c r="B17">
-        <f t="shared" si="5"/>
-        <v>420</v>
-      </c>
-      <c r="C17" t="str">
-        <f t="shared" si="0"/>
-        <v>01A4</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="1"/>
-        <v>9580</v>
-      </c>
-      <c r="E17" t="str">
-        <f t="shared" si="3"/>
-        <v>256C</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="6"/>
-        <v>8830</v>
-      </c>
-      <c r="H17">
-        <f>SUM($H16+78)</f>
         <v>1170</v>
       </c>
       <c r="J17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>227E</v>
       </c>
       <c r="L17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0492</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
+        <f t="shared" si="3"/>
+        <v>106</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="7"/>
+        <v>424</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>01A8</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>9576</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="4"/>
+        <v>2568</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="8"/>
+        <v>8752</v>
+      </c>
+      <c r="H18">
         <f t="shared" si="2"/>
-        <v>106</v>
-      </c>
-      <c r="B18">
-        <f t="shared" si="5"/>
-        <v>424</v>
-      </c>
-      <c r="C18" t="str">
-        <f t="shared" si="0"/>
-        <v>01A8</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="1"/>
-        <v>9576</v>
-      </c>
-      <c r="E18" t="str">
-        <f t="shared" si="3"/>
-        <v>2568</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="6"/>
-        <v>8752</v>
-      </c>
-      <c r="H18">
-        <f>SUM($H17+78)</f>
         <v>1248</v>
       </c>
       <c r="J18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2230</v>
       </c>
       <c r="L18" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>04E0</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
+        <f t="shared" si="3"/>
+        <v>107</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="7"/>
+        <v>428</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>01AC</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>9572</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="4"/>
+        <v>2564</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="8"/>
+        <v>8674</v>
+      </c>
+      <c r="H19">
         <f t="shared" si="2"/>
-        <v>107</v>
-      </c>
-      <c r="B19">
-        <f t="shared" si="5"/>
-        <v>428</v>
-      </c>
-      <c r="C19" t="str">
-        <f t="shared" si="0"/>
-        <v>01AC</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="1"/>
-        <v>9572</v>
-      </c>
-      <c r="E19" t="str">
-        <f t="shared" si="3"/>
-        <v>2564</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="6"/>
-        <v>8674</v>
-      </c>
-      <c r="H19">
-        <f>SUM($H18+78)</f>
         <v>1326</v>
       </c>
       <c r="J19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>21E2</v>
       </c>
       <c r="L19" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>052E</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
+        <f t="shared" si="3"/>
+        <v>108</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="7"/>
+        <v>432</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>01B0</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>9568</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="4"/>
+        <v>2560</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="8"/>
+        <v>8596</v>
+      </c>
+      <c r="H20">
         <f t="shared" si="2"/>
-        <v>108</v>
-      </c>
-      <c r="B20">
-        <f t="shared" si="5"/>
-        <v>432</v>
-      </c>
-      <c r="C20" t="str">
-        <f t="shared" si="0"/>
-        <v>01B0</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="1"/>
-        <v>9568</v>
-      </c>
-      <c r="E20" t="str">
-        <f t="shared" si="3"/>
-        <v>2560</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="6"/>
-        <v>8596</v>
-      </c>
-      <c r="H20">
-        <f>SUM($H19+78)</f>
         <v>1404</v>
       </c>
       <c r="J20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2194</v>
       </c>
       <c r="L20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>057C</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
+        <f t="shared" si="3"/>
+        <v>109</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="7"/>
+        <v>436</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>01B4</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>9564</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="4"/>
+        <v>255C</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="8"/>
+        <v>8518</v>
+      </c>
+      <c r="H21">
         <f t="shared" si="2"/>
-        <v>109</v>
-      </c>
-      <c r="B21">
-        <f t="shared" si="5"/>
-        <v>436</v>
-      </c>
-      <c r="C21" t="str">
-        <f t="shared" si="0"/>
-        <v>01B4</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="1"/>
-        <v>9564</v>
-      </c>
-      <c r="E21" t="str">
-        <f t="shared" si="3"/>
-        <v>255C</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="6"/>
-        <v>8518</v>
-      </c>
-      <c r="H21">
-        <f>SUM($H20+78)</f>
         <v>1482</v>
       </c>
       <c r="J21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2146</v>
       </c>
       <c r="L21" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>05CA</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
+        <f t="shared" si="3"/>
+        <v>110</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="7"/>
+        <v>440</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>01B8</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>9560</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="4"/>
+        <v>2558</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="8"/>
+        <v>8440</v>
+      </c>
+      <c r="H22">
         <f t="shared" si="2"/>
-        <v>110</v>
-      </c>
-      <c r="B22">
-        <f t="shared" si="5"/>
-        <v>440</v>
-      </c>
-      <c r="C22" t="str">
-        <f t="shared" si="0"/>
-        <v>01B8</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="1"/>
-        <v>9560</v>
-      </c>
-      <c r="E22" t="str">
-        <f t="shared" si="3"/>
-        <v>2558</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="6"/>
-        <v>8440</v>
-      </c>
-      <c r="H22">
-        <f>SUM($H21+78)</f>
         <v>1560</v>
       </c>
       <c r="J22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>20F8</v>
       </c>
       <c r="L22" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0618</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
+        <f t="shared" si="3"/>
+        <v>111</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="7"/>
+        <v>444</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>01BC</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>9556</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="4"/>
+        <v>2554</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="8"/>
+        <v>8362</v>
+      </c>
+      <c r="H23">
         <f t="shared" si="2"/>
-        <v>111</v>
-      </c>
-      <c r="B23">
-        <f t="shared" si="5"/>
-        <v>444</v>
-      </c>
-      <c r="C23" t="str">
-        <f t="shared" si="0"/>
-        <v>01BC</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="1"/>
-        <v>9556</v>
-      </c>
-      <c r="E23" t="str">
-        <f t="shared" si="3"/>
-        <v>2554</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="6"/>
-        <v>8362</v>
-      </c>
-      <c r="H23">
-        <f>SUM($H22+78)</f>
         <v>1638</v>
       </c>
       <c r="J23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>20AA</v>
       </c>
       <c r="L23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0666</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
+        <f t="shared" si="3"/>
+        <v>112</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="7"/>
+        <v>448</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>01C0</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>9552</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="4"/>
+        <v>2550</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="8"/>
+        <v>8284</v>
+      </c>
+      <c r="H24">
         <f t="shared" si="2"/>
-        <v>112</v>
-      </c>
-      <c r="B24">
-        <f t="shared" si="5"/>
-        <v>448</v>
-      </c>
-      <c r="C24" t="str">
-        <f t="shared" si="0"/>
-        <v>01C0</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="1"/>
-        <v>9552</v>
-      </c>
-      <c r="E24" t="str">
-        <f t="shared" si="3"/>
-        <v>2550</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="6"/>
-        <v>8284</v>
-      </c>
-      <c r="H24">
-        <f>SUM($H23+78)</f>
         <v>1716</v>
       </c>
       <c r="J24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>205C</v>
       </c>
       <c r="L24" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>06B4</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
+        <f t="shared" si="3"/>
+        <v>113</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="7"/>
+        <v>452</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>01C4</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>9548</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="4"/>
+        <v>254C</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="8"/>
+        <v>8206</v>
+      </c>
+      <c r="H25">
         <f t="shared" si="2"/>
-        <v>113</v>
-      </c>
-      <c r="B25">
-        <f t="shared" si="5"/>
-        <v>452</v>
-      </c>
-      <c r="C25" t="str">
-        <f t="shared" si="0"/>
-        <v>01C4</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="1"/>
-        <v>9548</v>
-      </c>
-      <c r="E25" t="str">
-        <f t="shared" si="3"/>
-        <v>254C</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="6"/>
-        <v>8206</v>
-      </c>
-      <c r="H25">
-        <f>SUM($H24+78)</f>
         <v>1794</v>
       </c>
       <c r="J25" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>200E</v>
       </c>
       <c r="L25" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0702</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
+        <f t="shared" si="3"/>
+        <v>114</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="7"/>
+        <v>456</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>01C8</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>9544</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="4"/>
+        <v>2548</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="8"/>
+        <v>8128</v>
+      </c>
+      <c r="H26">
         <f t="shared" si="2"/>
-        <v>114</v>
-      </c>
-      <c r="B26">
-        <f t="shared" si="5"/>
-        <v>456</v>
-      </c>
-      <c r="C26" t="str">
-        <f t="shared" si="0"/>
-        <v>01C8</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="1"/>
-        <v>9544</v>
-      </c>
-      <c r="E26" t="str">
-        <f t="shared" si="3"/>
-        <v>2548</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="6"/>
-        <v>8128</v>
-      </c>
-      <c r="H26">
-        <f>SUM($H25+78)</f>
         <v>1872</v>
       </c>
       <c r="J26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1FC0</v>
       </c>
       <c r="L26" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0750</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
+        <f t="shared" si="3"/>
+        <v>115</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="7"/>
+        <v>460</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>01CC</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>9540</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="4"/>
+        <v>2544</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="8"/>
+        <v>8050</v>
+      </c>
+      <c r="H27">
         <f t="shared" si="2"/>
-        <v>115</v>
-      </c>
-      <c r="B27">
-        <f t="shared" si="5"/>
-        <v>460</v>
-      </c>
-      <c r="C27" t="str">
-        <f t="shared" si="0"/>
-        <v>01CC</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="1"/>
-        <v>9540</v>
-      </c>
-      <c r="E27" t="str">
-        <f t="shared" si="3"/>
-        <v>2544</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="6"/>
-        <v>8050</v>
-      </c>
-      <c r="H27">
-        <f>SUM($H26+78)</f>
         <v>1950</v>
       </c>
       <c r="J27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1F72</v>
       </c>
       <c r="L27" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>079E</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
+        <f t="shared" si="3"/>
+        <v>116</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="7"/>
+        <v>464</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>01D0</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>9536</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="4"/>
+        <v>2540</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="8"/>
+        <v>7972</v>
+      </c>
+      <c r="H28">
         <f t="shared" si="2"/>
-        <v>116</v>
-      </c>
-      <c r="B28">
-        <f t="shared" si="5"/>
-        <v>464</v>
-      </c>
-      <c r="C28" t="str">
-        <f t="shared" si="0"/>
-        <v>01D0</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="1"/>
-        <v>9536</v>
-      </c>
-      <c r="E28" t="str">
-        <f t="shared" si="3"/>
-        <v>2540</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="6"/>
-        <v>7972</v>
-      </c>
-      <c r="H28">
-        <f>SUM($H27+78)</f>
         <v>2028</v>
       </c>
       <c r="J28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1F24</v>
       </c>
       <c r="L28" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>07EC</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
+        <f t="shared" si="3"/>
+        <v>117</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="7"/>
+        <v>468</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>01D4</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>9532</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="4"/>
+        <v>253C</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="8"/>
+        <v>7894</v>
+      </c>
+      <c r="H29">
         <f t="shared" si="2"/>
-        <v>117</v>
-      </c>
-      <c r="B29">
-        <f t="shared" si="5"/>
-        <v>468</v>
-      </c>
-      <c r="C29" t="str">
-        <f t="shared" si="0"/>
-        <v>01D4</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="1"/>
-        <v>9532</v>
-      </c>
-      <c r="E29" t="str">
-        <f t="shared" si="3"/>
-        <v>253C</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="6"/>
-        <v>7894</v>
-      </c>
-      <c r="H29">
-        <f>SUM($H28+78)</f>
         <v>2106</v>
       </c>
       <c r="J29" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1ED6</v>
       </c>
       <c r="L29" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>083A</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
+        <f t="shared" si="3"/>
+        <v>118</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="7"/>
+        <v>472</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>01D8</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="1"/>
+        <v>9528</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="4"/>
+        <v>2538</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="8"/>
+        <v>7816</v>
+      </c>
+      <c r="H30">
         <f t="shared" si="2"/>
-        <v>118</v>
-      </c>
-      <c r="B30">
-        <f t="shared" si="5"/>
-        <v>472</v>
-      </c>
-      <c r="C30" t="str">
-        <f t="shared" si="0"/>
-        <v>01D8</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="1"/>
-        <v>9528</v>
-      </c>
-      <c r="E30" t="str">
-        <f t="shared" si="3"/>
-        <v>2538</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="6"/>
-        <v>7816</v>
-      </c>
-      <c r="H30">
-        <f>SUM($H29+78)</f>
         <v>2184</v>
       </c>
       <c r="J30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1E88</v>
       </c>
       <c r="L30" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0888</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
+        <f t="shared" si="3"/>
+        <v>119</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="7"/>
+        <v>476</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>01DC</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="1"/>
+        <v>9524</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="4"/>
+        <v>2534</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="8"/>
+        <v>7738</v>
+      </c>
+      <c r="H31">
         <f t="shared" si="2"/>
-        <v>119</v>
-      </c>
-      <c r="B31">
-        <f t="shared" si="5"/>
-        <v>476</v>
-      </c>
-      <c r="C31" t="str">
-        <f t="shared" si="0"/>
-        <v>01DC</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="1"/>
-        <v>9524</v>
-      </c>
-      <c r="E31" t="str">
-        <f t="shared" si="3"/>
-        <v>2534</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="6"/>
-        <v>7738</v>
-      </c>
-      <c r="H31">
-        <f>SUM($H30+78)</f>
         <v>2262</v>
       </c>
       <c r="J31" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1E3A</v>
       </c>
       <c r="L31" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>08D6</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="7"/>
+        <v>480</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>01E0</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="1"/>
+        <v>9520</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="4"/>
+        <v>2530</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="8"/>
+        <v>7660</v>
+      </c>
+      <c r="H32">
         <f t="shared" si="2"/>
-        <v>120</v>
-      </c>
-      <c r="B32">
-        <f t="shared" si="5"/>
-        <v>480</v>
-      </c>
-      <c r="C32" t="str">
-        <f t="shared" si="0"/>
-        <v>01E0</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="1"/>
-        <v>9520</v>
-      </c>
-      <c r="E32" t="str">
-        <f t="shared" si="3"/>
-        <v>2530</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="6"/>
-        <v>7660</v>
-      </c>
-      <c r="H32">
-        <f>SUM($H31+78)</f>
         <v>2340</v>
       </c>
       <c r="J32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1DEC</v>
       </c>
       <c r="L32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0924</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>121</v>
       </c>
       <c r="B33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>484</v>
       </c>
       <c r="C33" t="str">
@@ -1606,109 +1606,109 @@
         <v>9516</v>
       </c>
       <c r="E33" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>252C</v>
       </c>
       <c r="G33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7582</v>
       </c>
       <c r="H33">
-        <f>SUM($H32+78)</f>
+        <f t="shared" si="2"/>
         <v>2418</v>
       </c>
       <c r="J33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1D9E</v>
       </c>
       <c r="L33" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0972</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
+        <f t="shared" si="3"/>
+        <v>122</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="7"/>
+        <v>488</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="0"/>
+        <v>01E8</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="1"/>
+        <v>9512</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="4"/>
+        <v>2528</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="8"/>
+        <v>7504</v>
+      </c>
+      <c r="H34">
         <f t="shared" si="2"/>
-        <v>122</v>
-      </c>
-      <c r="B34">
-        <f t="shared" si="5"/>
-        <v>488</v>
-      </c>
-      <c r="C34" t="str">
-        <f t="shared" si="0"/>
-        <v>01E8</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="1"/>
-        <v>9512</v>
-      </c>
-      <c r="E34" t="str">
-        <f t="shared" si="3"/>
-        <v>2528</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="6"/>
-        <v>7504</v>
-      </c>
-      <c r="H34">
-        <f>SUM($H33+78)</f>
         <v>2496</v>
       </c>
       <c r="J34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1D50</v>
       </c>
       <c r="L34" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>09C0</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
+        <f t="shared" si="3"/>
+        <v>123</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="7"/>
+        <v>492</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="0"/>
+        <v>01EC</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="1"/>
+        <v>9508</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="4"/>
+        <v>2524</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="8"/>
+        <v>7426</v>
+      </c>
+      <c r="H35">
         <f t="shared" si="2"/>
-        <v>123</v>
-      </c>
-      <c r="B35">
-        <f t="shared" si="5"/>
-        <v>492</v>
-      </c>
-      <c r="C35" t="str">
-        <f t="shared" si="0"/>
-        <v>01EC</v>
-      </c>
-      <c r="D35">
-        <f t="shared" si="1"/>
-        <v>9508</v>
-      </c>
-      <c r="E35" t="str">
-        <f t="shared" si="3"/>
-        <v>2524</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="6"/>
-        <v>7426</v>
-      </c>
-      <c r="H35">
-        <f>SUM($H34+78)</f>
         <v>2574</v>
       </c>
       <c r="J35" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1D02</v>
       </c>
       <c r="L35" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0A0E</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>124</v>
       </c>
       <c r="B36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>496</v>
       </c>
       <c r="C36" t="str">
@@ -1720,33 +1720,33 @@
         <v>9504</v>
       </c>
       <c r="E36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2520</v>
       </c>
       <c r="G36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7348</v>
       </c>
       <c r="H36">
-        <f t="shared" ref="H36:H76" si="8">SUM($H35+78)</f>
+        <f t="shared" ref="H36:H76" si="10">SUM($H35+78)</f>
         <v>2652</v>
       </c>
       <c r="J36" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1CB4</v>
       </c>
       <c r="L36" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0A5C</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>125</v>
       </c>
       <c r="B37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>500</v>
       </c>
       <c r="C37" t="str">
@@ -1758,33 +1758,33 @@
         <v>9500</v>
       </c>
       <c r="E37" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>251C</v>
       </c>
       <c r="G37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7270</v>
       </c>
       <c r="H37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2730</v>
       </c>
       <c r="J37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1C66</v>
       </c>
       <c r="L37" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0AAA</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>126</v>
       </c>
       <c r="B38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>504</v>
       </c>
       <c r="C38" t="str">
@@ -1796,33 +1796,33 @@
         <v>9496</v>
       </c>
       <c r="E38" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2518</v>
       </c>
       <c r="G38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7192</v>
       </c>
       <c r="H38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2808</v>
       </c>
       <c r="J38" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1C18</v>
       </c>
       <c r="L38" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0AF8</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>127</v>
       </c>
       <c r="B39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>508</v>
       </c>
       <c r="C39" t="str">
@@ -1834,33 +1834,33 @@
         <v>9492</v>
       </c>
       <c r="E39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2514</v>
       </c>
       <c r="G39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7114</v>
       </c>
       <c r="H39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2886</v>
       </c>
       <c r="J39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1BCA</v>
       </c>
       <c r="L39" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0B46</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>128</v>
       </c>
       <c r="B40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>512</v>
       </c>
       <c r="C40" t="str">
@@ -1872,33 +1872,33 @@
         <v>9488</v>
       </c>
       <c r="E40" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2510</v>
       </c>
       <c r="G40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7036</v>
       </c>
       <c r="H40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2964</v>
       </c>
       <c r="J40" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1B7C</v>
       </c>
       <c r="L40" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0B94</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>129</v>
       </c>
       <c r="B41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>516</v>
       </c>
       <c r="C41" t="str">
@@ -1910,33 +1910,33 @@
         <v>9484</v>
       </c>
       <c r="E41" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>250C</v>
       </c>
       <c r="G41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6958</v>
       </c>
       <c r="H41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3042</v>
       </c>
       <c r="J41" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1B2E</v>
       </c>
       <c r="L41" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0BE2</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>130</v>
       </c>
       <c r="B42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>520</v>
       </c>
       <c r="C42" t="str">
@@ -1948,33 +1948,33 @@
         <v>9480</v>
       </c>
       <c r="E42" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2508</v>
       </c>
       <c r="G42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6880</v>
       </c>
       <c r="H42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3120</v>
       </c>
       <c r="J42" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1AE0</v>
       </c>
       <c r="L42" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0C30</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>131</v>
       </c>
       <c r="B43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>524</v>
       </c>
       <c r="C43" t="str">
@@ -1986,33 +1986,33 @@
         <v>9476</v>
       </c>
       <c r="E43" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2504</v>
       </c>
       <c r="G43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6802</v>
       </c>
       <c r="H43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3198</v>
       </c>
       <c r="J43" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1A92</v>
       </c>
       <c r="L43" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0C7E</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>132</v>
       </c>
       <c r="B44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>528</v>
       </c>
       <c r="C44" t="str">
@@ -2024,33 +2024,33 @@
         <v>9472</v>
       </c>
       <c r="E44" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2500</v>
       </c>
       <c r="G44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6724</v>
       </c>
       <c r="H44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3276</v>
       </c>
       <c r="J44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1A44</v>
       </c>
       <c r="L44" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0CCC</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>133</v>
       </c>
       <c r="B45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>532</v>
       </c>
       <c r="C45" t="str">
@@ -2062,33 +2062,33 @@
         <v>9468</v>
       </c>
       <c r="E45" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24FC</v>
       </c>
       <c r="G45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6646</v>
       </c>
       <c r="H45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3354</v>
       </c>
       <c r="J45" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>19F6</v>
       </c>
       <c r="L45" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0D1A</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>134</v>
       </c>
       <c r="B46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>536</v>
       </c>
       <c r="C46" t="str">
@@ -2100,33 +2100,33 @@
         <v>9464</v>
       </c>
       <c r="E46" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24F8</v>
       </c>
       <c r="G46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6568</v>
       </c>
       <c r="H46">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3432</v>
       </c>
       <c r="J46" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>19A8</v>
       </c>
       <c r="L46" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0D68</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>135</v>
       </c>
       <c r="B47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>540</v>
       </c>
       <c r="C47" t="str">
@@ -2138,33 +2138,33 @@
         <v>9460</v>
       </c>
       <c r="E47" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24F4</v>
       </c>
       <c r="G47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6490</v>
       </c>
       <c r="H47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3510</v>
       </c>
       <c r="J47" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>195A</v>
       </c>
       <c r="L47" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0DB6</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>136</v>
       </c>
       <c r="B48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>544</v>
       </c>
       <c r="C48" t="str">
@@ -2176,33 +2176,33 @@
         <v>9456</v>
       </c>
       <c r="E48" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24F0</v>
       </c>
       <c r="G48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6412</v>
       </c>
       <c r="H48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3588</v>
       </c>
       <c r="J48" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>190C</v>
       </c>
       <c r="L48" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0E04</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>137</v>
       </c>
       <c r="B49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>548</v>
       </c>
       <c r="C49" t="str">
@@ -2214,33 +2214,33 @@
         <v>9452</v>
       </c>
       <c r="E49" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24EC</v>
       </c>
       <c r="G49">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6334</v>
       </c>
       <c r="H49">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3666</v>
       </c>
       <c r="J49" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>18BE</v>
       </c>
       <c r="L49" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0E52</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>138</v>
       </c>
       <c r="B50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>552</v>
       </c>
       <c r="C50" t="str">
@@ -2252,33 +2252,33 @@
         <v>9448</v>
       </c>
       <c r="E50" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24E8</v>
       </c>
       <c r="G50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6256</v>
       </c>
       <c r="H50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3744</v>
       </c>
       <c r="J50" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1870</v>
       </c>
       <c r="L50" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0EA0</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>139</v>
       </c>
       <c r="B51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>556</v>
       </c>
       <c r="C51" t="str">
@@ -2290,33 +2290,33 @@
         <v>9444</v>
       </c>
       <c r="E51" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24E4</v>
       </c>
       <c r="G51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6178</v>
       </c>
       <c r="H51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3822</v>
       </c>
       <c r="J51" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1822</v>
       </c>
       <c r="L51" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0EEE</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>140</v>
       </c>
       <c r="B52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>560</v>
       </c>
       <c r="C52" t="str">
@@ -2328,33 +2328,33 @@
         <v>9440</v>
       </c>
       <c r="E52" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24E0</v>
       </c>
       <c r="G52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6100</v>
       </c>
       <c r="H52">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3900</v>
       </c>
       <c r="J52" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>17D4</v>
       </c>
       <c r="L52" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0F3C</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>141</v>
       </c>
       <c r="B53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>564</v>
       </c>
       <c r="C53" t="str">
@@ -2366,33 +2366,33 @@
         <v>9436</v>
       </c>
       <c r="E53" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24DC</v>
       </c>
       <c r="G53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6022</v>
       </c>
       <c r="H53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3978</v>
       </c>
       <c r="J53" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1786</v>
       </c>
       <c r="L53" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0F8A</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>142</v>
       </c>
       <c r="B54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>568</v>
       </c>
       <c r="C54" t="str">
@@ -2404,33 +2404,33 @@
         <v>9432</v>
       </c>
       <c r="E54" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24D8</v>
       </c>
       <c r="G54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5944</v>
       </c>
       <c r="H54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4056</v>
       </c>
       <c r="J54" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1738</v>
       </c>
       <c r="L54" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0FD8</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>143</v>
       </c>
       <c r="B55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>572</v>
       </c>
       <c r="C55" t="str">
@@ -2442,33 +2442,33 @@
         <v>9428</v>
       </c>
       <c r="E55" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24D4</v>
       </c>
       <c r="G55">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5866</v>
       </c>
       <c r="H55">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4134</v>
       </c>
       <c r="J55" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>16EA</v>
       </c>
       <c r="L55" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1026</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>144</v>
       </c>
       <c r="B56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>576</v>
       </c>
       <c r="C56" t="str">
@@ -2480,33 +2480,33 @@
         <v>9424</v>
       </c>
       <c r="E56" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24D0</v>
       </c>
       <c r="G56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5788</v>
       </c>
       <c r="H56">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4212</v>
       </c>
       <c r="J56" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>169C</v>
       </c>
       <c r="L56" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1074</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>145</v>
       </c>
       <c r="B57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>580</v>
       </c>
       <c r="C57" t="str">
@@ -2518,33 +2518,33 @@
         <v>9420</v>
       </c>
       <c r="E57" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24CC</v>
       </c>
       <c r="G57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5710</v>
       </c>
       <c r="H57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4290</v>
       </c>
       <c r="J57" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>164E</v>
       </c>
       <c r="L57" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10C2</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>146</v>
       </c>
       <c r="B58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>584</v>
       </c>
       <c r="C58" t="str">
@@ -2556,33 +2556,33 @@
         <v>9416</v>
       </c>
       <c r="E58" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24C8</v>
       </c>
       <c r="G58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5632</v>
       </c>
       <c r="H58">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4368</v>
       </c>
       <c r="J58" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1600</v>
       </c>
       <c r="L58" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1110</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>147</v>
       </c>
       <c r="B59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>588</v>
       </c>
       <c r="C59" t="str">
@@ -2594,33 +2594,33 @@
         <v>9412</v>
       </c>
       <c r="E59" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24C4</v>
       </c>
       <c r="G59">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5554</v>
       </c>
       <c r="H59">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4446</v>
       </c>
       <c r="J59" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>15B2</v>
       </c>
       <c r="L59" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>115E</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>148</v>
       </c>
       <c r="B60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>592</v>
       </c>
       <c r="C60" t="str">
@@ -2632,33 +2632,33 @@
         <v>9408</v>
       </c>
       <c r="E60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24C0</v>
       </c>
       <c r="G60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5476</v>
       </c>
       <c r="H60">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4524</v>
       </c>
       <c r="J60" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1564</v>
       </c>
       <c r="L60" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>11AC</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>149</v>
       </c>
       <c r="B61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>596</v>
       </c>
       <c r="C61" t="str">
@@ -2670,33 +2670,33 @@
         <v>9404</v>
       </c>
       <c r="E61" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24BC</v>
       </c>
       <c r="G61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5398</v>
       </c>
       <c r="H61">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4602</v>
       </c>
       <c r="J61" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1516</v>
       </c>
       <c r="L61" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>11FA</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
       <c r="B62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>600</v>
       </c>
       <c r="C62" t="str">
@@ -2708,33 +2708,33 @@
         <v>9400</v>
       </c>
       <c r="E62" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24B8</v>
       </c>
       <c r="G62">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5320</v>
       </c>
       <c r="H62">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4680</v>
       </c>
       <c r="J62" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>14C8</v>
       </c>
       <c r="L62" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1248</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>151</v>
       </c>
       <c r="B63">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>604</v>
       </c>
       <c r="C63" t="str">
@@ -2746,33 +2746,33 @@
         <v>9396</v>
       </c>
       <c r="E63" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24B4</v>
       </c>
       <c r="G63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5242</v>
       </c>
       <c r="H63">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4758</v>
       </c>
       <c r="J63" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>147A</v>
       </c>
       <c r="L63" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1296</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>152</v>
       </c>
       <c r="B64">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>608</v>
       </c>
       <c r="C64" t="str">
@@ -2784,33 +2784,33 @@
         <v>9392</v>
       </c>
       <c r="E64" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24B0</v>
       </c>
       <c r="G64">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5164</v>
       </c>
       <c r="H64">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4836</v>
       </c>
       <c r="J64" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>142C</v>
       </c>
       <c r="L64" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>12E4</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>153</v>
       </c>
       <c r="B65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>612</v>
       </c>
       <c r="C65" t="str">
@@ -2822,33 +2822,33 @@
         <v>9388</v>
       </c>
       <c r="E65" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24AC</v>
       </c>
       <c r="G65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5086</v>
       </c>
       <c r="H65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4914</v>
       </c>
       <c r="J65" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>13DE</v>
       </c>
       <c r="L65" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1332</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>154</v>
       </c>
       <c r="B66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>616</v>
       </c>
       <c r="C66" t="str">
@@ -2860,1718 +2860,1718 @@
         <v>9384</v>
       </c>
       <c r="E66" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24A8</v>
       </c>
       <c r="G66">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5008</v>
       </c>
       <c r="H66">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4992</v>
       </c>
       <c r="J66" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1390</v>
       </c>
       <c r="L66" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1380</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>155</v>
       </c>
       <c r="B67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>620</v>
       </c>
       <c r="C67" t="str">
-        <f t="shared" ref="C67:C92" si="9">DEC2HEX($B67,4)</f>
+        <f t="shared" ref="C67:C92" si="11">DEC2HEX($B67,4)</f>
         <v>026C</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:D92" si="10">SUM($D$1-$B67)</f>
+        <f t="shared" ref="D67:D92" si="12">SUM($D$1-$B67)</f>
         <v>9380</v>
       </c>
       <c r="E67" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24A4</v>
       </c>
       <c r="G67">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4930</v>
       </c>
       <c r="H67">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5070</v>
       </c>
       <c r="J67" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1342</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>13CE</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68">
-        <f t="shared" ref="A68:A86" si="11">SUM(A67+1)</f>
+        <f t="shared" ref="A68:A86" si="13">SUM(A67+1)</f>
         <v>156</v>
       </c>
       <c r="B68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>624</v>
       </c>
       <c r="C68" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0270</v>
       </c>
       <c r="D68">
+        <f t="shared" si="12"/>
+        <v>9376</v>
+      </c>
+      <c r="E68" t="str">
+        <f t="shared" ref="E68:E92" si="14">DEC2HEX($D68,4)</f>
+        <v>24A0</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="8"/>
+        <v>4852</v>
+      </c>
+      <c r="H68">
         <f t="shared" si="10"/>
-        <v>9376</v>
-      </c>
-      <c r="E68" t="str">
-        <f t="shared" ref="E68:E92" si="12">DEC2HEX($D68,4)</f>
-        <v>24A0</v>
-      </c>
-      <c r="G68">
-        <f t="shared" si="6"/>
-        <v>4852</v>
-      </c>
-      <c r="H68">
-        <f t="shared" si="8"/>
         <v>5148</v>
       </c>
       <c r="J68" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>12F4</v>
       </c>
       <c r="L68" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>141C</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69">
+        <f t="shared" si="13"/>
+        <v>157</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="7"/>
+        <v>628</v>
+      </c>
+      <c r="C69" t="str">
         <f t="shared" si="11"/>
-        <v>157</v>
-      </c>
-      <c r="B69">
-        <f t="shared" si="5"/>
-        <v>628</v>
-      </c>
-      <c r="C69" t="str">
-        <f t="shared" si="9"/>
         <v>0274</v>
       </c>
       <c r="D69">
+        <f t="shared" si="12"/>
+        <v>9372</v>
+      </c>
+      <c r="E69" t="str">
+        <f t="shared" si="14"/>
+        <v>249C</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="8"/>
+        <v>4774</v>
+      </c>
+      <c r="H69">
         <f t="shared" si="10"/>
-        <v>9372</v>
-      </c>
-      <c r="E69" t="str">
-        <f t="shared" si="12"/>
-        <v>249C</v>
-      </c>
-      <c r="G69">
-        <f t="shared" si="6"/>
-        <v>4774</v>
-      </c>
-      <c r="H69">
-        <f t="shared" si="8"/>
         <v>5226</v>
       </c>
       <c r="J69" t="str">
-        <f t="shared" ref="J69:J131" si="13">DEC2HEX($G69,4)</f>
+        <f t="shared" ref="J69:J131" si="15">DEC2HEX($G69,4)</f>
         <v>12A6</v>
       </c>
       <c r="L69" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>146A</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70">
+        <f t="shared" si="13"/>
+        <v>158</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="7"/>
+        <v>632</v>
+      </c>
+      <c r="C70" t="str">
         <f t="shared" si="11"/>
-        <v>158</v>
-      </c>
-      <c r="B70">
-        <f t="shared" si="5"/>
-        <v>632</v>
-      </c>
-      <c r="C70" t="str">
-        <f t="shared" si="9"/>
         <v>0278</v>
       </c>
       <c r="D70">
+        <f t="shared" si="12"/>
+        <v>9368</v>
+      </c>
+      <c r="E70" t="str">
+        <f t="shared" si="14"/>
+        <v>2498</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="8"/>
+        <v>4696</v>
+      </c>
+      <c r="H70">
         <f t="shared" si="10"/>
-        <v>9368</v>
-      </c>
-      <c r="E70" t="str">
-        <f t="shared" si="12"/>
-        <v>2498</v>
-      </c>
-      <c r="G70">
-        <f t="shared" si="6"/>
-        <v>4696</v>
-      </c>
-      <c r="H70">
-        <f t="shared" si="8"/>
         <v>5304</v>
       </c>
       <c r="J70" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1258</v>
       </c>
       <c r="L70" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>14B8</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71">
+        <f t="shared" si="13"/>
+        <v>159</v>
+      </c>
+      <c r="B71">
+        <f t="shared" ref="B71:B92" si="16">SUM($A71*$B$1)</f>
+        <v>636</v>
+      </c>
+      <c r="C71" t="str">
         <f t="shared" si="11"/>
-        <v>159</v>
-      </c>
-      <c r="B71">
-        <f t="shared" ref="B71:B92" si="14">SUM($A71*$B$1)</f>
-        <v>636</v>
-      </c>
-      <c r="C71" t="str">
-        <f t="shared" si="9"/>
         <v>027C</v>
       </c>
       <c r="D71">
+        <f t="shared" si="12"/>
+        <v>9364</v>
+      </c>
+      <c r="E71" t="str">
+        <f t="shared" si="14"/>
+        <v>2494</v>
+      </c>
+      <c r="G71">
+        <f t="shared" ref="G71:G134" si="17">SUM($G$2-$H71)</f>
+        <v>4618</v>
+      </c>
+      <c r="H71">
         <f t="shared" si="10"/>
-        <v>9364</v>
-      </c>
-      <c r="E71" t="str">
-        <f t="shared" si="12"/>
-        <v>2494</v>
-      </c>
-      <c r="G71">
-        <f t="shared" ref="G71:G134" si="15">SUM($G$2-$H71)</f>
-        <v>4618</v>
-      </c>
-      <c r="H71">
-        <f t="shared" si="8"/>
         <v>5382</v>
       </c>
       <c r="J71" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>120A</v>
       </c>
       <c r="L71" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1506</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72">
+        <f t="shared" si="13"/>
+        <v>160</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="16"/>
+        <v>640</v>
+      </c>
+      <c r="C72" t="str">
         <f t="shared" si="11"/>
-        <v>160</v>
-      </c>
-      <c r="B72">
+        <v>0280</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="12"/>
+        <v>9360</v>
+      </c>
+      <c r="E72" t="str">
         <f t="shared" si="14"/>
-        <v>640</v>
-      </c>
-      <c r="C72" t="str">
-        <f t="shared" si="9"/>
-        <v>0280</v>
-      </c>
-      <c r="D72">
+        <v>2490</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="17"/>
+        <v>4540</v>
+      </c>
+      <c r="H72">
         <f t="shared" si="10"/>
-        <v>9360</v>
-      </c>
-      <c r="E72" t="str">
-        <f t="shared" si="12"/>
-        <v>2490</v>
-      </c>
-      <c r="G72">
-        <f t="shared" si="15"/>
-        <v>4540</v>
-      </c>
-      <c r="H72">
-        <f t="shared" si="8"/>
         <v>5460</v>
       </c>
       <c r="J72" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>11BC</v>
       </c>
       <c r="L72" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1554</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73">
+        <f t="shared" si="13"/>
+        <v>161</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="16"/>
+        <v>644</v>
+      </c>
+      <c r="C73" t="str">
         <f t="shared" si="11"/>
-        <v>161</v>
-      </c>
-      <c r="B73">
+        <v>0284</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="12"/>
+        <v>9356</v>
+      </c>
+      <c r="E73" t="str">
         <f t="shared" si="14"/>
-        <v>644</v>
-      </c>
-      <c r="C73" t="str">
-        <f t="shared" si="9"/>
-        <v>0284</v>
-      </c>
-      <c r="D73">
+        <v>248C</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="17"/>
+        <v>4462</v>
+      </c>
+      <c r="H73">
         <f t="shared" si="10"/>
-        <v>9356</v>
-      </c>
-      <c r="E73" t="str">
-        <f t="shared" si="12"/>
-        <v>248C</v>
-      </c>
-      <c r="G73">
-        <f t="shared" si="15"/>
-        <v>4462</v>
-      </c>
-      <c r="H73">
-        <f t="shared" si="8"/>
         <v>5538</v>
       </c>
       <c r="J73" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>116E</v>
       </c>
       <c r="L73" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>15A2</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74">
+        <f t="shared" si="13"/>
+        <v>162</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="16"/>
+        <v>648</v>
+      </c>
+      <c r="C74" t="str">
         <f t="shared" si="11"/>
-        <v>162</v>
-      </c>
-      <c r="B74">
+        <v>0288</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="12"/>
+        <v>9352</v>
+      </c>
+      <c r="E74" t="str">
         <f t="shared" si="14"/>
-        <v>648</v>
-      </c>
-      <c r="C74" t="str">
-        <f t="shared" si="9"/>
-        <v>0288</v>
-      </c>
-      <c r="D74">
+        <v>2488</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="17"/>
+        <v>4384</v>
+      </c>
+      <c r="H74">
         <f t="shared" si="10"/>
-        <v>9352</v>
-      </c>
-      <c r="E74" t="str">
-        <f t="shared" si="12"/>
-        <v>2488</v>
-      </c>
-      <c r="G74">
-        <f t="shared" si="15"/>
-        <v>4384</v>
-      </c>
-      <c r="H74">
-        <f t="shared" si="8"/>
         <v>5616</v>
       </c>
       <c r="J74" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1120</v>
       </c>
       <c r="L74" t="str">
-        <f t="shared" ref="I74:L131" si="16">DEC2HEX($H74,4)</f>
+        <f t="shared" ref="L74:L131" si="18">DEC2HEX($H74,4)</f>
         <v>15F0</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75">
+        <f t="shared" si="13"/>
+        <v>163</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="16"/>
+        <v>652</v>
+      </c>
+      <c r="C75" t="str">
         <f t="shared" si="11"/>
-        <v>163</v>
-      </c>
-      <c r="B75">
+        <v>028C</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="12"/>
+        <v>9348</v>
+      </c>
+      <c r="E75" t="str">
         <f t="shared" si="14"/>
-        <v>652</v>
-      </c>
-      <c r="C75" t="str">
-        <f t="shared" si="9"/>
-        <v>028C</v>
-      </c>
-      <c r="D75">
+        <v>2484</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="17"/>
+        <v>4306</v>
+      </c>
+      <c r="H75">
         <f t="shared" si="10"/>
-        <v>9348</v>
-      </c>
-      <c r="E75" t="str">
-        <f t="shared" si="12"/>
-        <v>2484</v>
-      </c>
-      <c r="G75">
-        <f t="shared" si="15"/>
-        <v>4306</v>
-      </c>
-      <c r="H75">
-        <f t="shared" si="8"/>
         <v>5694</v>
       </c>
       <c r="J75" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>10D2</v>
       </c>
       <c r="L75" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>163E</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76">
+        <f t="shared" si="13"/>
+        <v>164</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="16"/>
+        <v>656</v>
+      </c>
+      <c r="C76" t="str">
         <f t="shared" si="11"/>
-        <v>164</v>
-      </c>
-      <c r="B76">
+        <v>0290</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="12"/>
+        <v>9344</v>
+      </c>
+      <c r="E76" t="str">
         <f t="shared" si="14"/>
-        <v>656</v>
-      </c>
-      <c r="C76" t="str">
-        <f t="shared" si="9"/>
-        <v>0290</v>
-      </c>
-      <c r="D76">
+        <v>2480</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="17"/>
+        <v>4228</v>
+      </c>
+      <c r="H76">
         <f t="shared" si="10"/>
-        <v>9344</v>
-      </c>
-      <c r="E76" t="str">
-        <f t="shared" si="12"/>
-        <v>2480</v>
-      </c>
-      <c r="G76">
-        <f t="shared" si="15"/>
-        <v>4228</v>
-      </c>
-      <c r="H76">
-        <f t="shared" si="8"/>
         <v>5772</v>
       </c>
       <c r="J76" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1084</v>
       </c>
       <c r="L76" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>168C</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77">
+        <f t="shared" si="13"/>
+        <v>165</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="16"/>
+        <v>660</v>
+      </c>
+      <c r="C77" t="str">
         <f t="shared" si="11"/>
-        <v>165</v>
-      </c>
-      <c r="B77">
+        <v>0294</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="12"/>
+        <v>9340</v>
+      </c>
+      <c r="E77" t="str">
         <f t="shared" si="14"/>
-        <v>660</v>
-      </c>
-      <c r="C77" t="str">
-        <f t="shared" si="9"/>
-        <v>0294</v>
-      </c>
-      <c r="D77">
-        <f t="shared" si="10"/>
-        <v>9340</v>
-      </c>
-      <c r="E77" t="str">
-        <f t="shared" si="12"/>
         <v>247C</v>
       </c>
       <c r="G77">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4150</v>
       </c>
       <c r="H77">
-        <f>SUM($H76+78)</f>
+        <f t="shared" ref="H77:H108" si="19">SUM($H76+78)</f>
         <v>5850</v>
       </c>
       <c r="J77" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1036</v>
       </c>
       <c r="L77" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>16DA</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78">
+        <f t="shared" si="13"/>
+        <v>166</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="16"/>
+        <v>664</v>
+      </c>
+      <c r="C78" t="str">
         <f t="shared" si="11"/>
-        <v>166</v>
-      </c>
-      <c r="B78">
+        <v>0298</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="12"/>
+        <v>9336</v>
+      </c>
+      <c r="E78" t="str">
         <f t="shared" si="14"/>
-        <v>664</v>
-      </c>
-      <c r="C78" t="str">
-        <f t="shared" si="9"/>
-        <v>0298</v>
-      </c>
-      <c r="D78">
-        <f t="shared" si="10"/>
-        <v>9336</v>
-      </c>
-      <c r="E78" t="str">
-        <f t="shared" si="12"/>
         <v>2478</v>
       </c>
       <c r="G78">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4072</v>
       </c>
       <c r="H78">
-        <f>SUM($H77+78)</f>
+        <f t="shared" si="19"/>
         <v>5928</v>
       </c>
       <c r="J78" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0FE8</v>
       </c>
       <c r="L78" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1728</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79">
+        <f t="shared" si="13"/>
+        <v>167</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="16"/>
+        <v>668</v>
+      </c>
+      <c r="C79" t="str">
         <f t="shared" si="11"/>
-        <v>167</v>
-      </c>
-      <c r="B79">
+        <v>029C</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="12"/>
+        <v>9332</v>
+      </c>
+      <c r="E79" t="str">
         <f t="shared" si="14"/>
-        <v>668</v>
-      </c>
-      <c r="C79" t="str">
-        <f t="shared" si="9"/>
-        <v>029C</v>
-      </c>
-      <c r="D79">
-        <f t="shared" si="10"/>
-        <v>9332</v>
-      </c>
-      <c r="E79" t="str">
-        <f t="shared" si="12"/>
         <v>2474</v>
       </c>
       <c r="G79">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3994</v>
       </c>
       <c r="H79">
-        <f>SUM($H78+78)</f>
+        <f t="shared" si="19"/>
         <v>6006</v>
       </c>
       <c r="J79" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0F9A</v>
       </c>
       <c r="L79" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1776</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80">
+        <f t="shared" si="13"/>
+        <v>168</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="16"/>
+        <v>672</v>
+      </c>
+      <c r="C80" t="str">
         <f t="shared" si="11"/>
-        <v>168</v>
-      </c>
-      <c r="B80">
+        <v>02A0</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="12"/>
+        <v>9328</v>
+      </c>
+      <c r="E80" t="str">
         <f t="shared" si="14"/>
-        <v>672</v>
-      </c>
-      <c r="C80" t="str">
-        <f t="shared" si="9"/>
-        <v>02A0</v>
-      </c>
-      <c r="D80">
-        <f t="shared" si="10"/>
-        <v>9328</v>
-      </c>
-      <c r="E80" t="str">
-        <f t="shared" si="12"/>
         <v>2470</v>
       </c>
       <c r="G80">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3916</v>
       </c>
       <c r="H80">
-        <f>SUM($H79+78)</f>
+        <f t="shared" si="19"/>
         <v>6084</v>
       </c>
       <c r="J80" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0F4C</v>
       </c>
       <c r="L80" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>17C4</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81">
+        <f t="shared" si="13"/>
+        <v>169</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="16"/>
+        <v>676</v>
+      </c>
+      <c r="C81" t="str">
         <f t="shared" si="11"/>
-        <v>169</v>
-      </c>
-      <c r="B81">
+        <v>02A4</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="12"/>
+        <v>9324</v>
+      </c>
+      <c r="E81" t="str">
         <f t="shared" si="14"/>
-        <v>676</v>
-      </c>
-      <c r="C81" t="str">
-        <f t="shared" si="9"/>
-        <v>02A4</v>
-      </c>
-      <c r="D81">
-        <f t="shared" si="10"/>
-        <v>9324</v>
-      </c>
-      <c r="E81" t="str">
-        <f t="shared" si="12"/>
         <v>246C</v>
       </c>
       <c r="G81">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3838</v>
       </c>
       <c r="H81">
-        <f>SUM($H80+78)</f>
+        <f t="shared" si="19"/>
         <v>6162</v>
       </c>
       <c r="J81" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0EFE</v>
       </c>
       <c r="L81" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1812</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82">
+        <f t="shared" si="13"/>
+        <v>170</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="16"/>
+        <v>680</v>
+      </c>
+      <c r="C82" t="str">
         <f t="shared" si="11"/>
-        <v>170</v>
-      </c>
-      <c r="B82">
+        <v>02A8</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="12"/>
+        <v>9320</v>
+      </c>
+      <c r="E82" t="str">
         <f t="shared" si="14"/>
-        <v>680</v>
-      </c>
-      <c r="C82" t="str">
-        <f t="shared" si="9"/>
-        <v>02A8</v>
-      </c>
-      <c r="D82">
-        <f t="shared" si="10"/>
-        <v>9320</v>
-      </c>
-      <c r="E82" t="str">
-        <f t="shared" si="12"/>
         <v>2468</v>
       </c>
       <c r="G82">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3760</v>
       </c>
       <c r="H82">
-        <f>SUM($H81+78)</f>
+        <f t="shared" si="19"/>
         <v>6240</v>
       </c>
       <c r="J82" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0EB0</v>
       </c>
       <c r="L82" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1860</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83">
+        <f t="shared" si="13"/>
+        <v>171</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="16"/>
+        <v>684</v>
+      </c>
+      <c r="C83" t="str">
         <f t="shared" si="11"/>
-        <v>171</v>
-      </c>
-      <c r="B83">
+        <v>02AC</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="12"/>
+        <v>9316</v>
+      </c>
+      <c r="E83" t="str">
         <f t="shared" si="14"/>
-        <v>684</v>
-      </c>
-      <c r="C83" t="str">
-        <f t="shared" si="9"/>
-        <v>02AC</v>
-      </c>
-      <c r="D83">
-        <f t="shared" si="10"/>
-        <v>9316</v>
-      </c>
-      <c r="E83" t="str">
-        <f t="shared" si="12"/>
         <v>2464</v>
       </c>
       <c r="G83">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3682</v>
       </c>
       <c r="H83">
-        <f>SUM($H82+78)</f>
+        <f t="shared" si="19"/>
         <v>6318</v>
       </c>
       <c r="J83" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0E62</v>
       </c>
       <c r="L83" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>18AE</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84">
+        <f t="shared" si="13"/>
+        <v>172</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="16"/>
+        <v>688</v>
+      </c>
+      <c r="C84" t="str">
         <f t="shared" si="11"/>
-        <v>172</v>
-      </c>
-      <c r="B84">
+        <v>02B0</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="12"/>
+        <v>9312</v>
+      </c>
+      <c r="E84" t="str">
         <f t="shared" si="14"/>
-        <v>688</v>
-      </c>
-      <c r="C84" t="str">
-        <f t="shared" si="9"/>
-        <v>02B0</v>
-      </c>
-      <c r="D84">
-        <f t="shared" si="10"/>
-        <v>9312</v>
-      </c>
-      <c r="E84" t="str">
-        <f t="shared" si="12"/>
         <v>2460</v>
       </c>
       <c r="G84">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3604</v>
       </c>
       <c r="H84">
-        <f>SUM($H83+78)</f>
+        <f t="shared" si="19"/>
         <v>6396</v>
       </c>
       <c r="J84" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0E14</v>
       </c>
       <c r="L84" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>18FC</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85">
+        <f t="shared" si="13"/>
+        <v>173</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="16"/>
+        <v>692</v>
+      </c>
+      <c r="C85" t="str">
         <f t="shared" si="11"/>
-        <v>173</v>
-      </c>
-      <c r="B85">
+        <v>02B4</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="12"/>
+        <v>9308</v>
+      </c>
+      <c r="E85" t="str">
         <f t="shared" si="14"/>
-        <v>692</v>
-      </c>
-      <c r="C85" t="str">
-        <f t="shared" si="9"/>
-        <v>02B4</v>
-      </c>
-      <c r="D85">
-        <f t="shared" si="10"/>
-        <v>9308</v>
-      </c>
-      <c r="E85" t="str">
-        <f t="shared" si="12"/>
         <v>245C</v>
       </c>
       <c r="G85">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3526</v>
       </c>
       <c r="H85">
-        <f>SUM($H84+78)</f>
+        <f t="shared" si="19"/>
         <v>6474</v>
       </c>
       <c r="J85" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0DC6</v>
       </c>
       <c r="L85" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>194A</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86">
+        <f t="shared" si="13"/>
+        <v>174</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="16"/>
+        <v>696</v>
+      </c>
+      <c r="C86" t="str">
         <f t="shared" si="11"/>
-        <v>174</v>
-      </c>
-      <c r="B86">
+        <v>02B8</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="12"/>
+        <v>9304</v>
+      </c>
+      <c r="E86" t="str">
         <f t="shared" si="14"/>
-        <v>696</v>
-      </c>
-      <c r="C86" t="str">
-        <f t="shared" si="9"/>
-        <v>02B8</v>
-      </c>
-      <c r="D86">
-        <f t="shared" si="10"/>
-        <v>9304</v>
-      </c>
-      <c r="E86" t="str">
-        <f t="shared" si="12"/>
         <v>2458</v>
       </c>
       <c r="G86">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3448</v>
       </c>
       <c r="H86">
-        <f>SUM($H85+78)</f>
+        <f t="shared" si="19"/>
         <v>6552</v>
       </c>
       <c r="J86" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0D78</v>
       </c>
       <c r="L86" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1998</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87">
-        <f t="shared" ref="A87:A92" si="17">SUM(A86+1)</f>
+        <f t="shared" ref="A87:A92" si="20">SUM(A86+1)</f>
         <v>175</v>
       </c>
       <c r="B87">
+        <f t="shared" si="16"/>
+        <v>700</v>
+      </c>
+      <c r="C87" t="str">
+        <f t="shared" si="11"/>
+        <v>02BC</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="12"/>
+        <v>9300</v>
+      </c>
+      <c r="E87" t="str">
         <f t="shared" si="14"/>
-        <v>700</v>
-      </c>
-      <c r="C87" t="str">
-        <f t="shared" si="9"/>
-        <v>02BC</v>
-      </c>
-      <c r="D87">
-        <f t="shared" si="10"/>
-        <v>9300</v>
-      </c>
-      <c r="E87" t="str">
-        <f t="shared" si="12"/>
         <v>2454</v>
       </c>
       <c r="G87">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3370</v>
       </c>
       <c r="H87">
-        <f>SUM($H86+78)</f>
+        <f t="shared" si="19"/>
         <v>6630</v>
       </c>
       <c r="J87" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0D2A</v>
       </c>
       <c r="L87" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>19E6</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>176</v>
       </c>
       <c r="B88">
+        <f t="shared" si="16"/>
+        <v>704</v>
+      </c>
+      <c r="C88" t="str">
+        <f t="shared" si="11"/>
+        <v>02C0</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="12"/>
+        <v>9296</v>
+      </c>
+      <c r="E88" t="str">
         <f t="shared" si="14"/>
-        <v>704</v>
-      </c>
-      <c r="C88" t="str">
-        <f t="shared" si="9"/>
-        <v>02C0</v>
-      </c>
-      <c r="D88">
-        <f t="shared" si="10"/>
-        <v>9296</v>
-      </c>
-      <c r="E88" t="str">
-        <f t="shared" si="12"/>
         <v>2450</v>
       </c>
       <c r="G88">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3292</v>
       </c>
       <c r="H88">
-        <f>SUM($H87+78)</f>
+        <f t="shared" si="19"/>
         <v>6708</v>
       </c>
       <c r="J88" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0CDC</v>
       </c>
       <c r="L88" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1A34</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>177</v>
       </c>
       <c r="B89">
+        <f t="shared" si="16"/>
+        <v>708</v>
+      </c>
+      <c r="C89" t="str">
+        <f t="shared" si="11"/>
+        <v>02C4</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="12"/>
+        <v>9292</v>
+      </c>
+      <c r="E89" t="str">
         <f t="shared" si="14"/>
-        <v>708</v>
-      </c>
-      <c r="C89" t="str">
-        <f t="shared" si="9"/>
-        <v>02C4</v>
-      </c>
-      <c r="D89">
-        <f t="shared" si="10"/>
-        <v>9292</v>
-      </c>
-      <c r="E89" t="str">
-        <f t="shared" si="12"/>
         <v>244C</v>
       </c>
       <c r="G89">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3214</v>
       </c>
       <c r="H89">
-        <f>SUM($H88+78)</f>
+        <f t="shared" si="19"/>
         <v>6786</v>
       </c>
       <c r="J89" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0C8E</v>
       </c>
       <c r="L89" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1A82</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>178</v>
       </c>
       <c r="B90">
+        <f t="shared" si="16"/>
+        <v>712</v>
+      </c>
+      <c r="C90" t="str">
+        <f t="shared" si="11"/>
+        <v>02C8</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="12"/>
+        <v>9288</v>
+      </c>
+      <c r="E90" t="str">
         <f t="shared" si="14"/>
-        <v>712</v>
-      </c>
-      <c r="C90" t="str">
-        <f t="shared" si="9"/>
-        <v>02C8</v>
-      </c>
-      <c r="D90">
-        <f t="shared" si="10"/>
-        <v>9288</v>
-      </c>
-      <c r="E90" t="str">
-        <f t="shared" si="12"/>
         <v>2448</v>
       </c>
       <c r="G90">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3136</v>
       </c>
       <c r="H90">
-        <f>SUM($H89+78)</f>
+        <f t="shared" si="19"/>
         <v>6864</v>
       </c>
       <c r="J90" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0C40</v>
       </c>
       <c r="L90" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1AD0</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>179</v>
       </c>
       <c r="B91">
+        <f t="shared" si="16"/>
+        <v>716</v>
+      </c>
+      <c r="C91" t="str">
+        <f t="shared" si="11"/>
+        <v>02CC</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="12"/>
+        <v>9284</v>
+      </c>
+      <c r="E91" t="str">
         <f t="shared" si="14"/>
-        <v>716</v>
-      </c>
-      <c r="C91" t="str">
-        <f t="shared" si="9"/>
-        <v>02CC</v>
-      </c>
-      <c r="D91">
-        <f t="shared" si="10"/>
-        <v>9284</v>
-      </c>
-      <c r="E91" t="str">
-        <f t="shared" si="12"/>
         <v>2444</v>
       </c>
       <c r="G91">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3058</v>
       </c>
       <c r="H91">
-        <f>SUM($H90+78)</f>
+        <f t="shared" si="19"/>
         <v>6942</v>
       </c>
       <c r="J91" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0BF2</v>
       </c>
       <c r="L91" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1B1E</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>180</v>
       </c>
       <c r="B92">
+        <f t="shared" si="16"/>
+        <v>720</v>
+      </c>
+      <c r="C92" t="str">
+        <f t="shared" si="11"/>
+        <v>02D0</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="12"/>
+        <v>9280</v>
+      </c>
+      <c r="E92" t="str">
         <f t="shared" si="14"/>
-        <v>720</v>
-      </c>
-      <c r="C92" t="str">
-        <f t="shared" si="9"/>
-        <v>02D0</v>
-      </c>
-      <c r="D92">
-        <f t="shared" si="10"/>
-        <v>9280</v>
-      </c>
-      <c r="E92" t="str">
-        <f t="shared" si="12"/>
         <v>2440</v>
       </c>
       <c r="G92">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2980</v>
       </c>
       <c r="H92">
-        <f>SUM($H91+78)</f>
+        <f t="shared" si="19"/>
         <v>7020</v>
       </c>
       <c r="J92" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0BA4</v>
       </c>
       <c r="L92" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1B6C</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G93">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2902</v>
       </c>
       <c r="H93">
-        <f>SUM($H92+78)</f>
+        <f t="shared" si="19"/>
         <v>7098</v>
       </c>
       <c r="J93" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0B56</v>
       </c>
       <c r="L93" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1BBA</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G94">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2824</v>
       </c>
       <c r="H94">
-        <f>SUM($H93+78)</f>
+        <f t="shared" si="19"/>
         <v>7176</v>
       </c>
       <c r="J94" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0B08</v>
       </c>
       <c r="L94" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1C08</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G95">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2746</v>
       </c>
       <c r="H95">
-        <f>SUM($H94+78)</f>
+        <f t="shared" si="19"/>
         <v>7254</v>
       </c>
       <c r="J95" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0ABA</v>
       </c>
       <c r="L95" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1C56</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G96">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2668</v>
       </c>
       <c r="H96">
-        <f>SUM($H95+78)</f>
+        <f t="shared" si="19"/>
         <v>7332</v>
       </c>
       <c r="J96" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0A6C</v>
       </c>
       <c r="L96" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1CA4</v>
       </c>
     </row>
     <row r="97" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G97">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2590</v>
       </c>
       <c r="H97">
-        <f>SUM($H96+78)</f>
+        <f t="shared" si="19"/>
         <v>7410</v>
       </c>
       <c r="J97" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0A1E</v>
       </c>
       <c r="L97" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1CF2</v>
       </c>
     </row>
     <row r="98" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G98">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2512</v>
       </c>
       <c r="H98">
-        <f>SUM($H97+78)</f>
+        <f t="shared" si="19"/>
         <v>7488</v>
       </c>
       <c r="J98" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>09D0</v>
       </c>
       <c r="L98" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1D40</v>
       </c>
     </row>
     <row r="99" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G99">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2434</v>
       </c>
       <c r="H99">
-        <f>SUM($H98+78)</f>
+        <f t="shared" si="19"/>
         <v>7566</v>
       </c>
       <c r="J99" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0982</v>
       </c>
       <c r="L99" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1D8E</v>
       </c>
     </row>
     <row r="100" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G100">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2356</v>
       </c>
       <c r="H100">
-        <f>SUM($H99+78)</f>
+        <f t="shared" si="19"/>
         <v>7644</v>
       </c>
       <c r="J100" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0934</v>
       </c>
       <c r="L100" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1DDC</v>
       </c>
     </row>
     <row r="101" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G101">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2278</v>
       </c>
       <c r="H101">
-        <f>SUM($H100+78)</f>
+        <f t="shared" si="19"/>
         <v>7722</v>
       </c>
       <c r="J101" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>08E6</v>
       </c>
       <c r="L101" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E2A</v>
       </c>
     </row>
     <row r="102" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G102">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2200</v>
       </c>
       <c r="H102">
-        <f>SUM($H101+78)</f>
+        <f t="shared" si="19"/>
         <v>7800</v>
       </c>
       <c r="J102" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0898</v>
       </c>
       <c r="L102" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E78</v>
       </c>
     </row>
     <row r="103" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G103">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2122</v>
       </c>
       <c r="H103">
-        <f>SUM($H102+78)</f>
+        <f t="shared" si="19"/>
         <v>7878</v>
       </c>
       <c r="J103" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>084A</v>
       </c>
       <c r="L103" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1EC6</v>
       </c>
     </row>
     <row r="104" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G104">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2044</v>
       </c>
       <c r="H104">
-        <f>SUM($H103+78)</f>
+        <f t="shared" si="19"/>
         <v>7956</v>
       </c>
       <c r="J104" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>07FC</v>
       </c>
       <c r="L104" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1F14</v>
       </c>
     </row>
     <row r="105" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G105">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1966</v>
       </c>
       <c r="H105">
-        <f>SUM($H104+78)</f>
+        <f t="shared" si="19"/>
         <v>8034</v>
       </c>
       <c r="J105" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>07AE</v>
       </c>
       <c r="L105" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1F62</v>
       </c>
     </row>
     <row r="106" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G106">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1888</v>
       </c>
       <c r="H106">
-        <f>SUM($H105+78)</f>
+        <f t="shared" si="19"/>
         <v>8112</v>
       </c>
       <c r="J106" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0760</v>
       </c>
       <c r="L106" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1FB0</v>
       </c>
     </row>
     <row r="107" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G107">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1810</v>
       </c>
       <c r="H107">
-        <f>SUM($H106+78)</f>
+        <f t="shared" si="19"/>
         <v>8190</v>
       </c>
       <c r="J107" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0712</v>
       </c>
       <c r="L107" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1FFE</v>
       </c>
     </row>
     <row r="108" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G108">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1732</v>
       </c>
       <c r="H108">
-        <f>SUM($H107+78)</f>
+        <f t="shared" si="19"/>
         <v>8268</v>
       </c>
       <c r="J108" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>06C4</v>
       </c>
       <c r="L108" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>204C</v>
       </c>
     </row>
     <row r="109" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G109">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1654</v>
       </c>
       <c r="H109">
-        <f>SUM($H108+78)</f>
+        <f t="shared" ref="H109:H130" si="21">SUM($H108+78)</f>
         <v>8346</v>
       </c>
       <c r="J109" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0676</v>
       </c>
       <c r="L109" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>209A</v>
       </c>
     </row>
     <row r="110" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G110">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1576</v>
       </c>
       <c r="H110">
-        <f>SUM($H109+78)</f>
+        <f t="shared" si="21"/>
         <v>8424</v>
       </c>
       <c r="J110" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0628</v>
       </c>
       <c r="L110" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>20E8</v>
       </c>
     </row>
     <row r="111" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G111">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1498</v>
       </c>
       <c r="H111">
-        <f>SUM($H110+78)</f>
+        <f t="shared" si="21"/>
         <v>8502</v>
       </c>
       <c r="J111" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>05DA</v>
       </c>
       <c r="L111" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2136</v>
       </c>
     </row>
     <row r="112" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G112">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1420</v>
       </c>
       <c r="H112">
-        <f>SUM($H111+78)</f>
+        <f t="shared" si="21"/>
         <v>8580</v>
       </c>
       <c r="J112" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>058C</v>
       </c>
       <c r="L112" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2184</v>
       </c>
     </row>
     <row r="113" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G113">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1342</v>
       </c>
       <c r="H113">
-        <f>SUM($H112+78)</f>
+        <f t="shared" si="21"/>
         <v>8658</v>
       </c>
       <c r="J113" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>053E</v>
       </c>
       <c r="L113" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>21D2</v>
       </c>
     </row>
     <row r="114" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G114">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1264</v>
       </c>
       <c r="H114">
-        <f>SUM($H113+78)</f>
+        <f t="shared" si="21"/>
         <v>8736</v>
       </c>
       <c r="J114" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>04F0</v>
       </c>
       <c r="L114" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2220</v>
       </c>
     </row>
     <row r="115" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G115">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1186</v>
       </c>
       <c r="H115">
-        <f>SUM($H114+78)</f>
+        <f t="shared" si="21"/>
         <v>8814</v>
       </c>
       <c r="J115" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>04A2</v>
       </c>
       <c r="L115" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>226E</v>
       </c>
     </row>
     <row r="116" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G116">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1108</v>
       </c>
       <c r="H116">
-        <f>SUM($H115+78)</f>
+        <f t="shared" si="21"/>
         <v>8892</v>
       </c>
       <c r="J116" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0454</v>
       </c>
       <c r="L116" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>22BC</v>
       </c>
     </row>
     <row r="117" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G117">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1030</v>
       </c>
       <c r="H117">
-        <f>SUM($H116+78)</f>
+        <f t="shared" si="21"/>
         <v>8970</v>
       </c>
       <c r="J117" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0406</v>
       </c>
       <c r="L117" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>230A</v>
       </c>
     </row>
     <row r="118" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G118">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>952</v>
       </c>
       <c r="H118">
-        <f>SUM($H117+78)</f>
+        <f t="shared" si="21"/>
         <v>9048</v>
       </c>
       <c r="J118" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>03B8</v>
       </c>
       <c r="L118" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2358</v>
       </c>
     </row>
     <row r="119" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G119">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>874</v>
       </c>
       <c r="H119">
-        <f>SUM($H118+78)</f>
+        <f t="shared" si="21"/>
         <v>9126</v>
       </c>
       <c r="J119" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>036A</v>
       </c>
       <c r="L119" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>23A6</v>
       </c>
     </row>
     <row r="120" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G120">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>796</v>
       </c>
       <c r="H120">
-        <f>SUM($H119+78)</f>
+        <f t="shared" si="21"/>
         <v>9204</v>
       </c>
       <c r="J120" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>031C</v>
       </c>
       <c r="L120" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>23F4</v>
       </c>
     </row>
     <row r="121" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G121">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>718</v>
       </c>
       <c r="H121">
-        <f>SUM($H120+78)</f>
+        <f t="shared" si="21"/>
         <v>9282</v>
       </c>
       <c r="J121" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>02CE</v>
       </c>
       <c r="L121" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2442</v>
       </c>
     </row>
     <row r="122" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G122">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>640</v>
       </c>
       <c r="H122">
-        <f>SUM($H121+78)</f>
+        <f t="shared" si="21"/>
         <v>9360</v>
       </c>
       <c r="J122" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0280</v>
       </c>
       <c r="L122" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2490</v>
       </c>
     </row>
     <row r="123" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G123">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>562</v>
       </c>
       <c r="H123">
-        <f>SUM($H122+78)</f>
+        <f t="shared" si="21"/>
         <v>9438</v>
       </c>
       <c r="J123" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0232</v>
       </c>
       <c r="L123" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>24DE</v>
       </c>
     </row>
     <row r="124" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G124">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>484</v>
       </c>
       <c r="H124">
-        <f>SUM($H123+78)</f>
+        <f t="shared" si="21"/>
         <v>9516</v>
       </c>
       <c r="J124" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>01E4</v>
       </c>
       <c r="L124" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>252C</v>
       </c>
     </row>
     <row r="125" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G125">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>406</v>
       </c>
       <c r="H125">
-        <f>SUM($H124+78)</f>
+        <f t="shared" si="21"/>
         <v>9594</v>
       </c>
       <c r="J125" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0196</v>
       </c>
       <c r="L125" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>257A</v>
       </c>
     </row>
     <row r="126" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G126">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>328</v>
       </c>
       <c r="H126">
-        <f>SUM($H125+78)</f>
+        <f t="shared" si="21"/>
         <v>9672</v>
       </c>
       <c r="J126" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0148</v>
       </c>
       <c r="L126" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>25C8</v>
       </c>
     </row>
     <row r="127" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G127">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>250</v>
       </c>
       <c r="H127">
-        <f>SUM($H126+78)</f>
+        <f t="shared" si="21"/>
         <v>9750</v>
       </c>
       <c r="J127" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>00FA</v>
       </c>
       <c r="L127" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2616</v>
       </c>
     </row>
     <row r="128" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G128">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>172</v>
       </c>
       <c r="H128">
-        <f>SUM($H127+78)</f>
+        <f t="shared" si="21"/>
         <v>9828</v>
       </c>
       <c r="J128" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>00AC</v>
       </c>
       <c r="L128" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2664</v>
       </c>
     </row>
     <row r="129" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G129">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>94</v>
       </c>
       <c r="H129">
-        <f>SUM($H128+78)</f>
+        <f t="shared" si="21"/>
         <v>9906</v>
       </c>
       <c r="J129" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>005E</v>
       </c>
       <c r="L129" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>26B2</v>
       </c>
     </row>
     <row r="130" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G130">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>16</v>
       </c>
       <c r="H130">
-        <f>SUM($H129+78)</f>
+        <f t="shared" si="21"/>
         <v>9984</v>
       </c>
       <c r="J130" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0010</v>
       </c>
       <c r="L130" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2700</v>
       </c>
     </row>
     <row r="131" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G131">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H131">
         <v>10000</v>
       </c>
       <c r="J131" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0000</v>
       </c>
       <c r="L131" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2710</v>
       </c>
     </row>
     <row r="132" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G132">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>78</v>
       </c>
       <c r="H132">
@@ -4581,1267 +4581,1267 @@
     </row>
     <row r="133" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G133">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>156</v>
       </c>
       <c r="H133">
-        <f t="shared" ref="H133:H196" si="18">SUM($H132-78)</f>
+        <f t="shared" ref="H133:H196" si="22">SUM($H132-78)</f>
         <v>9844</v>
       </c>
     </row>
     <row r="134" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G134">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>234</v>
       </c>
       <c r="H134">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>9766</v>
       </c>
     </row>
     <row r="135" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G135">
-        <f t="shared" ref="G135:G198" si="19">SUM($G$2-$H135)</f>
+        <f t="shared" ref="G135:G198" si="23">SUM($G$2-$H135)</f>
         <v>312</v>
       </c>
       <c r="H135">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>9688</v>
       </c>
     </row>
     <row r="136" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G136">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>390</v>
       </c>
       <c r="H136">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>9610</v>
       </c>
     </row>
     <row r="137" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G137">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>468</v>
       </c>
       <c r="H137">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>9532</v>
       </c>
     </row>
     <row r="138" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G138">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>546</v>
       </c>
       <c r="H138">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>9454</v>
       </c>
     </row>
     <row r="139" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G139">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>624</v>
       </c>
       <c r="H139">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>9376</v>
       </c>
     </row>
     <row r="140" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G140">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>702</v>
       </c>
       <c r="H140">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>9298</v>
       </c>
     </row>
     <row r="141" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G141">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>780</v>
       </c>
       <c r="H141">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>9220</v>
       </c>
     </row>
     <row r="142" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G142">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>858</v>
       </c>
       <c r="H142">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>9142</v>
       </c>
     </row>
     <row r="143" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G143">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>936</v>
       </c>
       <c r="H143">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>9064</v>
       </c>
     </row>
     <row r="144" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G144">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1014</v>
       </c>
       <c r="H144">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>8986</v>
       </c>
     </row>
     <row r="145" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G145">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1092</v>
       </c>
       <c r="H145">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>8908</v>
       </c>
     </row>
     <row r="146" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G146">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1170</v>
       </c>
       <c r="H146">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>8830</v>
       </c>
     </row>
     <row r="147" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G147">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1248</v>
       </c>
       <c r="H147">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>8752</v>
       </c>
     </row>
     <row r="148" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G148">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1326</v>
       </c>
       <c r="H148">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>8674</v>
       </c>
     </row>
     <row r="149" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G149">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1404</v>
       </c>
       <c r="H149">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>8596</v>
       </c>
     </row>
     <row r="150" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G150">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1482</v>
       </c>
       <c r="H150">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>8518</v>
       </c>
     </row>
     <row r="151" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G151">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1560</v>
       </c>
       <c r="H151">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>8440</v>
       </c>
     </row>
     <row r="152" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G152">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1638</v>
       </c>
       <c r="H152">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>8362</v>
       </c>
     </row>
     <row r="153" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G153">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1716</v>
       </c>
       <c r="H153">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>8284</v>
       </c>
     </row>
     <row r="154" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G154">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1794</v>
       </c>
       <c r="H154">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>8206</v>
       </c>
     </row>
     <row r="155" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G155">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1872</v>
       </c>
       <c r="H155">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>8128</v>
       </c>
     </row>
     <row r="156" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G156">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1950</v>
       </c>
       <c r="H156">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>8050</v>
       </c>
     </row>
     <row r="157" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G157">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>2028</v>
       </c>
       <c r="H157">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>7972</v>
       </c>
     </row>
     <row r="158" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G158">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>2106</v>
       </c>
       <c r="H158">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>7894</v>
       </c>
     </row>
     <row r="159" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G159">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>2184</v>
       </c>
       <c r="H159">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>7816</v>
       </c>
     </row>
     <row r="160" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G160">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>2262</v>
       </c>
       <c r="H160">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>7738</v>
       </c>
     </row>
     <row r="161" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G161">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>2340</v>
       </c>
       <c r="H161">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>7660</v>
       </c>
     </row>
     <row r="162" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G162">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>2418</v>
       </c>
       <c r="H162">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>7582</v>
       </c>
     </row>
     <row r="163" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G163">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>2496</v>
       </c>
       <c r="H163">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>7504</v>
       </c>
     </row>
     <row r="164" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G164">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>2574</v>
       </c>
       <c r="H164">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>7426</v>
       </c>
     </row>
     <row r="165" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G165">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>2652</v>
       </c>
       <c r="H165">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>7348</v>
       </c>
     </row>
     <row r="166" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G166">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>2730</v>
       </c>
       <c r="H166">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>7270</v>
       </c>
     </row>
     <row r="167" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G167">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>2808</v>
       </c>
       <c r="H167">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>7192</v>
       </c>
     </row>
     <row r="168" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G168">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>2886</v>
       </c>
       <c r="H168">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>7114</v>
       </c>
     </row>
     <row r="169" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G169">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>2964</v>
       </c>
       <c r="H169">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>7036</v>
       </c>
     </row>
     <row r="170" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G170">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>3042</v>
       </c>
       <c r="H170">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>6958</v>
       </c>
     </row>
     <row r="171" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G171">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>3120</v>
       </c>
       <c r="H171">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>6880</v>
       </c>
     </row>
     <row r="172" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G172">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>3198</v>
       </c>
       <c r="H172">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>6802</v>
       </c>
     </row>
     <row r="173" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G173">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>3276</v>
       </c>
       <c r="H173">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>6724</v>
       </c>
     </row>
     <row r="174" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G174">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>3354</v>
       </c>
       <c r="H174">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>6646</v>
       </c>
     </row>
     <row r="175" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G175">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>3432</v>
       </c>
       <c r="H175">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>6568</v>
       </c>
     </row>
     <row r="176" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G176">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>3510</v>
       </c>
       <c r="H176">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>6490</v>
       </c>
     </row>
     <row r="177" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G177">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>3588</v>
       </c>
       <c r="H177">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>6412</v>
       </c>
     </row>
     <row r="178" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G178">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>3666</v>
       </c>
       <c r="H178">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>6334</v>
       </c>
     </row>
     <row r="179" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G179">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>3744</v>
       </c>
       <c r="H179">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>6256</v>
       </c>
     </row>
     <row r="180" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G180">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>3822</v>
       </c>
       <c r="H180">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>6178</v>
       </c>
     </row>
     <row r="181" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G181">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>3900</v>
       </c>
       <c r="H181">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>6100</v>
       </c>
     </row>
     <row r="182" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G182">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>3978</v>
       </c>
       <c r="H182">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>6022</v>
       </c>
     </row>
     <row r="183" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G183">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>4056</v>
       </c>
       <c r="H183">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>5944</v>
       </c>
     </row>
     <row r="184" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G184">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>4134</v>
       </c>
       <c r="H184">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>5866</v>
       </c>
     </row>
     <row r="185" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G185">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>4212</v>
       </c>
       <c r="H185">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>5788</v>
       </c>
     </row>
     <row r="186" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G186">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>4290</v>
       </c>
       <c r="H186">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>5710</v>
       </c>
     </row>
     <row r="187" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G187">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>4368</v>
       </c>
       <c r="H187">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>5632</v>
       </c>
     </row>
     <row r="188" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G188">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>4446</v>
       </c>
       <c r="H188">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>5554</v>
       </c>
     </row>
     <row r="189" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G189">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>4524</v>
       </c>
       <c r="H189">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>5476</v>
       </c>
     </row>
     <row r="190" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G190">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>4602</v>
       </c>
       <c r="H190">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>5398</v>
       </c>
     </row>
     <row r="191" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G191">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>4680</v>
       </c>
       <c r="H191">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>5320</v>
       </c>
     </row>
     <row r="192" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G192">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>4758</v>
       </c>
       <c r="H192">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>5242</v>
       </c>
     </row>
     <row r="193" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G193">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>4836</v>
       </c>
       <c r="H193">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>5164</v>
       </c>
     </row>
     <row r="194" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G194">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>4914</v>
       </c>
       <c r="H194">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>5086</v>
       </c>
     </row>
     <row r="195" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G195">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>4992</v>
       </c>
       <c r="H195">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>5008</v>
       </c>
     </row>
     <row r="196" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G196">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>5070</v>
       </c>
       <c r="H196">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>4930</v>
       </c>
     </row>
     <row r="197" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G197">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>5148</v>
       </c>
       <c r="H197">
-        <f t="shared" ref="H197:H260" si="20">SUM($H196-78)</f>
+        <f t="shared" ref="H197:H258" si="24">SUM($H196-78)</f>
         <v>4852</v>
       </c>
     </row>
     <row r="198" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G198">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>5226</v>
       </c>
       <c r="H198">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>4774</v>
       </c>
     </row>
     <row r="199" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G199">
-        <f t="shared" ref="G199:G259" si="21">SUM($G$2-$H199)</f>
+        <f t="shared" ref="G199:G259" si="25">SUM($G$2-$H199)</f>
         <v>5304</v>
       </c>
       <c r="H199">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>4696</v>
       </c>
     </row>
     <row r="200" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G200">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>5382</v>
       </c>
       <c r="H200">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>4618</v>
       </c>
     </row>
     <row r="201" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G201">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>5460</v>
       </c>
       <c r="H201">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>4540</v>
       </c>
     </row>
     <row r="202" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G202">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>5538</v>
       </c>
       <c r="H202">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>4462</v>
       </c>
     </row>
     <row r="203" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G203">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>5616</v>
       </c>
       <c r="H203">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>4384</v>
       </c>
     </row>
     <row r="204" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G204">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>5694</v>
       </c>
       <c r="H204">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>4306</v>
       </c>
     </row>
     <row r="205" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G205">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>5772</v>
       </c>
       <c r="H205">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>4228</v>
       </c>
     </row>
     <row r="206" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G206">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>5850</v>
       </c>
       <c r="H206">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>4150</v>
       </c>
     </row>
     <row r="207" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G207">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>5928</v>
       </c>
       <c r="H207">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>4072</v>
       </c>
     </row>
     <row r="208" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G208">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>6006</v>
       </c>
       <c r="H208">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>3994</v>
       </c>
     </row>
     <row r="209" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G209">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>6084</v>
       </c>
       <c r="H209">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>3916</v>
       </c>
     </row>
     <row r="210" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G210">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>6162</v>
       </c>
       <c r="H210">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>3838</v>
       </c>
     </row>
     <row r="211" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G211">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>6240</v>
       </c>
       <c r="H211">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>3760</v>
       </c>
     </row>
     <row r="212" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G212">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>6318</v>
       </c>
       <c r="H212">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>3682</v>
       </c>
     </row>
     <row r="213" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G213">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>6396</v>
       </c>
       <c r="H213">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>3604</v>
       </c>
     </row>
     <row r="214" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G214">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>6474</v>
       </c>
       <c r="H214">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>3526</v>
       </c>
     </row>
     <row r="215" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G215">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>6552</v>
       </c>
       <c r="H215">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>3448</v>
       </c>
     </row>
     <row r="216" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G216">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>6630</v>
       </c>
       <c r="H216">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>3370</v>
       </c>
     </row>
     <row r="217" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G217">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>6708</v>
       </c>
       <c r="H217">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>3292</v>
       </c>
     </row>
     <row r="218" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G218">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>6786</v>
       </c>
       <c r="H218">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>3214</v>
       </c>
     </row>
     <row r="219" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G219">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>6864</v>
       </c>
       <c r="H219">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>3136</v>
       </c>
     </row>
     <row r="220" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G220">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>6942</v>
       </c>
       <c r="H220">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>3058</v>
       </c>
     </row>
     <row r="221" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G221">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>7020</v>
       </c>
       <c r="H221">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2980</v>
       </c>
     </row>
     <row r="222" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G222">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>7098</v>
       </c>
       <c r="H222">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2902</v>
       </c>
     </row>
     <row r="223" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G223">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>7176</v>
       </c>
       <c r="H223">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2824</v>
       </c>
     </row>
     <row r="224" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G224">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>7254</v>
       </c>
       <c r="H224">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2746</v>
       </c>
     </row>
     <row r="225" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G225">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>7332</v>
       </c>
       <c r="H225">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2668</v>
       </c>
     </row>
     <row r="226" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G226">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>7410</v>
       </c>
       <c r="H226">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2590</v>
       </c>
     </row>
     <row r="227" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G227">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>7488</v>
       </c>
       <c r="H227">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2512</v>
       </c>
     </row>
     <row r="228" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G228">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>7566</v>
       </c>
       <c r="H228">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2434</v>
       </c>
     </row>
     <row r="229" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G229">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>7644</v>
       </c>
       <c r="H229">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2356</v>
       </c>
     </row>
     <row r="230" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G230">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>7722</v>
       </c>
       <c r="H230">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2278</v>
       </c>
     </row>
     <row r="231" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G231">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>7800</v>
       </c>
       <c r="H231">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2200</v>
       </c>
     </row>
     <row r="232" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G232">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>7878</v>
       </c>
       <c r="H232">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2122</v>
       </c>
     </row>
     <row r="233" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G233">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>7956</v>
       </c>
       <c r="H233">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2044</v>
       </c>
     </row>
     <row r="234" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G234">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>8034</v>
       </c>
       <c r="H234">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1966</v>
       </c>
     </row>
     <row r="235" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G235">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>8112</v>
       </c>
       <c r="H235">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1888</v>
       </c>
     </row>
     <row r="236" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G236">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>8190</v>
       </c>
       <c r="H236">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1810</v>
       </c>
     </row>
     <row r="237" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G237">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>8268</v>
       </c>
       <c r="H237">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1732</v>
       </c>
     </row>
     <row r="238" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G238">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>8346</v>
       </c>
       <c r="H238">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1654</v>
       </c>
     </row>
     <row r="239" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G239">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>8424</v>
       </c>
       <c r="H239">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1576</v>
       </c>
     </row>
     <row r="240" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G240">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>8502</v>
       </c>
       <c r="H240">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1498</v>
       </c>
     </row>
     <row r="241" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G241">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>8580</v>
       </c>
       <c r="H241">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1420</v>
       </c>
     </row>
     <row r="242" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G242">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>8658</v>
       </c>
       <c r="H242">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1342</v>
       </c>
     </row>
     <row r="243" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G243">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>8736</v>
       </c>
       <c r="H243">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1264</v>
       </c>
     </row>
     <row r="244" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G244">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>8814</v>
       </c>
       <c r="H244">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1186</v>
       </c>
     </row>
     <row r="245" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G245">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>8892</v>
       </c>
       <c r="H245">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1108</v>
       </c>
     </row>
     <row r="246" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G246">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>8970</v>
       </c>
       <c r="H246">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1030</v>
       </c>
     </row>
     <row r="247" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G247">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>9048</v>
       </c>
       <c r="H247">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>952</v>
       </c>
     </row>
     <row r="248" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G248">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>9126</v>
       </c>
       <c r="H248">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>874</v>
       </c>
     </row>
     <row r="249" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G249">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>9204</v>
       </c>
       <c r="H249">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>796</v>
       </c>
     </row>
     <row r="250" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G250">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>9282</v>
       </c>
       <c r="H250">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>718</v>
       </c>
     </row>
     <row r="251" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G251">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>9360</v>
       </c>
       <c r="H251">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>640</v>
       </c>
     </row>
     <row r="252" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G252">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>9438</v>
       </c>
       <c r="H252">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>562</v>
       </c>
     </row>
     <row r="253" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G253">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>9516</v>
       </c>
       <c r="H253">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>484</v>
       </c>
     </row>
     <row r="254" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G254">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>9594</v>
       </c>
       <c r="H254">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>406</v>
       </c>
     </row>
     <row r="255" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G255">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>9672</v>
       </c>
       <c r="H255">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>328</v>
       </c>
     </row>
     <row r="256" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G256">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>9750</v>
       </c>
       <c r="H256">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>250</v>
       </c>
     </row>
     <row r="257" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G257">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>9828</v>
       </c>
       <c r="H257">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>172</v>
       </c>
     </row>
     <row r="258" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G258">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>9906</v>
       </c>
       <c r="H258">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>94</v>
       </c>
     </row>
     <row r="259" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G259">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>10000</v>
       </c>
       <c r="H259">

--- a/Documentation/Werte + Resourcen/Dez Hex ez.xlsx
+++ b/Documentation/Werte + Resourcen/Dez Hex ez.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Silas\ItProject2018\Documentation\Werte + Resourcen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BAE76A03-C782-460E-83C8-DEA1D0AD968E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CFE9C122-95EA-43AB-A5D3-4C0D3F0173DE}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="75" windowWidth="18915" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,12 +22,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>1. beiden Ziffern MotLowTH, 2. beiden Ziffern MotLowTL</t>
   </si>
   <si>
     <t>1. beiden Ziffern MotHighTH, 2. beiden Ziffern MotHighTL</t>
+  </si>
+  <si>
+    <t>AN</t>
+  </si>
+  <si>
+    <t>AUS</t>
   </si>
 </sst>
 </file>
@@ -405,8 +411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L259"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="B97" workbookViewId="0">
+      <selection activeCell="J108" sqref="J108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,6 +428,12 @@
       <c r="D1">
         <v>10000</v>
       </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
       <c r="J1" t="s">
         <v>0</v>
       </c>
@@ -454,6 +466,14 @@
       </c>
       <c r="H2">
         <v>0</v>
+      </c>
+      <c r="J2" t="str">
+        <f>DEC2HEX($G2,4)</f>
+        <v>2710</v>
+      </c>
+      <c r="L2" t="str">
+        <f t="shared" ref="L2" si="0">DEC2HEX($H2,4)</f>
+        <v>0000</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -466,24 +486,16 @@
         <v>364</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C66" si="0">DEC2HEX($B3,4)</f>
+        <f t="shared" ref="C3:C66" si="1">DEC2HEX($B3,4)</f>
         <v>016C</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D66" si="1">SUM($D$1-$B3)</f>
+        <f t="shared" ref="D3:D66" si="2">SUM($D$1-$B3)</f>
         <v>9636</v>
       </c>
       <c r="E3" t="str">
         <f>DEC2HEX($D3,4)</f>
         <v>25A4</v>
-      </c>
-      <c r="G3">
-        <f>SUM($G$2-$H3)</f>
-        <v>9922</v>
-      </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H35" si="2">SUM($H2+78)</f>
-        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -496,11 +508,11 @@
         <v>368</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0170</v>
       </c>
       <c r="D4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9632</v>
       </c>
       <c r="E4" t="str">
@@ -509,19 +521,19 @@
       </c>
       <c r="G4">
         <f>SUM($G$2-$H4)</f>
-        <v>9844</v>
+        <v>9922</v>
       </c>
       <c r="H4">
-        <f t="shared" si="2"/>
-        <v>156</v>
+        <f>SUM($H3+78)</f>
+        <v>78</v>
       </c>
       <c r="J4" t="str">
         <f>DEC2HEX($G4,4)</f>
-        <v>2674</v>
+        <v>26C2</v>
       </c>
       <c r="L4" t="str">
-        <f t="shared" ref="L4:L9" si="5">DEC2HEX($H4,4)</f>
-        <v>009C</v>
+        <f>DEC2HEX($H4,4)</f>
+        <v>004E</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -534,11 +546,11 @@
         <v>372</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0174</v>
       </c>
       <c r="D5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9628</v>
       </c>
       <c r="E5" t="str">
@@ -547,19 +559,19 @@
       </c>
       <c r="G5">
         <f>SUM($G$2-$H5)</f>
-        <v>9766</v>
+        <v>9844</v>
       </c>
       <c r="H5">
-        <f t="shared" si="2"/>
-        <v>234</v>
+        <f>SUM($H4+78)</f>
+        <v>156</v>
       </c>
       <c r="J5" t="str">
-        <f t="shared" ref="J5:J68" si="6">DEC2HEX($G5,4)</f>
-        <v>2626</v>
+        <f>DEC2HEX($G5,4)</f>
+        <v>2674</v>
       </c>
       <c r="L5" t="str">
-        <f t="shared" si="5"/>
-        <v>00EA</v>
+        <f>DEC2HEX($H5,4)</f>
+        <v>009C</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -572,11 +584,11 @@
         <v>376</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0178</v>
       </c>
       <c r="D6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9624</v>
       </c>
       <c r="E6" t="str">
@@ -585,19 +597,19 @@
       </c>
       <c r="G6">
         <f>SUM($G$2-$H6)</f>
-        <v>9688</v>
+        <v>9766</v>
       </c>
       <c r="H6">
-        <f t="shared" si="2"/>
-        <v>312</v>
+        <f>SUM($H5+78)</f>
+        <v>234</v>
       </c>
       <c r="J6" t="str">
-        <f t="shared" si="6"/>
-        <v>25D8</v>
+        <f>DEC2HEX($G6,4)</f>
+        <v>2626</v>
       </c>
       <c r="L6" t="str">
-        <f t="shared" si="5"/>
-        <v>0138</v>
+        <f>DEC2HEX($H6,4)</f>
+        <v>00EA</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -606,15 +618,15 @@
         <v>95</v>
       </c>
       <c r="B7">
-        <f t="shared" ref="B7:B70" si="7">SUM($A7*$B$1)</f>
+        <f t="shared" ref="B7:B70" si="5">SUM($A7*$B$1)</f>
         <v>380</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>017C</v>
       </c>
       <c r="D7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9620</v>
       </c>
       <c r="E7" t="str">
@@ -622,20 +634,20 @@
         <v>2594</v>
       </c>
       <c r="G7">
-        <f t="shared" ref="G7:G70" si="8">SUM($G$2-$H7)</f>
-        <v>9610</v>
+        <f>SUM($G$2-$H7)</f>
+        <v>9688</v>
       </c>
       <c r="H7">
-        <f t="shared" si="2"/>
-        <v>390</v>
+        <f>SUM($H6+78)</f>
+        <v>312</v>
       </c>
       <c r="J7" t="str">
-        <f t="shared" si="6"/>
-        <v>258A</v>
+        <f>DEC2HEX($G7,4)</f>
+        <v>25D8</v>
       </c>
       <c r="L7" t="str">
-        <f t="shared" si="5"/>
-        <v>0186</v>
+        <f>DEC2HEX($H7,4)</f>
+        <v>0138</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -644,15 +656,15 @@
         <v>96</v>
       </c>
       <c r="B8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>384</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0180</v>
       </c>
       <c r="D8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9616</v>
       </c>
       <c r="E8" t="str">
@@ -660,20 +672,20 @@
         <v>2590</v>
       </c>
       <c r="G8">
-        <f t="shared" si="8"/>
-        <v>9532</v>
+        <f>SUM($G$2-$H8)</f>
+        <v>9610</v>
       </c>
       <c r="H8">
-        <f t="shared" si="2"/>
-        <v>468</v>
+        <f>SUM($H7+78)</f>
+        <v>390</v>
       </c>
       <c r="J8" t="str">
-        <f t="shared" si="6"/>
-        <v>253C</v>
+        <f>DEC2HEX($G8,4)</f>
+        <v>258A</v>
       </c>
       <c r="L8" t="str">
-        <f t="shared" si="5"/>
-        <v>01D4</v>
+        <f>DEC2HEX($H8,4)</f>
+        <v>0186</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -682,15 +694,15 @@
         <v>97</v>
       </c>
       <c r="B9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>388</v>
       </c>
       <c r="C9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0184</v>
       </c>
       <c r="D9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9612</v>
       </c>
       <c r="E9" t="str">
@@ -698,20 +710,20 @@
         <v>258C</v>
       </c>
       <c r="G9">
-        <f t="shared" si="8"/>
-        <v>9454</v>
+        <f>SUM($G$2-$H9)</f>
+        <v>9532</v>
       </c>
       <c r="H9">
-        <f t="shared" si="2"/>
-        <v>546</v>
+        <f>SUM($H8+78)</f>
+        <v>468</v>
       </c>
       <c r="J9" t="str">
-        <f t="shared" si="6"/>
-        <v>24EE</v>
+        <f>DEC2HEX($G9,4)</f>
+        <v>253C</v>
       </c>
       <c r="L9" t="str">
-        <f t="shared" si="5"/>
-        <v>0222</v>
+        <f>DEC2HEX($H9,4)</f>
+        <v>01D4</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -720,15 +732,15 @@
         <v>98</v>
       </c>
       <c r="B10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>392</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0188</v>
       </c>
       <c r="D10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9608</v>
       </c>
       <c r="E10" t="str">
@@ -736,20 +748,20 @@
         <v>2588</v>
       </c>
       <c r="G10">
-        <f t="shared" si="8"/>
-        <v>9376</v>
+        <f>SUM($G$2-$H10)</f>
+        <v>9454</v>
       </c>
       <c r="H10">
-        <f t="shared" si="2"/>
-        <v>624</v>
+        <f>SUM($H9+78)</f>
+        <v>546</v>
       </c>
       <c r="J10" t="str">
-        <f t="shared" si="6"/>
-        <v>24A0</v>
+        <f>DEC2HEX($G10,4)</f>
+        <v>24EE</v>
       </c>
       <c r="L10" t="str">
-        <f t="shared" ref="L10:L73" si="9">DEC2HEX($H10,4)</f>
-        <v>0270</v>
+        <f>DEC2HEX($H10,4)</f>
+        <v>0222</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -758,15 +770,15 @@
         <v>99</v>
       </c>
       <c r="B11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>396</v>
       </c>
       <c r="C11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>018C</v>
       </c>
       <c r="D11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9604</v>
       </c>
       <c r="E11" t="str">
@@ -774,20 +786,20 @@
         <v>2584</v>
       </c>
       <c r="G11">
-        <f t="shared" si="8"/>
-        <v>9298</v>
+        <f>SUM($G$2-$H11)</f>
+        <v>9376</v>
       </c>
       <c r="H11">
-        <f t="shared" si="2"/>
-        <v>702</v>
+        <f>SUM($H10+78)</f>
+        <v>624</v>
       </c>
       <c r="J11" t="str">
-        <f t="shared" si="6"/>
-        <v>2452</v>
+        <f>DEC2HEX($G11,4)</f>
+        <v>24A0</v>
       </c>
       <c r="L11" t="str">
-        <f t="shared" si="9"/>
-        <v>02BE</v>
+        <f>DEC2HEX($H11,4)</f>
+        <v>0270</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -796,15 +808,15 @@
         <v>100</v>
       </c>
       <c r="B12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>400</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0190</v>
       </c>
       <c r="D12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9600</v>
       </c>
       <c r="E12" t="str">
@@ -812,20 +824,20 @@
         <v>2580</v>
       </c>
       <c r="G12">
-        <f t="shared" si="8"/>
-        <v>9220</v>
+        <f>SUM($G$2-$H12)</f>
+        <v>9298</v>
       </c>
       <c r="H12">
-        <f t="shared" si="2"/>
-        <v>780</v>
+        <f>SUM($H11+78)</f>
+        <v>702</v>
       </c>
       <c r="J12" t="str">
-        <f t="shared" si="6"/>
-        <v>2404</v>
+        <f>DEC2HEX($G12,4)</f>
+        <v>2452</v>
       </c>
       <c r="L12" t="str">
-        <f t="shared" si="9"/>
-        <v>030C</v>
+        <f>DEC2HEX($H12,4)</f>
+        <v>02BE</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -834,15 +846,15 @@
         <v>101</v>
       </c>
       <c r="B13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>404</v>
       </c>
       <c r="C13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0194</v>
       </c>
       <c r="D13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9596</v>
       </c>
       <c r="E13" t="str">
@@ -850,20 +862,20 @@
         <v>257C</v>
       </c>
       <c r="G13">
-        <f t="shared" si="8"/>
-        <v>9142</v>
+        <f>SUM($G$2-$H13)</f>
+        <v>9220</v>
       </c>
       <c r="H13">
-        <f t="shared" si="2"/>
-        <v>858</v>
+        <f>SUM($H12+78)</f>
+        <v>780</v>
       </c>
       <c r="J13" t="str">
-        <f t="shared" si="6"/>
-        <v>23B6</v>
+        <f>DEC2HEX($G13,4)</f>
+        <v>2404</v>
       </c>
       <c r="L13" t="str">
-        <f t="shared" si="9"/>
-        <v>035A</v>
+        <f>DEC2HEX($H13,4)</f>
+        <v>030C</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -872,15 +884,15 @@
         <v>102</v>
       </c>
       <c r="B14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>408</v>
       </c>
       <c r="C14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0198</v>
       </c>
       <c r="D14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9592</v>
       </c>
       <c r="E14" t="str">
@@ -888,20 +900,20 @@
         <v>2578</v>
       </c>
       <c r="G14">
-        <f t="shared" si="8"/>
-        <v>9064</v>
+        <f>SUM($G$2-$H14)</f>
+        <v>9142</v>
       </c>
       <c r="H14">
-        <f t="shared" si="2"/>
-        <v>936</v>
+        <f>SUM($H13+78)</f>
+        <v>858</v>
       </c>
       <c r="J14" t="str">
-        <f t="shared" si="6"/>
-        <v>2368</v>
+        <f>DEC2HEX($G14,4)</f>
+        <v>23B6</v>
       </c>
       <c r="L14" t="str">
-        <f t="shared" si="9"/>
-        <v>03A8</v>
+        <f>DEC2HEX($H14,4)</f>
+        <v>035A</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -910,15 +922,15 @@
         <v>103</v>
       </c>
       <c r="B15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>412</v>
       </c>
       <c r="C15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>019C</v>
       </c>
       <c r="D15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9588</v>
       </c>
       <c r="E15" t="str">
@@ -926,20 +938,20 @@
         <v>2574</v>
       </c>
       <c r="G15">
-        <f t="shared" si="8"/>
-        <v>8986</v>
+        <f>SUM($G$2-$H15)</f>
+        <v>9064</v>
       </c>
       <c r="H15">
-        <f t="shared" si="2"/>
-        <v>1014</v>
+        <f>SUM($H14+78)</f>
+        <v>936</v>
       </c>
       <c r="J15" t="str">
-        <f t="shared" si="6"/>
-        <v>231A</v>
+        <f>DEC2HEX($G15,4)</f>
+        <v>2368</v>
       </c>
       <c r="L15" t="str">
-        <f t="shared" si="9"/>
-        <v>03F6</v>
+        <f>DEC2HEX($H15,4)</f>
+        <v>03A8</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -948,15 +960,15 @@
         <v>104</v>
       </c>
       <c r="B16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>416</v>
       </c>
       <c r="C16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>01A0</v>
       </c>
       <c r="D16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9584</v>
       </c>
       <c r="E16" t="str">
@@ -964,20 +976,20 @@
         <v>2570</v>
       </c>
       <c r="G16">
-        <f t="shared" si="8"/>
-        <v>8908</v>
+        <f>SUM($G$2-$H16)</f>
+        <v>8986</v>
       </c>
       <c r="H16">
-        <f t="shared" si="2"/>
-        <v>1092</v>
+        <f>SUM($H15+78)</f>
+        <v>1014</v>
       </c>
       <c r="J16" t="str">
-        <f t="shared" si="6"/>
-        <v>22CC</v>
+        <f>DEC2HEX($G16,4)</f>
+        <v>231A</v>
       </c>
       <c r="L16" t="str">
-        <f t="shared" si="9"/>
-        <v>0444</v>
+        <f>DEC2HEX($H16,4)</f>
+        <v>03F6</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -986,15 +998,15 @@
         <v>105</v>
       </c>
       <c r="B17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>420</v>
       </c>
       <c r="C17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>01A4</v>
       </c>
       <c r="D17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9580</v>
       </c>
       <c r="E17" t="str">
@@ -1002,20 +1014,20 @@
         <v>256C</v>
       </c>
       <c r="G17">
-        <f t="shared" si="8"/>
-        <v>8830</v>
+        <f>SUM($G$2-$H17)</f>
+        <v>8908</v>
       </c>
       <c r="H17">
-        <f t="shared" si="2"/>
-        <v>1170</v>
+        <f>SUM($H16+78)</f>
+        <v>1092</v>
       </c>
       <c r="J17" t="str">
-        <f t="shared" si="6"/>
-        <v>227E</v>
+        <f>DEC2HEX($G17,4)</f>
+        <v>22CC</v>
       </c>
       <c r="L17" t="str">
-        <f t="shared" si="9"/>
-        <v>0492</v>
+        <f>DEC2HEX($H17,4)</f>
+        <v>0444</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1024,15 +1036,15 @@
         <v>106</v>
       </c>
       <c r="B18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>424</v>
       </c>
       <c r="C18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>01A8</v>
       </c>
       <c r="D18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9576</v>
       </c>
       <c r="E18" t="str">
@@ -1040,20 +1052,20 @@
         <v>2568</v>
       </c>
       <c r="G18">
-        <f t="shared" si="8"/>
-        <v>8752</v>
+        <f>SUM($G$2-$H18)</f>
+        <v>8830</v>
       </c>
       <c r="H18">
-        <f t="shared" si="2"/>
-        <v>1248</v>
+        <f>SUM($H17+78)</f>
+        <v>1170</v>
       </c>
       <c r="J18" t="str">
-        <f t="shared" si="6"/>
-        <v>2230</v>
+        <f>DEC2HEX($G18,4)</f>
+        <v>227E</v>
       </c>
       <c r="L18" t="str">
-        <f t="shared" si="9"/>
-        <v>04E0</v>
+        <f>DEC2HEX($H18,4)</f>
+        <v>0492</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1062,15 +1074,15 @@
         <v>107</v>
       </c>
       <c r="B19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>428</v>
       </c>
       <c r="C19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>01AC</v>
       </c>
       <c r="D19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9572</v>
       </c>
       <c r="E19" t="str">
@@ -1078,20 +1090,20 @@
         <v>2564</v>
       </c>
       <c r="G19">
-        <f t="shared" si="8"/>
-        <v>8674</v>
+        <f>SUM($G$2-$H19)</f>
+        <v>8752</v>
       </c>
       <c r="H19">
-        <f t="shared" si="2"/>
-        <v>1326</v>
+        <f>SUM($H18+78)</f>
+        <v>1248</v>
       </c>
       <c r="J19" t="str">
-        <f t="shared" si="6"/>
-        <v>21E2</v>
+        <f>DEC2HEX($G19,4)</f>
+        <v>2230</v>
       </c>
       <c r="L19" t="str">
-        <f t="shared" si="9"/>
-        <v>052E</v>
+        <f>DEC2HEX($H19,4)</f>
+        <v>04E0</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1100,15 +1112,15 @@
         <v>108</v>
       </c>
       <c r="B20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>432</v>
       </c>
       <c r="C20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>01B0</v>
       </c>
       <c r="D20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9568</v>
       </c>
       <c r="E20" t="str">
@@ -1116,20 +1128,20 @@
         <v>2560</v>
       </c>
       <c r="G20">
-        <f t="shared" si="8"/>
-        <v>8596</v>
+        <f>SUM($G$2-$H20)</f>
+        <v>8674</v>
       </c>
       <c r="H20">
-        <f t="shared" si="2"/>
-        <v>1404</v>
+        <f>SUM($H19+78)</f>
+        <v>1326</v>
       </c>
       <c r="J20" t="str">
-        <f t="shared" si="6"/>
-        <v>2194</v>
+        <f>DEC2HEX($G20,4)</f>
+        <v>21E2</v>
       </c>
       <c r="L20" t="str">
-        <f t="shared" si="9"/>
-        <v>057C</v>
+        <f>DEC2HEX($H20,4)</f>
+        <v>052E</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1138,15 +1150,15 @@
         <v>109</v>
       </c>
       <c r="B21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>436</v>
       </c>
       <c r="C21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>01B4</v>
       </c>
       <c r="D21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9564</v>
       </c>
       <c r="E21" t="str">
@@ -1154,20 +1166,20 @@
         <v>255C</v>
       </c>
       <c r="G21">
-        <f t="shared" si="8"/>
-        <v>8518</v>
+        <f>SUM($G$2-$H21)</f>
+        <v>8596</v>
       </c>
       <c r="H21">
-        <f t="shared" si="2"/>
-        <v>1482</v>
+        <f>SUM($H20+78)</f>
+        <v>1404</v>
       </c>
       <c r="J21" t="str">
-        <f t="shared" si="6"/>
-        <v>2146</v>
+        <f>DEC2HEX($G21,4)</f>
+        <v>2194</v>
       </c>
       <c r="L21" t="str">
-        <f t="shared" si="9"/>
-        <v>05CA</v>
+        <f>DEC2HEX($H21,4)</f>
+        <v>057C</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1176,15 +1188,15 @@
         <v>110</v>
       </c>
       <c r="B22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>440</v>
       </c>
       <c r="C22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>01B8</v>
       </c>
       <c r="D22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9560</v>
       </c>
       <c r="E22" t="str">
@@ -1192,20 +1204,20 @@
         <v>2558</v>
       </c>
       <c r="G22">
-        <f t="shared" si="8"/>
-        <v>8440</v>
+        <f>SUM($G$2-$H22)</f>
+        <v>8518</v>
       </c>
       <c r="H22">
-        <f t="shared" si="2"/>
-        <v>1560</v>
+        <f>SUM($H21+78)</f>
+        <v>1482</v>
       </c>
       <c r="J22" t="str">
-        <f t="shared" si="6"/>
-        <v>20F8</v>
+        <f>DEC2HEX($G22,4)</f>
+        <v>2146</v>
       </c>
       <c r="L22" t="str">
-        <f t="shared" si="9"/>
-        <v>0618</v>
+        <f>DEC2HEX($H22,4)</f>
+        <v>05CA</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -1214,15 +1226,15 @@
         <v>111</v>
       </c>
       <c r="B23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>444</v>
       </c>
       <c r="C23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>01BC</v>
       </c>
       <c r="D23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9556</v>
       </c>
       <c r="E23" t="str">
@@ -1230,20 +1242,20 @@
         <v>2554</v>
       </c>
       <c r="G23">
-        <f t="shared" si="8"/>
-        <v>8362</v>
+        <f>SUM($G$2-$H23)</f>
+        <v>8440</v>
       </c>
       <c r="H23">
-        <f t="shared" si="2"/>
-        <v>1638</v>
+        <f>SUM($H22+78)</f>
+        <v>1560</v>
       </c>
       <c r="J23" t="str">
-        <f t="shared" si="6"/>
-        <v>20AA</v>
+        <f>DEC2HEX($G23,4)</f>
+        <v>20F8</v>
       </c>
       <c r="L23" t="str">
-        <f t="shared" si="9"/>
-        <v>0666</v>
+        <f>DEC2HEX($H23,4)</f>
+        <v>0618</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -1252,15 +1264,15 @@
         <v>112</v>
       </c>
       <c r="B24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>448</v>
       </c>
       <c r="C24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>01C0</v>
       </c>
       <c r="D24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9552</v>
       </c>
       <c r="E24" t="str">
@@ -1268,20 +1280,20 @@
         <v>2550</v>
       </c>
       <c r="G24">
-        <f t="shared" si="8"/>
-        <v>8284</v>
+        <f>SUM($G$2-$H24)</f>
+        <v>8362</v>
       </c>
       <c r="H24">
-        <f t="shared" si="2"/>
-        <v>1716</v>
+        <f>SUM($H23+78)</f>
+        <v>1638</v>
       </c>
       <c r="J24" t="str">
-        <f t="shared" si="6"/>
-        <v>205C</v>
+        <f>DEC2HEX($G24,4)</f>
+        <v>20AA</v>
       </c>
       <c r="L24" t="str">
-        <f t="shared" si="9"/>
-        <v>06B4</v>
+        <f>DEC2HEX($H24,4)</f>
+        <v>0666</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -1290,15 +1302,15 @@
         <v>113</v>
       </c>
       <c r="B25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>452</v>
       </c>
       <c r="C25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>01C4</v>
       </c>
       <c r="D25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9548</v>
       </c>
       <c r="E25" t="str">
@@ -1306,20 +1318,20 @@
         <v>254C</v>
       </c>
       <c r="G25">
-        <f t="shared" si="8"/>
-        <v>8206</v>
+        <f>SUM($G$2-$H25)</f>
+        <v>8284</v>
       </c>
       <c r="H25">
-        <f t="shared" si="2"/>
-        <v>1794</v>
+        <f>SUM($H24+78)</f>
+        <v>1716</v>
       </c>
       <c r="J25" t="str">
-        <f t="shared" si="6"/>
-        <v>200E</v>
+        <f>DEC2HEX($G25,4)</f>
+        <v>205C</v>
       </c>
       <c r="L25" t="str">
-        <f t="shared" si="9"/>
-        <v>0702</v>
+        <f>DEC2HEX($H25,4)</f>
+        <v>06B4</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -1328,15 +1340,15 @@
         <v>114</v>
       </c>
       <c r="B26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>456</v>
       </c>
       <c r="C26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>01C8</v>
       </c>
       <c r="D26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9544</v>
       </c>
       <c r="E26" t="str">
@@ -1344,20 +1356,20 @@
         <v>2548</v>
       </c>
       <c r="G26">
-        <f t="shared" si="8"/>
-        <v>8128</v>
+        <f>SUM($G$2-$H26)</f>
+        <v>8206</v>
       </c>
       <c r="H26">
-        <f t="shared" si="2"/>
-        <v>1872</v>
+        <f>SUM($H25+78)</f>
+        <v>1794</v>
       </c>
       <c r="J26" t="str">
-        <f t="shared" si="6"/>
-        <v>1FC0</v>
+        <f>DEC2HEX($G26,4)</f>
+        <v>200E</v>
       </c>
       <c r="L26" t="str">
-        <f t="shared" si="9"/>
-        <v>0750</v>
+        <f>DEC2HEX($H26,4)</f>
+        <v>0702</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -1366,15 +1378,15 @@
         <v>115</v>
       </c>
       <c r="B27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>460</v>
       </c>
       <c r="C27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>01CC</v>
       </c>
       <c r="D27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9540</v>
       </c>
       <c r="E27" t="str">
@@ -1382,20 +1394,20 @@
         <v>2544</v>
       </c>
       <c r="G27">
-        <f t="shared" si="8"/>
-        <v>8050</v>
+        <f>SUM($G$2-$H27)</f>
+        <v>8128</v>
       </c>
       <c r="H27">
-        <f t="shared" si="2"/>
-        <v>1950</v>
+        <f>SUM($H26+78)</f>
+        <v>1872</v>
       </c>
       <c r="J27" t="str">
-        <f t="shared" si="6"/>
-        <v>1F72</v>
+        <f>DEC2HEX($G27,4)</f>
+        <v>1FC0</v>
       </c>
       <c r="L27" t="str">
-        <f t="shared" si="9"/>
-        <v>079E</v>
+        <f>DEC2HEX($H27,4)</f>
+        <v>0750</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -1404,15 +1416,15 @@
         <v>116</v>
       </c>
       <c r="B28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>464</v>
       </c>
       <c r="C28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>01D0</v>
       </c>
       <c r="D28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9536</v>
       </c>
       <c r="E28" t="str">
@@ -1420,20 +1432,20 @@
         <v>2540</v>
       </c>
       <c r="G28">
-        <f t="shared" si="8"/>
-        <v>7972</v>
+        <f>SUM($G$2-$H28)</f>
+        <v>8050</v>
       </c>
       <c r="H28">
-        <f t="shared" si="2"/>
-        <v>2028</v>
+        <f>SUM($H27+78)</f>
+        <v>1950</v>
       </c>
       <c r="J28" t="str">
-        <f t="shared" si="6"/>
-        <v>1F24</v>
+        <f>DEC2HEX($G28,4)</f>
+        <v>1F72</v>
       </c>
       <c r="L28" t="str">
-        <f t="shared" si="9"/>
-        <v>07EC</v>
+        <f>DEC2HEX($H28,4)</f>
+        <v>079E</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -1442,15 +1454,15 @@
         <v>117</v>
       </c>
       <c r="B29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>468</v>
       </c>
       <c r="C29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>01D4</v>
       </c>
       <c r="D29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9532</v>
       </c>
       <c r="E29" t="str">
@@ -1458,20 +1470,20 @@
         <v>253C</v>
       </c>
       <c r="G29">
-        <f t="shared" si="8"/>
-        <v>7894</v>
+        <f>SUM($G$2-$H29)</f>
+        <v>7972</v>
       </c>
       <c r="H29">
-        <f t="shared" si="2"/>
-        <v>2106</v>
+        <f>SUM($H28+78)</f>
+        <v>2028</v>
       </c>
       <c r="J29" t="str">
-        <f t="shared" si="6"/>
-        <v>1ED6</v>
+        <f>DEC2HEX($G29,4)</f>
+        <v>1F24</v>
       </c>
       <c r="L29" t="str">
-        <f t="shared" si="9"/>
-        <v>083A</v>
+        <f>DEC2HEX($H29,4)</f>
+        <v>07EC</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -1480,15 +1492,15 @@
         <v>118</v>
       </c>
       <c r="B30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>472</v>
       </c>
       <c r="C30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>01D8</v>
       </c>
       <c r="D30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9528</v>
       </c>
       <c r="E30" t="str">
@@ -1496,20 +1508,20 @@
         <v>2538</v>
       </c>
       <c r="G30">
-        <f t="shared" si="8"/>
-        <v>7816</v>
+        <f>SUM($G$2-$H30)</f>
+        <v>7894</v>
       </c>
       <c r="H30">
-        <f t="shared" si="2"/>
-        <v>2184</v>
+        <f>SUM($H29+78)</f>
+        <v>2106</v>
       </c>
       <c r="J30" t="str">
-        <f t="shared" si="6"/>
-        <v>1E88</v>
+        <f>DEC2HEX($G30,4)</f>
+        <v>1ED6</v>
       </c>
       <c r="L30" t="str">
-        <f t="shared" si="9"/>
-        <v>0888</v>
+        <f>DEC2HEX($H30,4)</f>
+        <v>083A</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -1518,15 +1530,15 @@
         <v>119</v>
       </c>
       <c r="B31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>476</v>
       </c>
       <c r="C31" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>01DC</v>
       </c>
       <c r="D31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9524</v>
       </c>
       <c r="E31" t="str">
@@ -1534,20 +1546,20 @@
         <v>2534</v>
       </c>
       <c r="G31">
-        <f t="shared" si="8"/>
-        <v>7738</v>
+        <f>SUM($G$2-$H31)</f>
+        <v>7816</v>
       </c>
       <c r="H31">
-        <f t="shared" si="2"/>
-        <v>2262</v>
+        <f>SUM($H30+78)</f>
+        <v>2184</v>
       </c>
       <c r="J31" t="str">
-        <f t="shared" si="6"/>
-        <v>1E3A</v>
+        <f>DEC2HEX($G31,4)</f>
+        <v>1E88</v>
       </c>
       <c r="L31" t="str">
-        <f t="shared" si="9"/>
-        <v>08D6</v>
+        <f>DEC2HEX($H31,4)</f>
+        <v>0888</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -1556,15 +1568,15 @@
         <v>120</v>
       </c>
       <c r="B32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>480</v>
       </c>
       <c r="C32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>01E0</v>
       </c>
       <c r="D32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9520</v>
       </c>
       <c r="E32" t="str">
@@ -1572,20 +1584,20 @@
         <v>2530</v>
       </c>
       <c r="G32">
-        <f t="shared" si="8"/>
-        <v>7660</v>
+        <f>SUM($G$2-$H32)</f>
+        <v>7738</v>
       </c>
       <c r="H32">
-        <f t="shared" si="2"/>
-        <v>2340</v>
+        <f>SUM($H31+78)</f>
+        <v>2262</v>
       </c>
       <c r="J32" t="str">
-        <f t="shared" si="6"/>
-        <v>1DEC</v>
+        <f>DEC2HEX($G32,4)</f>
+        <v>1E3A</v>
       </c>
       <c r="L32" t="str">
-        <f t="shared" si="9"/>
-        <v>0924</v>
+        <f>DEC2HEX($H32,4)</f>
+        <v>08D6</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -1594,7 +1606,7 @@
         <v>121</v>
       </c>
       <c r="B33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>484</v>
       </c>
       <c r="C33" t="str">
@@ -1602,7 +1614,7 @@
         <v>01E4</v>
       </c>
       <c r="D33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9516</v>
       </c>
       <c r="E33" t="str">
@@ -1610,20 +1622,20 @@
         <v>252C</v>
       </c>
       <c r="G33">
-        <f t="shared" si="8"/>
-        <v>7582</v>
+        <f>SUM($G$2-$H33)</f>
+        <v>7660</v>
       </c>
       <c r="H33">
-        <f t="shared" si="2"/>
-        <v>2418</v>
+        <f>SUM($H32+78)</f>
+        <v>2340</v>
       </c>
       <c r="J33" t="str">
-        <f t="shared" si="6"/>
-        <v>1D9E</v>
+        <f>DEC2HEX($G33,4)</f>
+        <v>1DEC</v>
       </c>
       <c r="L33" t="str">
-        <f t="shared" si="9"/>
-        <v>0972</v>
+        <f>DEC2HEX($H33,4)</f>
+        <v>0924</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -1632,15 +1644,15 @@
         <v>122</v>
       </c>
       <c r="B34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>488</v>
       </c>
       <c r="C34" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>01E8</v>
       </c>
       <c r="D34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9512</v>
       </c>
       <c r="E34" t="str">
@@ -1648,20 +1660,20 @@
         <v>2528</v>
       </c>
       <c r="G34">
-        <f t="shared" si="8"/>
-        <v>7504</v>
+        <f>SUM($G$2-$H34)</f>
+        <v>7582</v>
       </c>
       <c r="H34">
-        <f t="shared" si="2"/>
-        <v>2496</v>
+        <f>SUM($H33+78)</f>
+        <v>2418</v>
       </c>
       <c r="J34" t="str">
-        <f t="shared" si="6"/>
-        <v>1D50</v>
+        <f>DEC2HEX($G34,4)</f>
+        <v>1D9E</v>
       </c>
       <c r="L34" t="str">
-        <f t="shared" si="9"/>
-        <v>09C0</v>
+        <f>DEC2HEX($H34,4)</f>
+        <v>0972</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -1670,15 +1682,15 @@
         <v>123</v>
       </c>
       <c r="B35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>492</v>
       </c>
       <c r="C35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>01EC</v>
       </c>
       <c r="D35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9508</v>
       </c>
       <c r="E35" t="str">
@@ -1686,20 +1698,20 @@
         <v>2524</v>
       </c>
       <c r="G35">
-        <f t="shared" si="8"/>
-        <v>7426</v>
+        <f>SUM($G$2-$H35)</f>
+        <v>7504</v>
       </c>
       <c r="H35">
-        <f t="shared" si="2"/>
-        <v>2574</v>
+        <f>SUM($H34+78)</f>
+        <v>2496</v>
       </c>
       <c r="J35" t="str">
-        <f t="shared" si="6"/>
-        <v>1D02</v>
+        <f>DEC2HEX($G35,4)</f>
+        <v>1D50</v>
       </c>
       <c r="L35" t="str">
-        <f t="shared" si="9"/>
-        <v>0A0E</v>
+        <f>DEC2HEX($H35,4)</f>
+        <v>09C0</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -1708,15 +1720,15 @@
         <v>124</v>
       </c>
       <c r="B36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>496</v>
       </c>
       <c r="C36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>01F0</v>
       </c>
       <c r="D36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9504</v>
       </c>
       <c r="E36" t="str">
@@ -1724,20 +1736,20 @@
         <v>2520</v>
       </c>
       <c r="G36">
-        <f t="shared" si="8"/>
-        <v>7348</v>
+        <f>SUM($G$2-$H36)</f>
+        <v>7426</v>
       </c>
       <c r="H36">
-        <f t="shared" ref="H36:H76" si="10">SUM($H35+78)</f>
-        <v>2652</v>
+        <f>SUM($H35+78)</f>
+        <v>2574</v>
       </c>
       <c r="J36" t="str">
-        <f t="shared" si="6"/>
-        <v>1CB4</v>
+        <f>DEC2HEX($G36,4)</f>
+        <v>1D02</v>
       </c>
       <c r="L36" t="str">
-        <f t="shared" si="9"/>
-        <v>0A5C</v>
+        <f>DEC2HEX($H36,4)</f>
+        <v>0A0E</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -1746,15 +1758,15 @@
         <v>125</v>
       </c>
       <c r="B37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>500</v>
       </c>
       <c r="C37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>01F4</v>
       </c>
       <c r="D37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9500</v>
       </c>
       <c r="E37" t="str">
@@ -1762,20 +1774,20 @@
         <v>251C</v>
       </c>
       <c r="G37">
-        <f t="shared" si="8"/>
-        <v>7270</v>
+        <f>SUM($G$2-$H37)</f>
+        <v>7348</v>
       </c>
       <c r="H37">
-        <f t="shared" si="10"/>
-        <v>2730</v>
+        <f>SUM($H36+78)</f>
+        <v>2652</v>
       </c>
       <c r="J37" t="str">
-        <f t="shared" si="6"/>
-        <v>1C66</v>
+        <f>DEC2HEX($G37,4)</f>
+        <v>1CB4</v>
       </c>
       <c r="L37" t="str">
-        <f t="shared" si="9"/>
-        <v>0AAA</v>
+        <f>DEC2HEX($H37,4)</f>
+        <v>0A5C</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -1784,15 +1796,15 @@
         <v>126</v>
       </c>
       <c r="B38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>504</v>
       </c>
       <c r="C38" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>01F8</v>
       </c>
       <c r="D38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9496</v>
       </c>
       <c r="E38" t="str">
@@ -1800,20 +1812,20 @@
         <v>2518</v>
       </c>
       <c r="G38">
-        <f t="shared" si="8"/>
-        <v>7192</v>
+        <f>SUM($G$2-$H38)</f>
+        <v>7270</v>
       </c>
       <c r="H38">
-        <f t="shared" si="10"/>
-        <v>2808</v>
+        <f>SUM($H37+78)</f>
+        <v>2730</v>
       </c>
       <c r="J38" t="str">
-        <f t="shared" si="6"/>
-        <v>1C18</v>
+        <f>DEC2HEX($G38,4)</f>
+        <v>1C66</v>
       </c>
       <c r="L38" t="str">
-        <f t="shared" si="9"/>
-        <v>0AF8</v>
+        <f>DEC2HEX($H38,4)</f>
+        <v>0AAA</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -1822,15 +1834,15 @@
         <v>127</v>
       </c>
       <c r="B39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>508</v>
       </c>
       <c r="C39" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>01FC</v>
       </c>
       <c r="D39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9492</v>
       </c>
       <c r="E39" t="str">
@@ -1838,20 +1850,20 @@
         <v>2514</v>
       </c>
       <c r="G39">
-        <f t="shared" si="8"/>
-        <v>7114</v>
+        <f>SUM($G$2-$H39)</f>
+        <v>7192</v>
       </c>
       <c r="H39">
-        <f t="shared" si="10"/>
-        <v>2886</v>
+        <f>SUM($H38+78)</f>
+        <v>2808</v>
       </c>
       <c r="J39" t="str">
-        <f t="shared" si="6"/>
-        <v>1BCA</v>
+        <f>DEC2HEX($G39,4)</f>
+        <v>1C18</v>
       </c>
       <c r="L39" t="str">
-        <f t="shared" si="9"/>
-        <v>0B46</v>
+        <f>DEC2HEX($H39,4)</f>
+        <v>0AF8</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -1860,15 +1872,15 @@
         <v>128</v>
       </c>
       <c r="B40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>512</v>
       </c>
       <c r="C40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0200</v>
       </c>
       <c r="D40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9488</v>
       </c>
       <c r="E40" t="str">
@@ -1876,20 +1888,20 @@
         <v>2510</v>
       </c>
       <c r="G40">
-        <f t="shared" si="8"/>
-        <v>7036</v>
+        <f>SUM($G$2-$H40)</f>
+        <v>7114</v>
       </c>
       <c r="H40">
-        <f t="shared" si="10"/>
-        <v>2964</v>
+        <f>SUM($H39+78)</f>
+        <v>2886</v>
       </c>
       <c r="J40" t="str">
-        <f t="shared" si="6"/>
-        <v>1B7C</v>
+        <f>DEC2HEX($G40,4)</f>
+        <v>1BCA</v>
       </c>
       <c r="L40" t="str">
-        <f t="shared" si="9"/>
-        <v>0B94</v>
+        <f>DEC2HEX($H40,4)</f>
+        <v>0B46</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -1898,15 +1910,15 @@
         <v>129</v>
       </c>
       <c r="B41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>516</v>
       </c>
       <c r="C41" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0204</v>
       </c>
       <c r="D41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9484</v>
       </c>
       <c r="E41" t="str">
@@ -1914,20 +1926,20 @@
         <v>250C</v>
       </c>
       <c r="G41">
-        <f t="shared" si="8"/>
-        <v>6958</v>
+        <f>SUM($G$2-$H41)</f>
+        <v>7036</v>
       </c>
       <c r="H41">
-        <f t="shared" si="10"/>
-        <v>3042</v>
+        <f>SUM($H40+78)</f>
+        <v>2964</v>
       </c>
       <c r="J41" t="str">
-        <f t="shared" si="6"/>
-        <v>1B2E</v>
+        <f>DEC2HEX($G41,4)</f>
+        <v>1B7C</v>
       </c>
       <c r="L41" t="str">
-        <f t="shared" si="9"/>
-        <v>0BE2</v>
+        <f>DEC2HEX($H41,4)</f>
+        <v>0B94</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -1936,15 +1948,15 @@
         <v>130</v>
       </c>
       <c r="B42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>520</v>
       </c>
       <c r="C42" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0208</v>
       </c>
       <c r="D42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9480</v>
       </c>
       <c r="E42" t="str">
@@ -1952,20 +1964,20 @@
         <v>2508</v>
       </c>
       <c r="G42">
-        <f t="shared" si="8"/>
-        <v>6880</v>
+        <f>SUM($G$2-$H42)</f>
+        <v>6958</v>
       </c>
       <c r="H42">
-        <f t="shared" si="10"/>
-        <v>3120</v>
+        <f>SUM($H41+78)</f>
+        <v>3042</v>
       </c>
       <c r="J42" t="str">
-        <f t="shared" si="6"/>
-        <v>1AE0</v>
+        <f>DEC2HEX($G42,4)</f>
+        <v>1B2E</v>
       </c>
       <c r="L42" t="str">
-        <f t="shared" si="9"/>
-        <v>0C30</v>
+        <f>DEC2HEX($H42,4)</f>
+        <v>0BE2</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -1974,15 +1986,15 @@
         <v>131</v>
       </c>
       <c r="B43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>524</v>
       </c>
       <c r="C43" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>020C</v>
       </c>
       <c r="D43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9476</v>
       </c>
       <c r="E43" t="str">
@@ -1990,20 +2002,20 @@
         <v>2504</v>
       </c>
       <c r="G43">
-        <f t="shared" si="8"/>
-        <v>6802</v>
+        <f>SUM($G$2-$H43)</f>
+        <v>6880</v>
       </c>
       <c r="H43">
-        <f t="shared" si="10"/>
-        <v>3198</v>
+        <f>SUM($H42+78)</f>
+        <v>3120</v>
       </c>
       <c r="J43" t="str">
-        <f t="shared" si="6"/>
-        <v>1A92</v>
+        <f>DEC2HEX($G43,4)</f>
+        <v>1AE0</v>
       </c>
       <c r="L43" t="str">
-        <f t="shared" si="9"/>
-        <v>0C7E</v>
+        <f>DEC2HEX($H43,4)</f>
+        <v>0C30</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -2012,15 +2024,15 @@
         <v>132</v>
       </c>
       <c r="B44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>528</v>
       </c>
       <c r="C44" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0210</v>
       </c>
       <c r="D44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9472</v>
       </c>
       <c r="E44" t="str">
@@ -2028,20 +2040,20 @@
         <v>2500</v>
       </c>
       <c r="G44">
-        <f t="shared" si="8"/>
-        <v>6724</v>
+        <f>SUM($G$2-$H44)</f>
+        <v>6802</v>
       </c>
       <c r="H44">
-        <f t="shared" si="10"/>
-        <v>3276</v>
+        <f>SUM($H43+78)</f>
+        <v>3198</v>
       </c>
       <c r="J44" t="str">
-        <f t="shared" si="6"/>
-        <v>1A44</v>
+        <f>DEC2HEX($G44,4)</f>
+        <v>1A92</v>
       </c>
       <c r="L44" t="str">
-        <f t="shared" si="9"/>
-        <v>0CCC</v>
+        <f>DEC2HEX($H44,4)</f>
+        <v>0C7E</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -2050,15 +2062,15 @@
         <v>133</v>
       </c>
       <c r="B45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>532</v>
       </c>
       <c r="C45" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0214</v>
       </c>
       <c r="D45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9468</v>
       </c>
       <c r="E45" t="str">
@@ -2066,20 +2078,20 @@
         <v>24FC</v>
       </c>
       <c r="G45">
-        <f t="shared" si="8"/>
-        <v>6646</v>
+        <f>SUM($G$2-$H45)</f>
+        <v>6724</v>
       </c>
       <c r="H45">
-        <f t="shared" si="10"/>
-        <v>3354</v>
+        <f>SUM($H44+78)</f>
+        <v>3276</v>
       </c>
       <c r="J45" t="str">
-        <f t="shared" si="6"/>
-        <v>19F6</v>
+        <f>DEC2HEX($G45,4)</f>
+        <v>1A44</v>
       </c>
       <c r="L45" t="str">
-        <f t="shared" si="9"/>
-        <v>0D1A</v>
+        <f>DEC2HEX($H45,4)</f>
+        <v>0CCC</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -2088,15 +2100,15 @@
         <v>134</v>
       </c>
       <c r="B46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>536</v>
       </c>
       <c r="C46" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0218</v>
       </c>
       <c r="D46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9464</v>
       </c>
       <c r="E46" t="str">
@@ -2104,20 +2116,20 @@
         <v>24F8</v>
       </c>
       <c r="G46">
-        <f t="shared" si="8"/>
-        <v>6568</v>
+        <f>SUM($G$2-$H46)</f>
+        <v>6646</v>
       </c>
       <c r="H46">
-        <f t="shared" si="10"/>
-        <v>3432</v>
+        <f>SUM($H45+78)</f>
+        <v>3354</v>
       </c>
       <c r="J46" t="str">
-        <f t="shared" si="6"/>
-        <v>19A8</v>
+        <f>DEC2HEX($G46,4)</f>
+        <v>19F6</v>
       </c>
       <c r="L46" t="str">
-        <f t="shared" si="9"/>
-        <v>0D68</v>
+        <f>DEC2HEX($H46,4)</f>
+        <v>0D1A</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -2126,15 +2138,15 @@
         <v>135</v>
       </c>
       <c r="B47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>540</v>
       </c>
       <c r="C47" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>021C</v>
       </c>
       <c r="D47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9460</v>
       </c>
       <c r="E47" t="str">
@@ -2142,20 +2154,20 @@
         <v>24F4</v>
       </c>
       <c r="G47">
-        <f t="shared" si="8"/>
-        <v>6490</v>
+        <f>SUM($G$2-$H47)</f>
+        <v>6568</v>
       </c>
       <c r="H47">
-        <f t="shared" si="10"/>
-        <v>3510</v>
+        <f>SUM($H46+78)</f>
+        <v>3432</v>
       </c>
       <c r="J47" t="str">
-        <f t="shared" si="6"/>
-        <v>195A</v>
+        <f>DEC2HEX($G47,4)</f>
+        <v>19A8</v>
       </c>
       <c r="L47" t="str">
-        <f t="shared" si="9"/>
-        <v>0DB6</v>
+        <f>DEC2HEX($H47,4)</f>
+        <v>0D68</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -2164,15 +2176,15 @@
         <v>136</v>
       </c>
       <c r="B48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>544</v>
       </c>
       <c r="C48" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0220</v>
       </c>
       <c r="D48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9456</v>
       </c>
       <c r="E48" t="str">
@@ -2180,20 +2192,20 @@
         <v>24F0</v>
       </c>
       <c r="G48">
-        <f t="shared" si="8"/>
-        <v>6412</v>
+        <f>SUM($G$2-$H48)</f>
+        <v>6490</v>
       </c>
       <c r="H48">
-        <f t="shared" si="10"/>
-        <v>3588</v>
+        <f>SUM($H47+78)</f>
+        <v>3510</v>
       </c>
       <c r="J48" t="str">
-        <f t="shared" si="6"/>
-        <v>190C</v>
+        <f>DEC2HEX($G48,4)</f>
+        <v>195A</v>
       </c>
       <c r="L48" t="str">
-        <f t="shared" si="9"/>
-        <v>0E04</v>
+        <f>DEC2HEX($H48,4)</f>
+        <v>0DB6</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -2202,15 +2214,15 @@
         <v>137</v>
       </c>
       <c r="B49">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>548</v>
       </c>
       <c r="C49" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0224</v>
       </c>
       <c r="D49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9452</v>
       </c>
       <c r="E49" t="str">
@@ -2218,20 +2230,20 @@
         <v>24EC</v>
       </c>
       <c r="G49">
-        <f t="shared" si="8"/>
-        <v>6334</v>
+        <f>SUM($G$2-$H49)</f>
+        <v>6412</v>
       </c>
       <c r="H49">
-        <f t="shared" si="10"/>
-        <v>3666</v>
+        <f>SUM($H48+78)</f>
+        <v>3588</v>
       </c>
       <c r="J49" t="str">
-        <f t="shared" si="6"/>
-        <v>18BE</v>
+        <f>DEC2HEX($G49,4)</f>
+        <v>190C</v>
       </c>
       <c r="L49" t="str">
-        <f t="shared" si="9"/>
-        <v>0E52</v>
+        <f>DEC2HEX($H49,4)</f>
+        <v>0E04</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -2240,15 +2252,15 @@
         <v>138</v>
       </c>
       <c r="B50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>552</v>
       </c>
       <c r="C50" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0228</v>
       </c>
       <c r="D50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9448</v>
       </c>
       <c r="E50" t="str">
@@ -2256,20 +2268,20 @@
         <v>24E8</v>
       </c>
       <c r="G50">
-        <f t="shared" si="8"/>
-        <v>6256</v>
+        <f>SUM($G$2-$H50)</f>
+        <v>6334</v>
       </c>
       <c r="H50">
-        <f t="shared" si="10"/>
-        <v>3744</v>
+        <f>SUM($H49+78)</f>
+        <v>3666</v>
       </c>
       <c r="J50" t="str">
-        <f t="shared" si="6"/>
-        <v>1870</v>
+        <f>DEC2HEX($G50,4)</f>
+        <v>18BE</v>
       </c>
       <c r="L50" t="str">
-        <f t="shared" si="9"/>
-        <v>0EA0</v>
+        <f>DEC2HEX($H50,4)</f>
+        <v>0E52</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -2278,15 +2290,15 @@
         <v>139</v>
       </c>
       <c r="B51">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>556</v>
       </c>
       <c r="C51" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>022C</v>
       </c>
       <c r="D51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9444</v>
       </c>
       <c r="E51" t="str">
@@ -2294,20 +2306,20 @@
         <v>24E4</v>
       </c>
       <c r="G51">
-        <f t="shared" si="8"/>
-        <v>6178</v>
+        <f>SUM($G$2-$H51)</f>
+        <v>6256</v>
       </c>
       <c r="H51">
-        <f t="shared" si="10"/>
-        <v>3822</v>
+        <f>SUM($H50+78)</f>
+        <v>3744</v>
       </c>
       <c r="J51" t="str">
-        <f t="shared" si="6"/>
-        <v>1822</v>
+        <f>DEC2HEX($G51,4)</f>
+        <v>1870</v>
       </c>
       <c r="L51" t="str">
-        <f t="shared" si="9"/>
-        <v>0EEE</v>
+        <f>DEC2HEX($H51,4)</f>
+        <v>0EA0</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -2316,15 +2328,15 @@
         <v>140</v>
       </c>
       <c r="B52">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>560</v>
       </c>
       <c r="C52" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0230</v>
       </c>
       <c r="D52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9440</v>
       </c>
       <c r="E52" t="str">
@@ -2332,20 +2344,20 @@
         <v>24E0</v>
       </c>
       <c r="G52">
-        <f t="shared" si="8"/>
-        <v>6100</v>
+        <f>SUM($G$2-$H52)</f>
+        <v>6178</v>
       </c>
       <c r="H52">
-        <f t="shared" si="10"/>
-        <v>3900</v>
+        <f>SUM($H51+78)</f>
+        <v>3822</v>
       </c>
       <c r="J52" t="str">
-        <f t="shared" si="6"/>
-        <v>17D4</v>
+        <f>DEC2HEX($G52,4)</f>
+        <v>1822</v>
       </c>
       <c r="L52" t="str">
-        <f t="shared" si="9"/>
-        <v>0F3C</v>
+        <f>DEC2HEX($H52,4)</f>
+        <v>0EEE</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -2354,15 +2366,15 @@
         <v>141</v>
       </c>
       <c r="B53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>564</v>
       </c>
       <c r="C53" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0234</v>
       </c>
       <c r="D53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9436</v>
       </c>
       <c r="E53" t="str">
@@ -2370,20 +2382,20 @@
         <v>24DC</v>
       </c>
       <c r="G53">
-        <f t="shared" si="8"/>
-        <v>6022</v>
+        <f>SUM($G$2-$H53)</f>
+        <v>6100</v>
       </c>
       <c r="H53">
-        <f t="shared" si="10"/>
-        <v>3978</v>
+        <f>SUM($H52+78)</f>
+        <v>3900</v>
       </c>
       <c r="J53" t="str">
-        <f t="shared" si="6"/>
-        <v>1786</v>
+        <f>DEC2HEX($G53,4)</f>
+        <v>17D4</v>
       </c>
       <c r="L53" t="str">
-        <f t="shared" si="9"/>
-        <v>0F8A</v>
+        <f>DEC2HEX($H53,4)</f>
+        <v>0F3C</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -2392,15 +2404,15 @@
         <v>142</v>
       </c>
       <c r="B54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>568</v>
       </c>
       <c r="C54" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0238</v>
       </c>
       <c r="D54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9432</v>
       </c>
       <c r="E54" t="str">
@@ -2408,20 +2420,20 @@
         <v>24D8</v>
       </c>
       <c r="G54">
-        <f t="shared" si="8"/>
-        <v>5944</v>
+        <f>SUM($G$2-$H54)</f>
+        <v>6022</v>
       </c>
       <c r="H54">
-        <f t="shared" si="10"/>
-        <v>4056</v>
+        <f>SUM($H53+78)</f>
+        <v>3978</v>
       </c>
       <c r="J54" t="str">
-        <f t="shared" si="6"/>
-        <v>1738</v>
+        <f>DEC2HEX($G54,4)</f>
+        <v>1786</v>
       </c>
       <c r="L54" t="str">
-        <f t="shared" si="9"/>
-        <v>0FD8</v>
+        <f>DEC2HEX($H54,4)</f>
+        <v>0F8A</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -2430,15 +2442,15 @@
         <v>143</v>
       </c>
       <c r="B55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>572</v>
       </c>
       <c r="C55" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>023C</v>
       </c>
       <c r="D55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9428</v>
       </c>
       <c r="E55" t="str">
@@ -2446,20 +2458,20 @@
         <v>24D4</v>
       </c>
       <c r="G55">
-        <f t="shared" si="8"/>
-        <v>5866</v>
+        <f>SUM($G$2-$H55)</f>
+        <v>5944</v>
       </c>
       <c r="H55">
-        <f t="shared" si="10"/>
-        <v>4134</v>
+        <f>SUM($H54+78)</f>
+        <v>4056</v>
       </c>
       <c r="J55" t="str">
-        <f t="shared" si="6"/>
-        <v>16EA</v>
+        <f>DEC2HEX($G55,4)</f>
+        <v>1738</v>
       </c>
       <c r="L55" t="str">
-        <f t="shared" si="9"/>
-        <v>1026</v>
+        <f>DEC2HEX($H55,4)</f>
+        <v>0FD8</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -2468,15 +2480,15 @@
         <v>144</v>
       </c>
       <c r="B56">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>576</v>
       </c>
       <c r="C56" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0240</v>
       </c>
       <c r="D56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9424</v>
       </c>
       <c r="E56" t="str">
@@ -2484,20 +2496,20 @@
         <v>24D0</v>
       </c>
       <c r="G56">
-        <f t="shared" si="8"/>
-        <v>5788</v>
+        <f>SUM($G$2-$H56)</f>
+        <v>5866</v>
       </c>
       <c r="H56">
-        <f t="shared" si="10"/>
-        <v>4212</v>
+        <f>SUM($H55+78)</f>
+        <v>4134</v>
       </c>
       <c r="J56" t="str">
-        <f t="shared" si="6"/>
-        <v>169C</v>
+        <f>DEC2HEX($G56,4)</f>
+        <v>16EA</v>
       </c>
       <c r="L56" t="str">
-        <f t="shared" si="9"/>
-        <v>1074</v>
+        <f>DEC2HEX($H56,4)</f>
+        <v>1026</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -2506,15 +2518,15 @@
         <v>145</v>
       </c>
       <c r="B57">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>580</v>
       </c>
       <c r="C57" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0244</v>
       </c>
       <c r="D57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9420</v>
       </c>
       <c r="E57" t="str">
@@ -2522,20 +2534,20 @@
         <v>24CC</v>
       </c>
       <c r="G57">
-        <f t="shared" si="8"/>
-        <v>5710</v>
+        <f>SUM($G$2-$H57)</f>
+        <v>5788</v>
       </c>
       <c r="H57">
-        <f t="shared" si="10"/>
-        <v>4290</v>
+        <f>SUM($H56+78)</f>
+        <v>4212</v>
       </c>
       <c r="J57" t="str">
-        <f t="shared" si="6"/>
-        <v>164E</v>
+        <f>DEC2HEX($G57,4)</f>
+        <v>169C</v>
       </c>
       <c r="L57" t="str">
-        <f t="shared" si="9"/>
-        <v>10C2</v>
+        <f>DEC2HEX($H57,4)</f>
+        <v>1074</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -2544,15 +2556,15 @@
         <v>146</v>
       </c>
       <c r="B58">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>584</v>
       </c>
       <c r="C58" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0248</v>
       </c>
       <c r="D58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9416</v>
       </c>
       <c r="E58" t="str">
@@ -2560,20 +2572,20 @@
         <v>24C8</v>
       </c>
       <c r="G58">
-        <f t="shared" si="8"/>
-        <v>5632</v>
+        <f>SUM($G$2-$H58)</f>
+        <v>5710</v>
       </c>
       <c r="H58">
-        <f t="shared" si="10"/>
-        <v>4368</v>
+        <f>SUM($H57+78)</f>
+        <v>4290</v>
       </c>
       <c r="J58" t="str">
-        <f t="shared" si="6"/>
-        <v>1600</v>
+        <f>DEC2HEX($G58,4)</f>
+        <v>164E</v>
       </c>
       <c r="L58" t="str">
-        <f t="shared" si="9"/>
-        <v>1110</v>
+        <f>DEC2HEX($H58,4)</f>
+        <v>10C2</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -2582,15 +2594,15 @@
         <v>147</v>
       </c>
       <c r="B59">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>588</v>
       </c>
       <c r="C59" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>024C</v>
       </c>
       <c r="D59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9412</v>
       </c>
       <c r="E59" t="str">
@@ -2598,20 +2610,20 @@
         <v>24C4</v>
       </c>
       <c r="G59">
-        <f t="shared" si="8"/>
-        <v>5554</v>
+        <f>SUM($G$2-$H59)</f>
+        <v>5632</v>
       </c>
       <c r="H59">
-        <f t="shared" si="10"/>
-        <v>4446</v>
+        <f>SUM($H58+78)</f>
+        <v>4368</v>
       </c>
       <c r="J59" t="str">
-        <f t="shared" si="6"/>
-        <v>15B2</v>
+        <f>DEC2HEX($G59,4)</f>
+        <v>1600</v>
       </c>
       <c r="L59" t="str">
-        <f t="shared" si="9"/>
-        <v>115E</v>
+        <f>DEC2HEX($H59,4)</f>
+        <v>1110</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -2620,15 +2632,15 @@
         <v>148</v>
       </c>
       <c r="B60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>592</v>
       </c>
       <c r="C60" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0250</v>
       </c>
       <c r="D60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9408</v>
       </c>
       <c r="E60" t="str">
@@ -2636,20 +2648,20 @@
         <v>24C0</v>
       </c>
       <c r="G60">
-        <f t="shared" si="8"/>
-        <v>5476</v>
+        <f>SUM($G$2-$H60)</f>
+        <v>5554</v>
       </c>
       <c r="H60">
-        <f t="shared" si="10"/>
-        <v>4524</v>
+        <f>SUM($H59+78)</f>
+        <v>4446</v>
       </c>
       <c r="J60" t="str">
-        <f t="shared" si="6"/>
-        <v>1564</v>
+        <f>DEC2HEX($G60,4)</f>
+        <v>15B2</v>
       </c>
       <c r="L60" t="str">
-        <f t="shared" si="9"/>
-        <v>11AC</v>
+        <f>DEC2HEX($H60,4)</f>
+        <v>115E</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -2658,15 +2670,15 @@
         <v>149</v>
       </c>
       <c r="B61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>596</v>
       </c>
       <c r="C61" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0254</v>
       </c>
       <c r="D61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9404</v>
       </c>
       <c r="E61" t="str">
@@ -2674,20 +2686,20 @@
         <v>24BC</v>
       </c>
       <c r="G61">
-        <f t="shared" si="8"/>
-        <v>5398</v>
+        <f>SUM($G$2-$H61)</f>
+        <v>5476</v>
       </c>
       <c r="H61">
-        <f t="shared" si="10"/>
-        <v>4602</v>
+        <f>SUM($H60+78)</f>
+        <v>4524</v>
       </c>
       <c r="J61" t="str">
-        <f t="shared" si="6"/>
-        <v>1516</v>
+        <f>DEC2HEX($G61,4)</f>
+        <v>1564</v>
       </c>
       <c r="L61" t="str">
-        <f t="shared" si="9"/>
-        <v>11FA</v>
+        <f>DEC2HEX($H61,4)</f>
+        <v>11AC</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -2696,15 +2708,15 @@
         <v>150</v>
       </c>
       <c r="B62">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>600</v>
       </c>
       <c r="C62" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0258</v>
       </c>
       <c r="D62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9400</v>
       </c>
       <c r="E62" t="str">
@@ -2712,20 +2724,20 @@
         <v>24B8</v>
       </c>
       <c r="G62">
-        <f t="shared" si="8"/>
-        <v>5320</v>
+        <f>SUM($G$2-$H62)</f>
+        <v>5398</v>
       </c>
       <c r="H62">
-        <f t="shared" si="10"/>
-        <v>4680</v>
+        <f>SUM($H61+78)</f>
+        <v>4602</v>
       </c>
       <c r="J62" t="str">
-        <f t="shared" si="6"/>
-        <v>14C8</v>
+        <f>DEC2HEX($G62,4)</f>
+        <v>1516</v>
       </c>
       <c r="L62" t="str">
-        <f t="shared" si="9"/>
-        <v>1248</v>
+        <f>DEC2HEX($H62,4)</f>
+        <v>11FA</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -2734,15 +2746,15 @@
         <v>151</v>
       </c>
       <c r="B63">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>604</v>
       </c>
       <c r="C63" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>025C</v>
       </c>
       <c r="D63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9396</v>
       </c>
       <c r="E63" t="str">
@@ -2750,20 +2762,20 @@
         <v>24B4</v>
       </c>
       <c r="G63">
-        <f t="shared" si="8"/>
-        <v>5242</v>
+        <f>SUM($G$2-$H63)</f>
+        <v>5320</v>
       </c>
       <c r="H63">
-        <f t="shared" si="10"/>
-        <v>4758</v>
+        <f>SUM($H62+78)</f>
+        <v>4680</v>
       </c>
       <c r="J63" t="str">
-        <f t="shared" si="6"/>
-        <v>147A</v>
+        <f>DEC2HEX($G63,4)</f>
+        <v>14C8</v>
       </c>
       <c r="L63" t="str">
-        <f t="shared" si="9"/>
-        <v>1296</v>
+        <f>DEC2HEX($H63,4)</f>
+        <v>1248</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -2772,15 +2784,15 @@
         <v>152</v>
       </c>
       <c r="B64">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>608</v>
       </c>
       <c r="C64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0260</v>
       </c>
       <c r="D64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9392</v>
       </c>
       <c r="E64" t="str">
@@ -2788,20 +2800,20 @@
         <v>24B0</v>
       </c>
       <c r="G64">
-        <f t="shared" si="8"/>
-        <v>5164</v>
+        <f>SUM($G$2-$H64)</f>
+        <v>5242</v>
       </c>
       <c r="H64">
-        <f t="shared" si="10"/>
-        <v>4836</v>
+        <f>SUM($H63+78)</f>
+        <v>4758</v>
       </c>
       <c r="J64" t="str">
-        <f t="shared" si="6"/>
-        <v>142C</v>
+        <f>DEC2HEX($G64,4)</f>
+        <v>147A</v>
       </c>
       <c r="L64" t="str">
-        <f t="shared" si="9"/>
-        <v>12E4</v>
+        <f>DEC2HEX($H64,4)</f>
+        <v>1296</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -2810,15 +2822,15 @@
         <v>153</v>
       </c>
       <c r="B65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>612</v>
       </c>
       <c r="C65" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0264</v>
       </c>
       <c r="D65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9388</v>
       </c>
       <c r="E65" t="str">
@@ -2826,20 +2838,20 @@
         <v>24AC</v>
       </c>
       <c r="G65">
-        <f t="shared" si="8"/>
-        <v>5086</v>
+        <f>SUM($G$2-$H65)</f>
+        <v>5164</v>
       </c>
       <c r="H65">
-        <f t="shared" si="10"/>
-        <v>4914</v>
+        <f>SUM($H64+78)</f>
+        <v>4836</v>
       </c>
       <c r="J65" t="str">
-        <f t="shared" si="6"/>
-        <v>13DE</v>
+        <f>DEC2HEX($G65,4)</f>
+        <v>142C</v>
       </c>
       <c r="L65" t="str">
-        <f t="shared" si="9"/>
-        <v>1332</v>
+        <f>DEC2HEX($H65,4)</f>
+        <v>12E4</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -2848,15 +2860,15 @@
         <v>154</v>
       </c>
       <c r="B66">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>616</v>
       </c>
       <c r="C66" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0268</v>
       </c>
       <c r="D66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9384</v>
       </c>
       <c r="E66" t="str">
@@ -2864,20 +2876,20 @@
         <v>24A8</v>
       </c>
       <c r="G66">
-        <f t="shared" si="8"/>
-        <v>5008</v>
+        <f>SUM($G$2-$H66)</f>
+        <v>5086</v>
       </c>
       <c r="H66">
-        <f t="shared" si="10"/>
-        <v>4992</v>
+        <f>SUM($H65+78)</f>
+        <v>4914</v>
       </c>
       <c r="J66" t="str">
-        <f t="shared" si="6"/>
-        <v>1390</v>
+        <f>DEC2HEX($G66,4)</f>
+        <v>13DE</v>
       </c>
       <c r="L66" t="str">
-        <f t="shared" si="9"/>
-        <v>1380</v>
+        <f>DEC2HEX($H66,4)</f>
+        <v>1332</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -2886,15 +2898,15 @@
         <v>155</v>
       </c>
       <c r="B67">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>620</v>
       </c>
       <c r="C67" t="str">
-        <f t="shared" ref="C67:C92" si="11">DEC2HEX($B67,4)</f>
+        <f t="shared" ref="C67:C92" si="6">DEC2HEX($B67,4)</f>
         <v>026C</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:D92" si="12">SUM($D$1-$B67)</f>
+        <f t="shared" ref="D67:D92" si="7">SUM($D$1-$B67)</f>
         <v>9380</v>
       </c>
       <c r="E67" t="str">
@@ -2902,1676 +2914,1668 @@
         <v>24A4</v>
       </c>
       <c r="G67">
-        <f t="shared" si="8"/>
-        <v>4930</v>
+        <f>SUM($G$2-$H67)</f>
+        <v>5008</v>
       </c>
       <c r="H67">
-        <f t="shared" si="10"/>
-        <v>5070</v>
+        <f>SUM($H66+78)</f>
+        <v>4992</v>
       </c>
       <c r="J67" t="str">
-        <f t="shared" si="6"/>
-        <v>1342</v>
+        <f>DEC2HEX($G67,4)</f>
+        <v>1390</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" si="9"/>
-        <v>13CE</v>
+        <f>DEC2HEX($H67,4)</f>
+        <v>1380</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68">
-        <f t="shared" ref="A68:A86" si="13">SUM(A67+1)</f>
+        <f t="shared" ref="A68:A86" si="8">SUM(A67+1)</f>
         <v>156</v>
       </c>
       <c r="B68">
+        <f t="shared" si="5"/>
+        <v>624</v>
+      </c>
+      <c r="C68" t="str">
+        <f t="shared" si="6"/>
+        <v>0270</v>
+      </c>
+      <c r="D68">
         <f t="shared" si="7"/>
-        <v>624</v>
-      </c>
-      <c r="C68" t="str">
-        <f t="shared" si="11"/>
-        <v>0270</v>
-      </c>
-      <c r="D68">
-        <f t="shared" si="12"/>
         <v>9376</v>
       </c>
       <c r="E68" t="str">
-        <f t="shared" ref="E68:E92" si="14">DEC2HEX($D68,4)</f>
+        <f t="shared" ref="E68:E92" si="9">DEC2HEX($D68,4)</f>
         <v>24A0</v>
       </c>
       <c r="G68">
-        <f t="shared" si="8"/>
-        <v>4852</v>
+        <f>SUM($G$2-$H68)</f>
+        <v>4930</v>
       </c>
       <c r="H68">
-        <f t="shared" si="10"/>
-        <v>5148</v>
+        <f>SUM($H67+78)</f>
+        <v>5070</v>
       </c>
       <c r="J68" t="str">
-        <f t="shared" si="6"/>
-        <v>12F4</v>
+        <f>DEC2HEX($G68,4)</f>
+        <v>1342</v>
       </c>
       <c r="L68" t="str">
-        <f t="shared" si="9"/>
-        <v>141C</v>
+        <f>DEC2HEX($H68,4)</f>
+        <v>13CE</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>157</v>
       </c>
       <c r="B69">
+        <f t="shared" si="5"/>
+        <v>628</v>
+      </c>
+      <c r="C69" t="str">
+        <f t="shared" si="6"/>
+        <v>0274</v>
+      </c>
+      <c r="D69">
         <f t="shared" si="7"/>
-        <v>628</v>
-      </c>
-      <c r="C69" t="str">
-        <f t="shared" si="11"/>
-        <v>0274</v>
-      </c>
-      <c r="D69">
-        <f t="shared" si="12"/>
         <v>9372</v>
       </c>
       <c r="E69" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>249C</v>
       </c>
       <c r="G69">
-        <f t="shared" si="8"/>
-        <v>4774</v>
+        <f>SUM($G$2-$H69)</f>
+        <v>4852</v>
       </c>
       <c r="H69">
-        <f t="shared" si="10"/>
-        <v>5226</v>
+        <f>SUM($H68+78)</f>
+        <v>5148</v>
       </c>
       <c r="J69" t="str">
-        <f t="shared" ref="J69:J131" si="15">DEC2HEX($G69,4)</f>
-        <v>12A6</v>
+        <f>DEC2HEX($G69,4)</f>
+        <v>12F4</v>
       </c>
       <c r="L69" t="str">
-        <f t="shared" si="9"/>
-        <v>146A</v>
+        <f>DEC2HEX($H69,4)</f>
+        <v>141C</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>158</v>
       </c>
       <c r="B70">
+        <f t="shared" si="5"/>
+        <v>632</v>
+      </c>
+      <c r="C70" t="str">
+        <f t="shared" si="6"/>
+        <v>0278</v>
+      </c>
+      <c r="D70">
         <f t="shared" si="7"/>
-        <v>632</v>
-      </c>
-      <c r="C70" t="str">
-        <f t="shared" si="11"/>
-        <v>0278</v>
-      </c>
-      <c r="D70">
-        <f t="shared" si="12"/>
         <v>9368</v>
       </c>
       <c r="E70" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>2498</v>
       </c>
       <c r="G70">
-        <f t="shared" si="8"/>
-        <v>4696</v>
+        <f>SUM($G$2-$H70)</f>
+        <v>4774</v>
       </c>
       <c r="H70">
-        <f t="shared" si="10"/>
-        <v>5304</v>
+        <f>SUM($H69+78)</f>
+        <v>5226</v>
       </c>
       <c r="J70" t="str">
-        <f t="shared" si="15"/>
-        <v>1258</v>
+        <f>DEC2HEX($G70,4)</f>
+        <v>12A6</v>
       </c>
       <c r="L70" t="str">
-        <f t="shared" si="9"/>
-        <v>14B8</v>
+        <f>DEC2HEX($H70,4)</f>
+        <v>146A</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>159</v>
       </c>
       <c r="B71">
-        <f t="shared" ref="B71:B92" si="16">SUM($A71*$B$1)</f>
+        <f t="shared" ref="B71:B92" si="10">SUM($A71*$B$1)</f>
         <v>636</v>
       </c>
       <c r="C71" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>027C</v>
       </c>
       <c r="D71">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>9364</v>
       </c>
       <c r="E71" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>2494</v>
       </c>
       <c r="G71">
-        <f t="shared" ref="G71:G134" si="17">SUM($G$2-$H71)</f>
-        <v>4618</v>
+        <f>SUM($G$2-$H71)</f>
+        <v>4696</v>
       </c>
       <c r="H71">
-        <f t="shared" si="10"/>
-        <v>5382</v>
+        <f>SUM($H70+78)</f>
+        <v>5304</v>
       </c>
       <c r="J71" t="str">
-        <f t="shared" si="15"/>
-        <v>120A</v>
+        <f>DEC2HEX($G71,4)</f>
+        <v>1258</v>
       </c>
       <c r="L71" t="str">
-        <f t="shared" si="9"/>
-        <v>1506</v>
+        <f>DEC2HEX($H71,4)</f>
+        <v>14B8</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>160</v>
       </c>
       <c r="B72">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>640</v>
       </c>
       <c r="C72" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0280</v>
       </c>
       <c r="D72">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>9360</v>
       </c>
       <c r="E72" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>2490</v>
       </c>
       <c r="G72">
-        <f t="shared" si="17"/>
-        <v>4540</v>
+        <f>SUM($G$2-$H72)</f>
+        <v>4618</v>
       </c>
       <c r="H72">
-        <f t="shared" si="10"/>
-        <v>5460</v>
+        <f>SUM($H71+78)</f>
+        <v>5382</v>
       </c>
       <c r="J72" t="str">
-        <f t="shared" si="15"/>
-        <v>11BC</v>
+        <f>DEC2HEX($G72,4)</f>
+        <v>120A</v>
       </c>
       <c r="L72" t="str">
-        <f t="shared" si="9"/>
-        <v>1554</v>
+        <f>DEC2HEX($H72,4)</f>
+        <v>1506</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>161</v>
       </c>
       <c r="B73">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>644</v>
       </c>
       <c r="C73" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0284</v>
       </c>
       <c r="D73">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>9356</v>
       </c>
       <c r="E73" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>248C</v>
       </c>
       <c r="G73">
-        <f t="shared" si="17"/>
-        <v>4462</v>
+        <f>SUM($G$2-$H73)</f>
+        <v>4540</v>
       </c>
       <c r="H73">
-        <f t="shared" si="10"/>
-        <v>5538</v>
+        <f>SUM($H72+78)</f>
+        <v>5460</v>
       </c>
       <c r="J73" t="str">
-        <f t="shared" si="15"/>
-        <v>116E</v>
+        <f>DEC2HEX($G73,4)</f>
+        <v>11BC</v>
       </c>
       <c r="L73" t="str">
-        <f t="shared" si="9"/>
-        <v>15A2</v>
+        <f>DEC2HEX($H73,4)</f>
+        <v>1554</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>162</v>
       </c>
       <c r="B74">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>648</v>
       </c>
       <c r="C74" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0288</v>
       </c>
       <c r="D74">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>9352</v>
       </c>
       <c r="E74" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>2488</v>
       </c>
       <c r="G74">
-        <f t="shared" si="17"/>
-        <v>4384</v>
+        <f>SUM($G$2-$H74)</f>
+        <v>4462</v>
       </c>
       <c r="H74">
-        <f t="shared" si="10"/>
-        <v>5616</v>
+        <f>SUM($H73+78)</f>
+        <v>5538</v>
       </c>
       <c r="J74" t="str">
-        <f t="shared" si="15"/>
-        <v>1120</v>
+        <f>DEC2HEX($G74,4)</f>
+        <v>116E</v>
       </c>
       <c r="L74" t="str">
-        <f t="shared" ref="L74:L131" si="18">DEC2HEX($H74,4)</f>
-        <v>15F0</v>
+        <f>DEC2HEX($H74,4)</f>
+        <v>15A2</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>163</v>
       </c>
       <c r="B75">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>652</v>
       </c>
       <c r="C75" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>028C</v>
       </c>
       <c r="D75">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>9348</v>
       </c>
       <c r="E75" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>2484</v>
       </c>
       <c r="G75">
-        <f t="shared" si="17"/>
-        <v>4306</v>
+        <f>SUM($G$2-$H75)</f>
+        <v>4384</v>
       </c>
       <c r="H75">
-        <f t="shared" si="10"/>
-        <v>5694</v>
+        <f>SUM($H74+78)</f>
+        <v>5616</v>
       </c>
       <c r="J75" t="str">
-        <f t="shared" si="15"/>
-        <v>10D2</v>
+        <f>DEC2HEX($G75,4)</f>
+        <v>1120</v>
       </c>
       <c r="L75" t="str">
-        <f t="shared" si="18"/>
-        <v>163E</v>
+        <f>DEC2HEX($H75,4)</f>
+        <v>15F0</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>164</v>
       </c>
       <c r="B76">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>656</v>
       </c>
       <c r="C76" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0290</v>
       </c>
       <c r="D76">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>9344</v>
       </c>
       <c r="E76" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>2480</v>
       </c>
       <c r="G76">
-        <f t="shared" si="17"/>
-        <v>4228</v>
+        <f>SUM($G$2-$H76)</f>
+        <v>4306</v>
       </c>
       <c r="H76">
-        <f t="shared" si="10"/>
-        <v>5772</v>
+        <f>SUM($H75+78)</f>
+        <v>5694</v>
       </c>
       <c r="J76" t="str">
-        <f t="shared" si="15"/>
-        <v>1084</v>
+        <f>DEC2HEX($G76,4)</f>
+        <v>10D2</v>
       </c>
       <c r="L76" t="str">
-        <f t="shared" si="18"/>
-        <v>168C</v>
+        <f>DEC2HEX($H76,4)</f>
+        <v>163E</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>165</v>
       </c>
       <c r="B77">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>660</v>
       </c>
       <c r="C77" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0294</v>
       </c>
       <c r="D77">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>9340</v>
       </c>
       <c r="E77" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>247C</v>
       </c>
       <c r="G77">
-        <f t="shared" si="17"/>
-        <v>4150</v>
+        <f>SUM($G$2-$H77)</f>
+        <v>4228</v>
       </c>
       <c r="H77">
-        <f t="shared" ref="H77:H108" si="19">SUM($H76+78)</f>
-        <v>5850</v>
+        <f>SUM($H76+78)</f>
+        <v>5772</v>
       </c>
       <c r="J77" t="str">
-        <f t="shared" si="15"/>
-        <v>1036</v>
+        <f>DEC2HEX($G77,4)</f>
+        <v>1084</v>
       </c>
       <c r="L77" t="str">
-        <f t="shared" si="18"/>
-        <v>16DA</v>
+        <f>DEC2HEX($H77,4)</f>
+        <v>168C</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>166</v>
       </c>
       <c r="B78">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>664</v>
       </c>
       <c r="C78" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0298</v>
       </c>
       <c r="D78">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>9336</v>
       </c>
       <c r="E78" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>2478</v>
       </c>
       <c r="G78">
-        <f t="shared" si="17"/>
-        <v>4072</v>
+        <f>SUM($G$2-$H78)</f>
+        <v>4150</v>
       </c>
       <c r="H78">
-        <f t="shared" si="19"/>
-        <v>5928</v>
+        <f>SUM($H77+78)</f>
+        <v>5850</v>
       </c>
       <c r="J78" t="str">
-        <f t="shared" si="15"/>
-        <v>0FE8</v>
+        <f>DEC2HEX($G78,4)</f>
+        <v>1036</v>
       </c>
       <c r="L78" t="str">
-        <f t="shared" si="18"/>
-        <v>1728</v>
+        <f>DEC2HEX($H78,4)</f>
+        <v>16DA</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>167</v>
       </c>
       <c r="B79">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>668</v>
       </c>
       <c r="C79" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>029C</v>
       </c>
       <c r="D79">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>9332</v>
       </c>
       <c r="E79" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>2474</v>
       </c>
       <c r="G79">
-        <f t="shared" si="17"/>
-        <v>3994</v>
+        <f>SUM($G$2-$H79)</f>
+        <v>4072</v>
       </c>
       <c r="H79">
-        <f t="shared" si="19"/>
-        <v>6006</v>
+        <f>SUM($H78+78)</f>
+        <v>5928</v>
       </c>
       <c r="J79" t="str">
-        <f t="shared" si="15"/>
-        <v>0F9A</v>
+        <f>DEC2HEX($G79,4)</f>
+        <v>0FE8</v>
       </c>
       <c r="L79" t="str">
-        <f t="shared" si="18"/>
-        <v>1776</v>
+        <f>DEC2HEX($H79,4)</f>
+        <v>1728</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>168</v>
       </c>
       <c r="B80">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>672</v>
       </c>
       <c r="C80" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>02A0</v>
       </c>
       <c r="D80">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>9328</v>
       </c>
       <c r="E80" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>2470</v>
       </c>
       <c r="G80">
-        <f t="shared" si="17"/>
-        <v>3916</v>
+        <f>SUM($G$2-$H80)</f>
+        <v>3994</v>
       </c>
       <c r="H80">
-        <f t="shared" si="19"/>
-        <v>6084</v>
+        <f>SUM($H79+78)</f>
+        <v>6006</v>
       </c>
       <c r="J80" t="str">
-        <f t="shared" si="15"/>
-        <v>0F4C</v>
+        <f>DEC2HEX($G80,4)</f>
+        <v>0F9A</v>
       </c>
       <c r="L80" t="str">
-        <f t="shared" si="18"/>
-        <v>17C4</v>
+        <f>DEC2HEX($H80,4)</f>
+        <v>1776</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>169</v>
       </c>
       <c r="B81">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>676</v>
       </c>
       <c r="C81" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>02A4</v>
       </c>
       <c r="D81">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>9324</v>
       </c>
       <c r="E81" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>246C</v>
       </c>
       <c r="G81">
-        <f t="shared" si="17"/>
-        <v>3838</v>
+        <f>SUM($G$2-$H81)</f>
+        <v>3916</v>
       </c>
       <c r="H81">
-        <f t="shared" si="19"/>
-        <v>6162</v>
+        <f>SUM($H80+78)</f>
+        <v>6084</v>
       </c>
       <c r="J81" t="str">
-        <f t="shared" si="15"/>
-        <v>0EFE</v>
+        <f>DEC2HEX($G81,4)</f>
+        <v>0F4C</v>
       </c>
       <c r="L81" t="str">
-        <f t="shared" si="18"/>
-        <v>1812</v>
+        <f>DEC2HEX($H81,4)</f>
+        <v>17C4</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>170</v>
       </c>
       <c r="B82">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>680</v>
       </c>
       <c r="C82" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>02A8</v>
       </c>
       <c r="D82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>9320</v>
       </c>
       <c r="E82" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>2468</v>
       </c>
       <c r="G82">
-        <f t="shared" si="17"/>
-        <v>3760</v>
+        <f>SUM($G$2-$H82)</f>
+        <v>3838</v>
       </c>
       <c r="H82">
-        <f t="shared" si="19"/>
-        <v>6240</v>
+        <f>SUM($H81+78)</f>
+        <v>6162</v>
       </c>
       <c r="J82" t="str">
-        <f t="shared" si="15"/>
-        <v>0EB0</v>
+        <f>DEC2HEX($G82,4)</f>
+        <v>0EFE</v>
       </c>
       <c r="L82" t="str">
-        <f t="shared" si="18"/>
-        <v>1860</v>
+        <f>DEC2HEX($H82,4)</f>
+        <v>1812</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>171</v>
       </c>
       <c r="B83">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>684</v>
       </c>
       <c r="C83" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>02AC</v>
       </c>
       <c r="D83">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>9316</v>
       </c>
       <c r="E83" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>2464</v>
       </c>
       <c r="G83">
-        <f t="shared" si="17"/>
-        <v>3682</v>
+        <f>SUM($G$2-$H83)</f>
+        <v>3760</v>
       </c>
       <c r="H83">
-        <f t="shared" si="19"/>
-        <v>6318</v>
+        <f>SUM($H82+78)</f>
+        <v>6240</v>
       </c>
       <c r="J83" t="str">
-        <f t="shared" si="15"/>
-        <v>0E62</v>
+        <f>DEC2HEX($G83,4)</f>
+        <v>0EB0</v>
       </c>
       <c r="L83" t="str">
-        <f t="shared" si="18"/>
-        <v>18AE</v>
+        <f>DEC2HEX($H83,4)</f>
+        <v>1860</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>172</v>
       </c>
       <c r="B84">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>688</v>
       </c>
       <c r="C84" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>02B0</v>
       </c>
       <c r="D84">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>9312</v>
       </c>
       <c r="E84" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>2460</v>
       </c>
       <c r="G84">
-        <f t="shared" si="17"/>
-        <v>3604</v>
+        <f>SUM($G$2-$H84)</f>
+        <v>3682</v>
       </c>
       <c r="H84">
-        <f t="shared" si="19"/>
-        <v>6396</v>
+        <f>SUM($H83+78)</f>
+        <v>6318</v>
       </c>
       <c r="J84" t="str">
-        <f t="shared" si="15"/>
-        <v>0E14</v>
+        <f>DEC2HEX($G84,4)</f>
+        <v>0E62</v>
       </c>
       <c r="L84" t="str">
-        <f t="shared" si="18"/>
-        <v>18FC</v>
+        <f>DEC2HEX($H84,4)</f>
+        <v>18AE</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>173</v>
       </c>
       <c r="B85">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>692</v>
       </c>
       <c r="C85" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>02B4</v>
       </c>
       <c r="D85">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>9308</v>
       </c>
       <c r="E85" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>245C</v>
       </c>
       <c r="G85">
-        <f t="shared" si="17"/>
-        <v>3526</v>
+        <f>SUM($G$2-$H85)</f>
+        <v>3604</v>
       </c>
       <c r="H85">
-        <f t="shared" si="19"/>
-        <v>6474</v>
+        <f>SUM($H84+78)</f>
+        <v>6396</v>
       </c>
       <c r="J85" t="str">
-        <f t="shared" si="15"/>
-        <v>0DC6</v>
+        <f>DEC2HEX($G85,4)</f>
+        <v>0E14</v>
       </c>
       <c r="L85" t="str">
-        <f t="shared" si="18"/>
-        <v>194A</v>
+        <f>DEC2HEX($H85,4)</f>
+        <v>18FC</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>174</v>
       </c>
       <c r="B86">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>696</v>
       </c>
       <c r="C86" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>02B8</v>
       </c>
       <c r="D86">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>9304</v>
       </c>
       <c r="E86" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>2458</v>
       </c>
       <c r="G86">
-        <f t="shared" si="17"/>
-        <v>3448</v>
+        <f>SUM($G$2-$H86)</f>
+        <v>3526</v>
       </c>
       <c r="H86">
-        <f t="shared" si="19"/>
-        <v>6552</v>
+        <f>SUM($H85+78)</f>
+        <v>6474</v>
       </c>
       <c r="J86" t="str">
-        <f t="shared" si="15"/>
-        <v>0D78</v>
+        <f>DEC2HEX($G86,4)</f>
+        <v>0DC6</v>
       </c>
       <c r="L86" t="str">
-        <f t="shared" si="18"/>
-        <v>1998</v>
+        <f>DEC2HEX($H86,4)</f>
+        <v>194A</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87">
-        <f t="shared" ref="A87:A92" si="20">SUM(A86+1)</f>
+        <f t="shared" ref="A87:A92" si="11">SUM(A86+1)</f>
         <v>175</v>
       </c>
       <c r="B87">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>700</v>
       </c>
       <c r="C87" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>02BC</v>
       </c>
       <c r="D87">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>9300</v>
       </c>
       <c r="E87" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>2454</v>
       </c>
       <c r="G87">
-        <f t="shared" si="17"/>
-        <v>3370</v>
+        <f>SUM($G$2-$H87)</f>
+        <v>3448</v>
       </c>
       <c r="H87">
-        <f t="shared" si="19"/>
-        <v>6630</v>
+        <f>SUM($H86+78)</f>
+        <v>6552</v>
       </c>
       <c r="J87" t="str">
-        <f t="shared" si="15"/>
-        <v>0D2A</v>
+        <f>DEC2HEX($G87,4)</f>
+        <v>0D78</v>
       </c>
       <c r="L87" t="str">
-        <f t="shared" si="18"/>
-        <v>19E6</v>
+        <f>DEC2HEX($H87,4)</f>
+        <v>1998</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>176</v>
       </c>
       <c r="B88">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>704</v>
       </c>
       <c r="C88" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>02C0</v>
       </c>
       <c r="D88">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>9296</v>
       </c>
       <c r="E88" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>2450</v>
       </c>
       <c r="G88">
-        <f t="shared" si="17"/>
-        <v>3292</v>
+        <f>SUM($G$2-$H88)</f>
+        <v>3370</v>
       </c>
       <c r="H88">
-        <f t="shared" si="19"/>
-        <v>6708</v>
+        <f>SUM($H87+78)</f>
+        <v>6630</v>
       </c>
       <c r="J88" t="str">
-        <f t="shared" si="15"/>
-        <v>0CDC</v>
+        <f>DEC2HEX($G88,4)</f>
+        <v>0D2A</v>
       </c>
       <c r="L88" t="str">
-        <f t="shared" si="18"/>
-        <v>1A34</v>
+        <f>DEC2HEX($H88,4)</f>
+        <v>19E6</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>177</v>
       </c>
       <c r="B89">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>708</v>
       </c>
       <c r="C89" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>02C4</v>
       </c>
       <c r="D89">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>9292</v>
       </c>
       <c r="E89" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>244C</v>
       </c>
       <c r="G89">
-        <f t="shared" si="17"/>
-        <v>3214</v>
+        <f>SUM($G$2-$H89)</f>
+        <v>3292</v>
       </c>
       <c r="H89">
-        <f t="shared" si="19"/>
-        <v>6786</v>
+        <f>SUM($H88+78)</f>
+        <v>6708</v>
       </c>
       <c r="J89" t="str">
-        <f t="shared" si="15"/>
-        <v>0C8E</v>
+        <f>DEC2HEX($G89,4)</f>
+        <v>0CDC</v>
       </c>
       <c r="L89" t="str">
-        <f t="shared" si="18"/>
-        <v>1A82</v>
+        <f>DEC2HEX($H89,4)</f>
+        <v>1A34</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>178</v>
       </c>
       <c r="B90">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>712</v>
       </c>
       <c r="C90" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>02C8</v>
       </c>
       <c r="D90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>9288</v>
       </c>
       <c r="E90" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>2448</v>
       </c>
       <c r="G90">
-        <f t="shared" si="17"/>
-        <v>3136</v>
+        <f>SUM($G$2-$H90)</f>
+        <v>3214</v>
       </c>
       <c r="H90">
-        <f t="shared" si="19"/>
-        <v>6864</v>
+        <f>SUM($H89+78)</f>
+        <v>6786</v>
       </c>
       <c r="J90" t="str">
-        <f t="shared" si="15"/>
-        <v>0C40</v>
+        <f>DEC2HEX($G90,4)</f>
+        <v>0C8E</v>
       </c>
       <c r="L90" t="str">
-        <f t="shared" si="18"/>
-        <v>1AD0</v>
+        <f>DEC2HEX($H90,4)</f>
+        <v>1A82</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>179</v>
       </c>
       <c r="B91">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>716</v>
       </c>
       <c r="C91" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>02CC</v>
       </c>
       <c r="D91">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>9284</v>
       </c>
       <c r="E91" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>2444</v>
       </c>
       <c r="G91">
-        <f t="shared" si="17"/>
-        <v>3058</v>
+        <f>SUM($G$2-$H91)</f>
+        <v>3136</v>
       </c>
       <c r="H91">
-        <f t="shared" si="19"/>
-        <v>6942</v>
+        <f>SUM($H90+78)</f>
+        <v>6864</v>
       </c>
       <c r="J91" t="str">
-        <f t="shared" si="15"/>
-        <v>0BF2</v>
+        <f>DEC2HEX($G91,4)</f>
+        <v>0C40</v>
       </c>
       <c r="L91" t="str">
-        <f t="shared" si="18"/>
-        <v>1B1E</v>
+        <f>DEC2HEX($H91,4)</f>
+        <v>1AD0</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>180</v>
       </c>
       <c r="B92">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>720</v>
       </c>
       <c r="C92" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>02D0</v>
       </c>
       <c r="D92">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>9280</v>
       </c>
       <c r="E92" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>2440</v>
       </c>
       <c r="G92">
-        <f t="shared" si="17"/>
-        <v>2980</v>
+        <f>SUM($G$2-$H92)</f>
+        <v>3058</v>
       </c>
       <c r="H92">
-        <f t="shared" si="19"/>
-        <v>7020</v>
+        <f>SUM($H91+78)</f>
+        <v>6942</v>
       </c>
       <c r="J92" t="str">
-        <f t="shared" si="15"/>
-        <v>0BA4</v>
+        <f>DEC2HEX($G92,4)</f>
+        <v>0BF2</v>
       </c>
       <c r="L92" t="str">
-        <f t="shared" si="18"/>
-        <v>1B6C</v>
+        <f>DEC2HEX($H92,4)</f>
+        <v>1B1E</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G93">
-        <f t="shared" si="17"/>
-        <v>2902</v>
+        <f>SUM($G$2-$H93)</f>
+        <v>2980</v>
       </c>
       <c r="H93">
-        <f t="shared" si="19"/>
-        <v>7098</v>
+        <f>SUM($H92+78)</f>
+        <v>7020</v>
       </c>
       <c r="J93" t="str">
-        <f t="shared" si="15"/>
-        <v>0B56</v>
+        <f>DEC2HEX($G93,4)</f>
+        <v>0BA4</v>
       </c>
       <c r="L93" t="str">
-        <f t="shared" si="18"/>
-        <v>1BBA</v>
+        <f>DEC2HEX($H93,4)</f>
+        <v>1B6C</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G94">
-        <f t="shared" si="17"/>
-        <v>2824</v>
+        <f>SUM($G$2-$H94)</f>
+        <v>2902</v>
       </c>
       <c r="H94">
-        <f t="shared" si="19"/>
-        <v>7176</v>
+        <f>SUM($H93+78)</f>
+        <v>7098</v>
       </c>
       <c r="J94" t="str">
-        <f t="shared" si="15"/>
-        <v>0B08</v>
+        <f>DEC2HEX($G94,4)</f>
+        <v>0B56</v>
       </c>
       <c r="L94" t="str">
-        <f t="shared" si="18"/>
-        <v>1C08</v>
+        <f>DEC2HEX($H94,4)</f>
+        <v>1BBA</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G95">
-        <f t="shared" si="17"/>
-        <v>2746</v>
+        <f>SUM($G$2-$H95)</f>
+        <v>2824</v>
       </c>
       <c r="H95">
-        <f t="shared" si="19"/>
-        <v>7254</v>
+        <f>SUM($H94+78)</f>
+        <v>7176</v>
       </c>
       <c r="J95" t="str">
-        <f t="shared" si="15"/>
-        <v>0ABA</v>
+        <f>DEC2HEX($G95,4)</f>
+        <v>0B08</v>
       </c>
       <c r="L95" t="str">
-        <f t="shared" si="18"/>
-        <v>1C56</v>
+        <f>DEC2HEX($H95,4)</f>
+        <v>1C08</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G96">
-        <f t="shared" si="17"/>
-        <v>2668</v>
+        <f>SUM($G$2-$H96)</f>
+        <v>2746</v>
       </c>
       <c r="H96">
-        <f t="shared" si="19"/>
-        <v>7332</v>
+        <f>SUM($H95+78)</f>
+        <v>7254</v>
       </c>
       <c r="J96" t="str">
-        <f t="shared" si="15"/>
-        <v>0A6C</v>
+        <f>DEC2HEX($G96,4)</f>
+        <v>0ABA</v>
       </c>
       <c r="L96" t="str">
-        <f t="shared" si="18"/>
-        <v>1CA4</v>
+        <f>DEC2HEX($H96,4)</f>
+        <v>1C56</v>
       </c>
     </row>
     <row r="97" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G97">
-        <f t="shared" si="17"/>
-        <v>2590</v>
+        <f>SUM($G$2-$H97)</f>
+        <v>2668</v>
       </c>
       <c r="H97">
-        <f t="shared" si="19"/>
-        <v>7410</v>
+        <f>SUM($H96+78)</f>
+        <v>7332</v>
       </c>
       <c r="J97" t="str">
-        <f t="shared" si="15"/>
-        <v>0A1E</v>
+        <f>DEC2HEX($G97,4)</f>
+        <v>0A6C</v>
       </c>
       <c r="L97" t="str">
-        <f t="shared" si="18"/>
-        <v>1CF2</v>
+        <f>DEC2HEX($H97,4)</f>
+        <v>1CA4</v>
       </c>
     </row>
     <row r="98" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G98">
-        <f t="shared" si="17"/>
-        <v>2512</v>
+        <f>SUM($G$2-$H98)</f>
+        <v>2590</v>
       </c>
       <c r="H98">
-        <f t="shared" si="19"/>
-        <v>7488</v>
+        <f>SUM($H97+78)</f>
+        <v>7410</v>
       </c>
       <c r="J98" t="str">
-        <f t="shared" si="15"/>
-        <v>09D0</v>
+        <f>DEC2HEX($G98,4)</f>
+        <v>0A1E</v>
       </c>
       <c r="L98" t="str">
-        <f t="shared" si="18"/>
-        <v>1D40</v>
+        <f>DEC2HEX($H98,4)</f>
+        <v>1CF2</v>
       </c>
     </row>
     <row r="99" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G99">
-        <f t="shared" si="17"/>
-        <v>2434</v>
+        <f>SUM($G$2-$H99)</f>
+        <v>2512</v>
       </c>
       <c r="H99">
-        <f t="shared" si="19"/>
-        <v>7566</v>
+        <f>SUM($H98+78)</f>
+        <v>7488</v>
       </c>
       <c r="J99" t="str">
-        <f t="shared" si="15"/>
-        <v>0982</v>
+        <f>DEC2HEX($G99,4)</f>
+        <v>09D0</v>
       </c>
       <c r="L99" t="str">
-        <f t="shared" si="18"/>
-        <v>1D8E</v>
+        <f>DEC2HEX($H99,4)</f>
+        <v>1D40</v>
       </c>
     </row>
     <row r="100" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G100">
-        <f t="shared" si="17"/>
-        <v>2356</v>
+        <f>SUM($G$2-$H100)</f>
+        <v>2434</v>
       </c>
       <c r="H100">
-        <f t="shared" si="19"/>
-        <v>7644</v>
+        <f>SUM($H99+78)</f>
+        <v>7566</v>
       </c>
       <c r="J100" t="str">
-        <f t="shared" si="15"/>
-        <v>0934</v>
+        <f>DEC2HEX($G100,4)</f>
+        <v>0982</v>
       </c>
       <c r="L100" t="str">
-        <f t="shared" si="18"/>
-        <v>1DDC</v>
+        <f>DEC2HEX($H100,4)</f>
+        <v>1D8E</v>
       </c>
     </row>
     <row r="101" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G101">
-        <f t="shared" si="17"/>
-        <v>2278</v>
+        <f>SUM($G$2-$H101)</f>
+        <v>2356</v>
       </c>
       <c r="H101">
-        <f t="shared" si="19"/>
-        <v>7722</v>
+        <f>SUM($H100+78)</f>
+        <v>7644</v>
       </c>
       <c r="J101" t="str">
-        <f t="shared" si="15"/>
-        <v>08E6</v>
+        <f>DEC2HEX($G101,4)</f>
+        <v>0934</v>
       </c>
       <c r="L101" t="str">
-        <f t="shared" si="18"/>
-        <v>1E2A</v>
+        <f>DEC2HEX($H101,4)</f>
+        <v>1DDC</v>
       </c>
     </row>
     <row r="102" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G102">
-        <f t="shared" si="17"/>
-        <v>2200</v>
+        <f>SUM($G$2-$H102)</f>
+        <v>2278</v>
       </c>
       <c r="H102">
-        <f t="shared" si="19"/>
-        <v>7800</v>
+        <f>SUM($H101+78)</f>
+        <v>7722</v>
       </c>
       <c r="J102" t="str">
-        <f t="shared" si="15"/>
-        <v>0898</v>
+        <f>DEC2HEX($G102,4)</f>
+        <v>08E6</v>
       </c>
       <c r="L102" t="str">
-        <f t="shared" si="18"/>
-        <v>1E78</v>
+        <f>DEC2HEX($H102,4)</f>
+        <v>1E2A</v>
       </c>
     </row>
     <row r="103" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G103">
-        <f t="shared" si="17"/>
-        <v>2122</v>
+        <f>SUM($G$2-$H103)</f>
+        <v>2200</v>
       </c>
       <c r="H103">
-        <f t="shared" si="19"/>
-        <v>7878</v>
+        <f>SUM($H102+78)</f>
+        <v>7800</v>
       </c>
       <c r="J103" t="str">
-        <f t="shared" si="15"/>
-        <v>084A</v>
+        <f>DEC2HEX($G103,4)</f>
+        <v>0898</v>
       </c>
       <c r="L103" t="str">
-        <f t="shared" si="18"/>
-        <v>1EC6</v>
+        <f>DEC2HEX($H103,4)</f>
+        <v>1E78</v>
       </c>
     </row>
     <row r="104" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G104">
-        <f t="shared" si="17"/>
-        <v>2044</v>
+        <f>SUM($G$2-$H104)</f>
+        <v>2122</v>
       </c>
       <c r="H104">
-        <f t="shared" si="19"/>
-        <v>7956</v>
+        <f>SUM($H103+78)</f>
+        <v>7878</v>
       </c>
       <c r="J104" t="str">
-        <f t="shared" si="15"/>
-        <v>07FC</v>
+        <f>DEC2HEX($G104,4)</f>
+        <v>084A</v>
       </c>
       <c r="L104" t="str">
-        <f t="shared" si="18"/>
-        <v>1F14</v>
+        <f>DEC2HEX($H104,4)</f>
+        <v>1EC6</v>
       </c>
     </row>
     <row r="105" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G105">
-        <f t="shared" si="17"/>
-        <v>1966</v>
+        <f>SUM($G$2-$H105)</f>
+        <v>2044</v>
       </c>
       <c r="H105">
-        <f t="shared" si="19"/>
-        <v>8034</v>
+        <f>SUM($H104+78)</f>
+        <v>7956</v>
       </c>
       <c r="J105" t="str">
-        <f t="shared" si="15"/>
-        <v>07AE</v>
+        <f>DEC2HEX($G105,4)</f>
+        <v>07FC</v>
       </c>
       <c r="L105" t="str">
-        <f t="shared" si="18"/>
-        <v>1F62</v>
+        <f>DEC2HEX($H105,4)</f>
+        <v>1F14</v>
       </c>
     </row>
     <row r="106" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G106">
-        <f t="shared" si="17"/>
-        <v>1888</v>
+        <f>SUM($G$2-$H106)</f>
+        <v>1966</v>
       </c>
       <c r="H106">
-        <f t="shared" si="19"/>
-        <v>8112</v>
+        <f>SUM($H105+78)</f>
+        <v>8034</v>
       </c>
       <c r="J106" t="str">
-        <f t="shared" si="15"/>
-        <v>0760</v>
+        <f>DEC2HEX($G106,4)</f>
+        <v>07AE</v>
       </c>
       <c r="L106" t="str">
-        <f t="shared" si="18"/>
-        <v>1FB0</v>
+        <f>DEC2HEX($H106,4)</f>
+        <v>1F62</v>
       </c>
     </row>
     <row r="107" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G107">
-        <f t="shared" si="17"/>
-        <v>1810</v>
+        <f>SUM($G$2-$H107)</f>
+        <v>1888</v>
       </c>
       <c r="H107">
-        <f t="shared" si="19"/>
-        <v>8190</v>
+        <f>SUM($H106+78)</f>
+        <v>8112</v>
       </c>
       <c r="J107" t="str">
-        <f t="shared" si="15"/>
-        <v>0712</v>
+        <f>DEC2HEX($G107,4)</f>
+        <v>0760</v>
       </c>
       <c r="L107" t="str">
-        <f t="shared" si="18"/>
-        <v>1FFE</v>
+        <f>DEC2HEX($H107,4)</f>
+        <v>1FB0</v>
       </c>
     </row>
     <row r="108" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G108">
-        <f t="shared" si="17"/>
-        <v>1732</v>
+        <f>SUM($G$2-$H108)</f>
+        <v>1810</v>
       </c>
       <c r="H108">
-        <f t="shared" si="19"/>
-        <v>8268</v>
-      </c>
-      <c r="J108" t="str">
-        <f t="shared" si="15"/>
-        <v>06C4</v>
-      </c>
-      <c r="L108" t="str">
-        <f t="shared" si="18"/>
-        <v>204C</v>
+        <f>SUM($H107+78)</f>
+        <v>8190</v>
       </c>
     </row>
     <row r="109" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G109">
-        <f t="shared" si="17"/>
-        <v>1654</v>
+        <f>SUM($G$2-$H109)</f>
+        <v>1732</v>
       </c>
       <c r="H109">
-        <f t="shared" ref="H109:H130" si="21">SUM($H108+78)</f>
-        <v>8346</v>
+        <f>SUM($H108+78)</f>
+        <v>8268</v>
       </c>
       <c r="J109" t="str">
-        <f t="shared" si="15"/>
-        <v>0676</v>
+        <f>DEC2HEX($G109,4)</f>
+        <v>06C4</v>
       </c>
       <c r="L109" t="str">
-        <f t="shared" si="18"/>
-        <v>209A</v>
+        <f>DEC2HEX($H109,4)</f>
+        <v>204C</v>
       </c>
     </row>
     <row r="110" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G110">
-        <f t="shared" si="17"/>
-        <v>1576</v>
+        <f>SUM($G$2-$H110)</f>
+        <v>1654</v>
       </c>
       <c r="H110">
-        <f t="shared" si="21"/>
-        <v>8424</v>
+        <f>SUM($H109+78)</f>
+        <v>8346</v>
       </c>
       <c r="J110" t="str">
-        <f t="shared" si="15"/>
-        <v>0628</v>
+        <f>DEC2HEX($G110,4)</f>
+        <v>0676</v>
       </c>
       <c r="L110" t="str">
-        <f t="shared" si="18"/>
-        <v>20E8</v>
+        <f>DEC2HEX($H110,4)</f>
+        <v>209A</v>
       </c>
     </row>
     <row r="111" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G111">
-        <f t="shared" si="17"/>
-        <v>1498</v>
+        <f>SUM($G$2-$H111)</f>
+        <v>1576</v>
       </c>
       <c r="H111">
-        <f t="shared" si="21"/>
-        <v>8502</v>
+        <f>SUM($H110+78)</f>
+        <v>8424</v>
       </c>
       <c r="J111" t="str">
-        <f t="shared" si="15"/>
-        <v>05DA</v>
+        <f>DEC2HEX($G111,4)</f>
+        <v>0628</v>
       </c>
       <c r="L111" t="str">
-        <f t="shared" si="18"/>
-        <v>2136</v>
+        <f>DEC2HEX($H111,4)</f>
+        <v>20E8</v>
       </c>
     </row>
     <row r="112" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G112">
-        <f t="shared" si="17"/>
-        <v>1420</v>
+        <f>SUM($G$2-$H112)</f>
+        <v>1498</v>
       </c>
       <c r="H112">
-        <f t="shared" si="21"/>
-        <v>8580</v>
+        <f>SUM($H111+78)</f>
+        <v>8502</v>
       </c>
       <c r="J112" t="str">
-        <f t="shared" si="15"/>
-        <v>058C</v>
+        <f>DEC2HEX($G112,4)</f>
+        <v>05DA</v>
       </c>
       <c r="L112" t="str">
-        <f t="shared" si="18"/>
-        <v>2184</v>
+        <f>DEC2HEX($H112,4)</f>
+        <v>2136</v>
       </c>
     </row>
     <row r="113" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G113">
-        <f t="shared" si="17"/>
-        <v>1342</v>
+        <f>SUM($G$2-$H113)</f>
+        <v>1420</v>
       </c>
       <c r="H113">
-        <f t="shared" si="21"/>
-        <v>8658</v>
+        <f>SUM($H112+78)</f>
+        <v>8580</v>
       </c>
       <c r="J113" t="str">
-        <f t="shared" si="15"/>
-        <v>053E</v>
+        <f>DEC2HEX($G113,4)</f>
+        <v>058C</v>
       </c>
       <c r="L113" t="str">
-        <f t="shared" si="18"/>
-        <v>21D2</v>
+        <f>DEC2HEX($H113,4)</f>
+        <v>2184</v>
       </c>
     </row>
     <row r="114" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G114">
-        <f t="shared" si="17"/>
-        <v>1264</v>
+        <f>SUM($G$2-$H114)</f>
+        <v>1342</v>
       </c>
       <c r="H114">
-        <f t="shared" si="21"/>
-        <v>8736</v>
+        <f>SUM($H113+78)</f>
+        <v>8658</v>
       </c>
       <c r="J114" t="str">
-        <f t="shared" si="15"/>
-        <v>04F0</v>
+        <f>DEC2HEX($G114,4)</f>
+        <v>053E</v>
       </c>
       <c r="L114" t="str">
-        <f t="shared" si="18"/>
-        <v>2220</v>
+        <f>DEC2HEX($H114,4)</f>
+        <v>21D2</v>
       </c>
     </row>
     <row r="115" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G115">
-        <f t="shared" si="17"/>
-        <v>1186</v>
+        <f>SUM($G$2-$H115)</f>
+        <v>1264</v>
       </c>
       <c r="H115">
-        <f t="shared" si="21"/>
-        <v>8814</v>
+        <f>SUM($H114+78)</f>
+        <v>8736</v>
       </c>
       <c r="J115" t="str">
-        <f t="shared" si="15"/>
-        <v>04A2</v>
+        <f>DEC2HEX($G115,4)</f>
+        <v>04F0</v>
       </c>
       <c r="L115" t="str">
-        <f t="shared" si="18"/>
-        <v>226E</v>
+        <f>DEC2HEX($H115,4)</f>
+        <v>2220</v>
       </c>
     </row>
     <row r="116" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G116">
-        <f t="shared" si="17"/>
-        <v>1108</v>
+        <f>SUM($G$2-$H116)</f>
+        <v>1186</v>
       </c>
       <c r="H116">
-        <f t="shared" si="21"/>
-        <v>8892</v>
+        <f>SUM($H115+78)</f>
+        <v>8814</v>
       </c>
       <c r="J116" t="str">
-        <f t="shared" si="15"/>
-        <v>0454</v>
+        <f>DEC2HEX($G116,4)</f>
+        <v>04A2</v>
       </c>
       <c r="L116" t="str">
-        <f t="shared" si="18"/>
-        <v>22BC</v>
+        <f>DEC2HEX($H116,4)</f>
+        <v>226E</v>
       </c>
     </row>
     <row r="117" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G117">
-        <f t="shared" si="17"/>
-        <v>1030</v>
+        <f>SUM($G$2-$H117)</f>
+        <v>1108</v>
       </c>
       <c r="H117">
-        <f t="shared" si="21"/>
-        <v>8970</v>
+        <f>SUM($H116+78)</f>
+        <v>8892</v>
       </c>
       <c r="J117" t="str">
-        <f t="shared" si="15"/>
-        <v>0406</v>
+        <f>DEC2HEX($G117,4)</f>
+        <v>0454</v>
       </c>
       <c r="L117" t="str">
-        <f t="shared" si="18"/>
-        <v>230A</v>
+        <f>DEC2HEX($H117,4)</f>
+        <v>22BC</v>
       </c>
     </row>
     <row r="118" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G118">
-        <f t="shared" si="17"/>
-        <v>952</v>
+        <f>SUM($G$2-$H118)</f>
+        <v>1030</v>
       </c>
       <c r="H118">
-        <f t="shared" si="21"/>
-        <v>9048</v>
+        <f>SUM($H117+78)</f>
+        <v>8970</v>
       </c>
       <c r="J118" t="str">
-        <f t="shared" si="15"/>
-        <v>03B8</v>
+        <f>DEC2HEX($G118,4)</f>
+        <v>0406</v>
       </c>
       <c r="L118" t="str">
-        <f t="shared" si="18"/>
-        <v>2358</v>
+        <f>DEC2HEX($H118,4)</f>
+        <v>230A</v>
       </c>
     </row>
     <row r="119" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G119">
-        <f t="shared" si="17"/>
-        <v>874</v>
+        <f>SUM($G$2-$H119)</f>
+        <v>952</v>
       </c>
       <c r="H119">
-        <f t="shared" si="21"/>
-        <v>9126</v>
+        <f>SUM($H118+78)</f>
+        <v>9048</v>
       </c>
       <c r="J119" t="str">
-        <f t="shared" si="15"/>
-        <v>036A</v>
+        <f>DEC2HEX($G119,4)</f>
+        <v>03B8</v>
       </c>
       <c r="L119" t="str">
-        <f t="shared" si="18"/>
-        <v>23A6</v>
+        <f>DEC2HEX($H119,4)</f>
+        <v>2358</v>
       </c>
     </row>
     <row r="120" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G120">
-        <f t="shared" si="17"/>
-        <v>796</v>
+        <f>SUM($G$2-$H120)</f>
+        <v>874</v>
       </c>
       <c r="H120">
-        <f t="shared" si="21"/>
-        <v>9204</v>
+        <f>SUM($H119+78)</f>
+        <v>9126</v>
       </c>
       <c r="J120" t="str">
-        <f t="shared" si="15"/>
-        <v>031C</v>
+        <f>DEC2HEX($G120,4)</f>
+        <v>036A</v>
       </c>
       <c r="L120" t="str">
-        <f t="shared" si="18"/>
-        <v>23F4</v>
+        <f>DEC2HEX($H120,4)</f>
+        <v>23A6</v>
       </c>
     </row>
     <row r="121" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G121">
-        <f t="shared" si="17"/>
-        <v>718</v>
+        <f>SUM($G$2-$H121)</f>
+        <v>796</v>
       </c>
       <c r="H121">
-        <f t="shared" si="21"/>
-        <v>9282</v>
+        <f>SUM($H120+78)</f>
+        <v>9204</v>
       </c>
       <c r="J121" t="str">
-        <f t="shared" si="15"/>
-        <v>02CE</v>
+        <f>DEC2HEX($G121,4)</f>
+        <v>031C</v>
       </c>
       <c r="L121" t="str">
-        <f t="shared" si="18"/>
-        <v>2442</v>
+        <f>DEC2HEX($H121,4)</f>
+        <v>23F4</v>
       </c>
     </row>
     <row r="122" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G122">
-        <f t="shared" si="17"/>
-        <v>640</v>
+        <f>SUM($G$2-$H122)</f>
+        <v>718</v>
       </c>
       <c r="H122">
-        <f t="shared" si="21"/>
-        <v>9360</v>
+        <f>SUM($H121+78)</f>
+        <v>9282</v>
       </c>
       <c r="J122" t="str">
-        <f t="shared" si="15"/>
-        <v>0280</v>
+        <f>DEC2HEX($G122,4)</f>
+        <v>02CE</v>
       </c>
       <c r="L122" t="str">
-        <f t="shared" si="18"/>
-        <v>2490</v>
+        <f>DEC2HEX($H122,4)</f>
+        <v>2442</v>
       </c>
     </row>
     <row r="123" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G123">
-        <f t="shared" si="17"/>
-        <v>562</v>
+        <f>SUM($G$2-$H123)</f>
+        <v>640</v>
       </c>
       <c r="H123">
-        <f t="shared" si="21"/>
-        <v>9438</v>
+        <f>SUM($H122+78)</f>
+        <v>9360</v>
       </c>
       <c r="J123" t="str">
-        <f t="shared" si="15"/>
-        <v>0232</v>
+        <f>DEC2HEX($G123,4)</f>
+        <v>0280</v>
       </c>
       <c r="L123" t="str">
-        <f t="shared" si="18"/>
-        <v>24DE</v>
+        <f>DEC2HEX($H123,4)</f>
+        <v>2490</v>
       </c>
     </row>
     <row r="124" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G124">
-        <f t="shared" si="17"/>
-        <v>484</v>
+        <f>SUM($G$2-$H124)</f>
+        <v>562</v>
       </c>
       <c r="H124">
-        <f t="shared" si="21"/>
-        <v>9516</v>
+        <f>SUM($H123+78)</f>
+        <v>9438</v>
       </c>
       <c r="J124" t="str">
-        <f t="shared" si="15"/>
-        <v>01E4</v>
+        <f>DEC2HEX($G124,4)</f>
+        <v>0232</v>
       </c>
       <c r="L124" t="str">
-        <f t="shared" si="18"/>
-        <v>252C</v>
+        <f>DEC2HEX($H124,4)</f>
+        <v>24DE</v>
       </c>
     </row>
     <row r="125" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G125">
-        <f t="shared" si="17"/>
-        <v>406</v>
+        <f>SUM($G$2-$H125)</f>
+        <v>484</v>
       </c>
       <c r="H125">
-        <f t="shared" si="21"/>
-        <v>9594</v>
+        <f>SUM($H124+78)</f>
+        <v>9516</v>
       </c>
       <c r="J125" t="str">
-        <f t="shared" si="15"/>
-        <v>0196</v>
+        <f>DEC2HEX($G125,4)</f>
+        <v>01E4</v>
       </c>
       <c r="L125" t="str">
-        <f t="shared" si="18"/>
-        <v>257A</v>
+        <f>DEC2HEX($H125,4)</f>
+        <v>252C</v>
       </c>
     </row>
     <row r="126" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G126">
-        <f t="shared" si="17"/>
-        <v>328</v>
+        <f>SUM($G$2-$H126)</f>
+        <v>406</v>
       </c>
       <c r="H126">
-        <f t="shared" si="21"/>
-        <v>9672</v>
+        <f>SUM($H125+78)</f>
+        <v>9594</v>
       </c>
       <c r="J126" t="str">
-        <f t="shared" si="15"/>
-        <v>0148</v>
+        <f>DEC2HEX($G126,4)</f>
+        <v>0196</v>
       </c>
       <c r="L126" t="str">
-        <f t="shared" si="18"/>
-        <v>25C8</v>
+        <f>DEC2HEX($H126,4)</f>
+        <v>257A</v>
       </c>
     </row>
     <row r="127" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G127">
-        <f t="shared" si="17"/>
-        <v>250</v>
+        <f>SUM($G$2-$H127)</f>
+        <v>328</v>
       </c>
       <c r="H127">
-        <f t="shared" si="21"/>
-        <v>9750</v>
+        <f>SUM($H126+78)</f>
+        <v>9672</v>
       </c>
       <c r="J127" t="str">
-        <f t="shared" si="15"/>
-        <v>00FA</v>
+        <f>DEC2HEX($G127,4)</f>
+        <v>0148</v>
       </c>
       <c r="L127" t="str">
-        <f t="shared" si="18"/>
-        <v>2616</v>
+        <f>DEC2HEX($H127,4)</f>
+        <v>25C8</v>
       </c>
     </row>
     <row r="128" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G128">
-        <f t="shared" si="17"/>
-        <v>172</v>
+        <f>SUM($G$2-$H128)</f>
+        <v>250</v>
       </c>
       <c r="H128">
-        <f t="shared" si="21"/>
-        <v>9828</v>
+        <f>SUM($H127+78)</f>
+        <v>9750</v>
       </c>
       <c r="J128" t="str">
-        <f t="shared" si="15"/>
-        <v>00AC</v>
+        <f>DEC2HEX($G128,4)</f>
+        <v>00FA</v>
       </c>
       <c r="L128" t="str">
-        <f t="shared" si="18"/>
-        <v>2664</v>
+        <f>DEC2HEX($H128,4)</f>
+        <v>2616</v>
       </c>
     </row>
     <row r="129" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G129">
-        <f t="shared" si="17"/>
-        <v>94</v>
+        <f>SUM($G$2-$H129)</f>
+        <v>172</v>
       </c>
       <c r="H129">
-        <f t="shared" si="21"/>
-        <v>9906</v>
+        <f>SUM($H128+78)</f>
+        <v>9828</v>
       </c>
       <c r="J129" t="str">
-        <f t="shared" si="15"/>
-        <v>005E</v>
+        <f>DEC2HEX($G129,4)</f>
+        <v>00AC</v>
       </c>
       <c r="L129" t="str">
-        <f t="shared" si="18"/>
-        <v>26B2</v>
+        <f>DEC2HEX($H129,4)</f>
+        <v>2664</v>
       </c>
     </row>
     <row r="130" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G130">
-        <f t="shared" si="17"/>
-        <v>16</v>
+        <f>SUM($G$2-$H130)</f>
+        <v>94</v>
       </c>
       <c r="H130">
-        <f t="shared" si="21"/>
-        <v>9984</v>
+        <f>SUM($H129+78)</f>
+        <v>9906</v>
       </c>
       <c r="J130" t="str">
-        <f t="shared" si="15"/>
-        <v>0010</v>
+        <f>DEC2HEX($G130,4)</f>
+        <v>005E</v>
       </c>
       <c r="L130" t="str">
-        <f t="shared" si="18"/>
-        <v>2700</v>
+        <f>DEC2HEX($H130,4)</f>
+        <v>26B2</v>
       </c>
     </row>
     <row r="131" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G131">
-        <f t="shared" si="17"/>
+        <f>SUM($G$2-$H131)</f>
         <v>0</v>
       </c>
       <c r="H131">
         <v>10000</v>
       </c>
       <c r="J131" t="str">
-        <f t="shared" si="15"/>
+        <f>DEC2HEX($G131,4)</f>
         <v>0000</v>
       </c>
       <c r="L131" t="str">
-        <f t="shared" si="18"/>
+        <f>DEC2HEX($H131,4)</f>
         <v>2710</v>
       </c>
     </row>
     <row r="132" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G132">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="G132:G134" si="12">SUM($G$2-$H132)</f>
         <v>78</v>
       </c>
       <c r="H132">
@@ -4581,1267 +4585,1267 @@
     </row>
     <row r="133" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G133">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>156</v>
       </c>
       <c r="H133">
-        <f t="shared" ref="H133:H196" si="22">SUM($H132-78)</f>
+        <f t="shared" ref="H133:H196" si="13">SUM($H132-78)</f>
         <v>9844</v>
       </c>
     </row>
     <row r="134" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G134">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>234</v>
       </c>
       <c r="H134">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>9766</v>
       </c>
     </row>
     <row r="135" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G135">
-        <f t="shared" ref="G135:G198" si="23">SUM($G$2-$H135)</f>
+        <f t="shared" ref="G135:G198" si="14">SUM($G$2-$H135)</f>
         <v>312</v>
       </c>
       <c r="H135">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>9688</v>
       </c>
     </row>
     <row r="136" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G136">
-        <f t="shared" si="23"/>
+        <f t="shared" si="14"/>
         <v>390</v>
       </c>
       <c r="H136">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>9610</v>
       </c>
     </row>
     <row r="137" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G137">
-        <f t="shared" si="23"/>
+        <f t="shared" si="14"/>
         <v>468</v>
       </c>
       <c r="H137">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>9532</v>
       </c>
     </row>
     <row r="138" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G138">
-        <f t="shared" si="23"/>
+        <f t="shared" si="14"/>
         <v>546</v>
       </c>
       <c r="H138">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>9454</v>
       </c>
     </row>
     <row r="139" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G139">
-        <f t="shared" si="23"/>
+        <f t="shared" si="14"/>
         <v>624</v>
       </c>
       <c r="H139">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>9376</v>
       </c>
     </row>
     <row r="140" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G140">
-        <f t="shared" si="23"/>
+        <f t="shared" si="14"/>
         <v>702</v>
       </c>
       <c r="H140">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>9298</v>
       </c>
     </row>
     <row r="141" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G141">
-        <f t="shared" si="23"/>
+        <f t="shared" si="14"/>
         <v>780</v>
       </c>
       <c r="H141">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>9220</v>
       </c>
     </row>
     <row r="142" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G142">
-        <f t="shared" si="23"/>
+        <f t="shared" si="14"/>
         <v>858</v>
       </c>
       <c r="H142">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>9142</v>
       </c>
     </row>
     <row r="143" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G143">
-        <f t="shared" si="23"/>
+        <f t="shared" si="14"/>
         <v>936</v>
       </c>
       <c r="H143">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>9064</v>
       </c>
     </row>
     <row r="144" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G144">
-        <f t="shared" si="23"/>
+        <f t="shared" si="14"/>
         <v>1014</v>
       </c>
       <c r="H144">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>8986</v>
       </c>
     </row>
     <row r="145" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G145">
-        <f t="shared" si="23"/>
+        <f t="shared" si="14"/>
         <v>1092</v>
       </c>
       <c r="H145">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>8908</v>
       </c>
     </row>
     <row r="146" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G146">
-        <f t="shared" si="23"/>
+        <f t="shared" si="14"/>
         <v>1170</v>
       </c>
       <c r="H146">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>8830</v>
       </c>
     </row>
     <row r="147" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G147">
-        <f t="shared" si="23"/>
+        <f t="shared" si="14"/>
         <v>1248</v>
       </c>
       <c r="H147">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>8752</v>
       </c>
     </row>
     <row r="148" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G148">
-        <f t="shared" si="23"/>
+        <f t="shared" si="14"/>
         <v>1326</v>
       </c>
       <c r="H148">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>8674</v>
       </c>
     </row>
     <row r="149" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G149">
-        <f t="shared" si="23"/>
+        <f t="shared" si="14"/>
         <v>1404</v>
       </c>
       <c r="H149">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>8596</v>
       </c>
     </row>
     <row r="150" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G150">
-        <f t="shared" si="23"/>
+        <f t="shared" si="14"/>
         <v>1482</v>
       </c>
       <c r="H150">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>8518</v>
       </c>
     </row>
     <row r="151" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G151">
-        <f t="shared" si="23"/>
+        <f t="shared" si="14"/>
         <v>1560</v>
       </c>
       <c r="H151">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>8440</v>
       </c>
     </row>
     <row r="152" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G152">
-        <f t="shared" si="23"/>
+        <f t="shared" si="14"/>
         <v>1638</v>
       </c>
       <c r="H152">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>8362</v>
       </c>
     </row>
     <row r="153" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G153">
-        <f t="shared" si="23"/>
+        <f t="shared" si="14"/>
         <v>1716</v>
       </c>
       <c r="H153">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>8284</v>
       </c>
     </row>
     <row r="154" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G154">
-        <f t="shared" si="23"/>
+        <f t="shared" si="14"/>
         <v>1794</v>
       </c>
       <c r="H154">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>8206</v>
       </c>
     </row>
     <row r="155" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G155">
-        <f t="shared" si="23"/>
+        <f t="shared" si="14"/>
         <v>1872</v>
       </c>
       <c r="H155">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>8128</v>
       </c>
     </row>
     <row r="156" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G156">
-        <f t="shared" si="23"/>
+        <f t="shared" si="14"/>
         <v>1950</v>
       </c>
       <c r="H156">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>8050</v>
       </c>
     </row>
     <row r="157" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G157">
-        <f t="shared" si="23"/>
+        <f t="shared" si="14"/>
         <v>2028</v>
       </c>
       <c r="H157">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>7972</v>
       </c>
     </row>
     <row r="158" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G158">
-        <f t="shared" si="23"/>
+        <f t="shared" si="14"/>
         <v>2106</v>
       </c>
       <c r="H158">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>7894</v>
       </c>
     </row>
     <row r="159" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G159">
-        <f t="shared" si="23"/>
+        <f t="shared" si="14"/>
         <v>2184</v>
       </c>
       <c r="H159">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>7816</v>
       </c>
     </row>
     <row r="160" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G160">
-        <f t="shared" si="23"/>
+        <f t="shared" si="14"/>
         <v>2262</v>
       </c>
       <c r="H160">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>7738</v>
       </c>
     </row>
     <row r="161" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G161">
-        <f t="shared" si="23"/>
+        <f t="shared" si="14"/>
         <v>2340</v>
       </c>
       <c r="H161">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>7660</v>
       </c>
     </row>
     <row r="162" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G162">
-        <f t="shared" si="23"/>
+        <f t="shared" si="14"/>
         <v>2418</v>
       </c>
       <c r="H162">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>7582</v>
       </c>
     </row>
     <row r="163" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G163">
-        <f t="shared" si="23"/>
+        <f t="shared" si="14"/>
         <v>2496</v>
       </c>
       <c r="H163">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>7504</v>
       </c>
     </row>
     <row r="164" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G164">
-        <f t="shared" si="23"/>
+        <f t="shared" si="14"/>
         <v>2574</v>
       </c>
       <c r="H164">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>7426</v>
       </c>
     </row>
     <row r="165" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G165">
-        <f t="shared" si="23"/>
+        <f t="shared" si="14"/>
         <v>2652</v>
       </c>
       <c r="H165">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>7348</v>
       </c>
     </row>
     <row r="166" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G166">
-        <f t="shared" si="23"/>
+        <f t="shared" si="14"/>
         <v>2730</v>
       </c>
       <c r="H166">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>7270</v>
       </c>
     </row>
     <row r="167" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G167">
-        <f t="shared" si="23"/>
+        <f t="shared" si="14"/>
         <v>2808</v>
       </c>
       <c r="H167">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>7192</v>
       </c>
     </row>
     <row r="168" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G168">
-        <f t="shared" si="23"/>
+        <f t="shared" si="14"/>
         <v>2886</v>
       </c>
       <c r="H168">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>7114</v>
       </c>
     </row>
     <row r="169" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G169">
-        <f t="shared" si="23"/>
+        <f t="shared" si="14"/>
         <v>2964</v>
       </c>
       <c r="H169">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>7036</v>
       </c>
     </row>
     <row r="170" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G170">
-        <f t="shared" si="23"/>
+        <f t="shared" si="14"/>
         <v>3042</v>
       </c>
       <c r="H170">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>6958</v>
       </c>
     </row>
     <row r="171" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G171">
-        <f t="shared" si="23"/>
+        <f t="shared" si="14"/>
         <v>3120</v>
       </c>
       <c r="H171">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>6880</v>
       </c>
     </row>
     <row r="172" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G172">
-        <f t="shared" si="23"/>
+        <f t="shared" si="14"/>
         <v>3198</v>
       </c>
       <c r="H172">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>6802</v>
       </c>
     </row>
     <row r="173" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G173">
-        <f t="shared" si="23"/>
+        <f t="shared" si="14"/>
         <v>3276</v>
       </c>
       <c r="H173">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>6724</v>
       </c>
     </row>
     <row r="174" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G174">
-        <f t="shared" si="23"/>
+        <f t="shared" si="14"/>
         <v>3354</v>
       </c>
       <c r="H174">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>6646</v>
       </c>
     </row>
     <row r="175" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G175">
-        <f t="shared" si="23"/>
+        <f t="shared" si="14"/>
         <v>3432</v>
       </c>
       <c r="H175">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>6568</v>
       </c>
     </row>
     <row r="176" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G176">
-        <f t="shared" si="23"/>
+        <f t="shared" si="14"/>
         <v>3510</v>
       </c>
       <c r="H176">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>6490</v>
       </c>
     </row>
     <row r="177" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G177">
-        <f t="shared" si="23"/>
+        <f t="shared" si="14"/>
         <v>3588</v>
       </c>
       <c r="H177">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>6412</v>
       </c>
     </row>
     <row r="178" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G178">
-        <f t="shared" si="23"/>
+        <f t="shared" si="14"/>
         <v>3666</v>
       </c>
       <c r="H178">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>6334</v>
       </c>
     </row>
     <row r="179" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G179">
-        <f t="shared" si="23"/>
+        <f t="shared" si="14"/>
         <v>3744</v>
       </c>
       <c r="H179">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>6256</v>
       </c>
     </row>
     <row r="180" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G180">
-        <f t="shared" si="23"/>
+        <f t="shared" si="14"/>
         <v>3822</v>
       </c>
       <c r="H180">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>6178</v>
       </c>
     </row>
     <row r="181" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G181">
-        <f t="shared" si="23"/>
+        <f t="shared" si="14"/>
         <v>3900</v>
       </c>
       <c r="H181">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>6100</v>
       </c>
     </row>
     <row r="182" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G182">
-        <f t="shared" si="23"/>
+        <f t="shared" si="14"/>
         <v>3978</v>
       </c>
       <c r="H182">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>6022</v>
       </c>
     </row>
     <row r="183" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G183">
-        <f t="shared" si="23"/>
+        <f t="shared" si="14"/>
         <v>4056</v>
       </c>
       <c r="H183">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>5944</v>
       </c>
     </row>
     <row r="184" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G184">
-        <f t="shared" si="23"/>
+        <f t="shared" si="14"/>
         <v>4134</v>
       </c>
       <c r="H184">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>5866</v>
       </c>
     </row>
     <row r="185" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G185">
-        <f t="shared" si="23"/>
+        <f t="shared" si="14"/>
         <v>4212</v>
       </c>
       <c r="H185">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>5788</v>
       </c>
     </row>
     <row r="186" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G186">
-        <f t="shared" si="23"/>
+        <f t="shared" si="14"/>
         <v>4290</v>
       </c>
       <c r="H186">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>5710</v>
       </c>
     </row>
     <row r="187" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G187">
-        <f t="shared" si="23"/>
+        <f t="shared" si="14"/>
         <v>4368</v>
       </c>
       <c r="H187">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>5632</v>
       </c>
     </row>
     <row r="188" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G188">
-        <f t="shared" si="23"/>
+        <f t="shared" si="14"/>
         <v>4446</v>
       </c>
       <c r="H188">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>5554</v>
       </c>
     </row>
     <row r="189" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G189">
-        <f t="shared" si="23"/>
+        <f t="shared" si="14"/>
         <v>4524</v>
       </c>
       <c r="H189">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>5476</v>
       </c>
     </row>
     <row r="190" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G190">
-        <f t="shared" si="23"/>
+        <f t="shared" si="14"/>
         <v>4602</v>
       </c>
       <c r="H190">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>5398</v>
       </c>
     </row>
     <row r="191" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G191">
-        <f t="shared" si="23"/>
+        <f t="shared" si="14"/>
         <v>4680</v>
       </c>
       <c r="H191">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>5320</v>
       </c>
     </row>
     <row r="192" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G192">
-        <f t="shared" si="23"/>
+        <f t="shared" si="14"/>
         <v>4758</v>
       </c>
       <c r="H192">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>5242</v>
       </c>
     </row>
     <row r="193" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G193">
-        <f t="shared" si="23"/>
+        <f t="shared" si="14"/>
         <v>4836</v>
       </c>
       <c r="H193">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>5164</v>
       </c>
     </row>
     <row r="194" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G194">
-        <f t="shared" si="23"/>
+        <f t="shared" si="14"/>
         <v>4914</v>
       </c>
       <c r="H194">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>5086</v>
       </c>
     </row>
     <row r="195" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G195">
-        <f t="shared" si="23"/>
+        <f t="shared" si="14"/>
         <v>4992</v>
       </c>
       <c r="H195">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>5008</v>
       </c>
     </row>
     <row r="196" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G196">
-        <f t="shared" si="23"/>
+        <f t="shared" si="14"/>
         <v>5070</v>
       </c>
       <c r="H196">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>4930</v>
       </c>
     </row>
     <row r="197" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G197">
-        <f t="shared" si="23"/>
+        <f t="shared" si="14"/>
         <v>5148</v>
       </c>
       <c r="H197">
-        <f t="shared" ref="H197:H258" si="24">SUM($H196-78)</f>
+        <f t="shared" ref="H197:H258" si="15">SUM($H196-78)</f>
         <v>4852</v>
       </c>
     </row>
     <row r="198" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G198">
-        <f t="shared" si="23"/>
+        <f t="shared" si="14"/>
         <v>5226</v>
       </c>
       <c r="H198">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>4774</v>
       </c>
     </row>
     <row r="199" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G199">
-        <f t="shared" ref="G199:G259" si="25">SUM($G$2-$H199)</f>
+        <f t="shared" ref="G199:G259" si="16">SUM($G$2-$H199)</f>
         <v>5304</v>
       </c>
       <c r="H199">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>4696</v>
       </c>
     </row>
     <row r="200" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G200">
-        <f t="shared" si="25"/>
+        <f t="shared" si="16"/>
         <v>5382</v>
       </c>
       <c r="H200">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>4618</v>
       </c>
     </row>
     <row r="201" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G201">
-        <f t="shared" si="25"/>
+        <f t="shared" si="16"/>
         <v>5460</v>
       </c>
       <c r="H201">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>4540</v>
       </c>
     </row>
     <row r="202" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G202">
-        <f t="shared" si="25"/>
+        <f t="shared" si="16"/>
         <v>5538</v>
       </c>
       <c r="H202">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>4462</v>
       </c>
     </row>
     <row r="203" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G203">
-        <f t="shared" si="25"/>
+        <f t="shared" si="16"/>
         <v>5616</v>
       </c>
       <c r="H203">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>4384</v>
       </c>
     </row>
     <row r="204" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G204">
-        <f t="shared" si="25"/>
+        <f t="shared" si="16"/>
         <v>5694</v>
       </c>
       <c r="H204">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>4306</v>
       </c>
     </row>
     <row r="205" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G205">
-        <f t="shared" si="25"/>
+        <f t="shared" si="16"/>
         <v>5772</v>
       </c>
       <c r="H205">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>4228</v>
       </c>
     </row>
     <row r="206" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G206">
-        <f t="shared" si="25"/>
+        <f t="shared" si="16"/>
         <v>5850</v>
       </c>
       <c r="H206">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>4150</v>
       </c>
     </row>
     <row r="207" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G207">
-        <f t="shared" si="25"/>
+        <f t="shared" si="16"/>
         <v>5928</v>
       </c>
       <c r="H207">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>4072</v>
       </c>
     </row>
     <row r="208" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G208">
-        <f t="shared" si="25"/>
+        <f t="shared" si="16"/>
         <v>6006</v>
       </c>
       <c r="H208">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>3994</v>
       </c>
     </row>
     <row r="209" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G209">
-        <f t="shared" si="25"/>
+        <f t="shared" si="16"/>
         <v>6084</v>
       </c>
       <c r="H209">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>3916</v>
       </c>
     </row>
     <row r="210" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G210">
-        <f t="shared" si="25"/>
+        <f t="shared" si="16"/>
         <v>6162</v>
       </c>
       <c r="H210">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>3838</v>
       </c>
     </row>
     <row r="211" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G211">
-        <f t="shared" si="25"/>
+        <f t="shared" si="16"/>
         <v>6240</v>
       </c>
       <c r="H211">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>3760</v>
       </c>
     </row>
     <row r="212" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G212">
-        <f t="shared" si="25"/>
+        <f t="shared" si="16"/>
         <v>6318</v>
       </c>
       <c r="H212">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>3682</v>
       </c>
     </row>
     <row r="213" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G213">
-        <f t="shared" si="25"/>
+        <f t="shared" si="16"/>
         <v>6396</v>
       </c>
       <c r="H213">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>3604</v>
       </c>
     </row>
     <row r="214" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G214">
-        <f t="shared" si="25"/>
+        <f t="shared" si="16"/>
         <v>6474</v>
       </c>
       <c r="H214">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>3526</v>
       </c>
     </row>
     <row r="215" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G215">
-        <f t="shared" si="25"/>
+        <f t="shared" si="16"/>
         <v>6552</v>
       </c>
       <c r="H215">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>3448</v>
       </c>
     </row>
     <row r="216" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G216">
-        <f t="shared" si="25"/>
+        <f t="shared" si="16"/>
         <v>6630</v>
       </c>
       <c r="H216">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>3370</v>
       </c>
     </row>
     <row r="217" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G217">
-        <f t="shared" si="25"/>
+        <f t="shared" si="16"/>
         <v>6708</v>
       </c>
       <c r="H217">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>3292</v>
       </c>
     </row>
     <row r="218" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G218">
-        <f t="shared" si="25"/>
+        <f t="shared" si="16"/>
         <v>6786</v>
       </c>
       <c r="H218">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>3214</v>
       </c>
     </row>
     <row r="219" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G219">
-        <f t="shared" si="25"/>
+        <f t="shared" si="16"/>
         <v>6864</v>
       </c>
       <c r="H219">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>3136</v>
       </c>
     </row>
     <row r="220" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G220">
-        <f t="shared" si="25"/>
+        <f t="shared" si="16"/>
         <v>6942</v>
       </c>
       <c r="H220">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>3058</v>
       </c>
     </row>
     <row r="221" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G221">
-        <f t="shared" si="25"/>
+        <f t="shared" si="16"/>
         <v>7020</v>
       </c>
       <c r="H221">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>2980</v>
       </c>
     </row>
     <row r="222" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G222">
-        <f t="shared" si="25"/>
+        <f t="shared" si="16"/>
         <v>7098</v>
       </c>
       <c r="H222">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>2902</v>
       </c>
     </row>
     <row r="223" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G223">
-        <f t="shared" si="25"/>
+        <f t="shared" si="16"/>
         <v>7176</v>
       </c>
       <c r="H223">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>2824</v>
       </c>
     </row>
     <row r="224" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G224">
-        <f t="shared" si="25"/>
+        <f t="shared" si="16"/>
         <v>7254</v>
       </c>
       <c r="H224">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>2746</v>
       </c>
     </row>
     <row r="225" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G225">
-        <f t="shared" si="25"/>
+        <f t="shared" si="16"/>
         <v>7332</v>
       </c>
       <c r="H225">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>2668</v>
       </c>
     </row>
     <row r="226" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G226">
-        <f t="shared" si="25"/>
+        <f t="shared" si="16"/>
         <v>7410</v>
       </c>
       <c r="H226">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>2590</v>
       </c>
     </row>
     <row r="227" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G227">
-        <f t="shared" si="25"/>
+        <f t="shared" si="16"/>
         <v>7488</v>
       </c>
       <c r="H227">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>2512</v>
       </c>
     </row>
     <row r="228" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G228">
-        <f t="shared" si="25"/>
+        <f t="shared" si="16"/>
         <v>7566</v>
       </c>
       <c r="H228">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>2434</v>
       </c>
     </row>
     <row r="229" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G229">
-        <f t="shared" si="25"/>
+        <f t="shared" si="16"/>
         <v>7644</v>
       </c>
       <c r="H229">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>2356</v>
       </c>
     </row>
     <row r="230" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G230">
-        <f t="shared" si="25"/>
+        <f t="shared" si="16"/>
         <v>7722</v>
       </c>
       <c r="H230">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>2278</v>
       </c>
     </row>
     <row r="231" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G231">
-        <f t="shared" si="25"/>
+        <f t="shared" si="16"/>
         <v>7800</v>
       </c>
       <c r="H231">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>2200</v>
       </c>
     </row>
     <row r="232" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G232">
-        <f t="shared" si="25"/>
+        <f t="shared" si="16"/>
         <v>7878</v>
       </c>
       <c r="H232">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>2122</v>
       </c>
     </row>
     <row r="233" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G233">
-        <f t="shared" si="25"/>
+        <f t="shared" si="16"/>
         <v>7956</v>
       </c>
       <c r="H233">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>2044</v>
       </c>
     </row>
     <row r="234" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G234">
-        <f t="shared" si="25"/>
+        <f t="shared" si="16"/>
         <v>8034</v>
       </c>
       <c r="H234">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>1966</v>
       </c>
     </row>
     <row r="235" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G235">
-        <f t="shared" si="25"/>
+        <f t="shared" si="16"/>
         <v>8112</v>
       </c>
       <c r="H235">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>1888</v>
       </c>
     </row>
     <row r="236" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G236">
-        <f t="shared" si="25"/>
+        <f t="shared" si="16"/>
         <v>8190</v>
       </c>
       <c r="H236">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>1810</v>
       </c>
     </row>
     <row r="237" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G237">
-        <f t="shared" si="25"/>
+        <f t="shared" si="16"/>
         <v>8268</v>
       </c>
       <c r="H237">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>1732</v>
       </c>
     </row>
     <row r="238" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G238">
-        <f t="shared" si="25"/>
+        <f t="shared" si="16"/>
         <v>8346</v>
       </c>
       <c r="H238">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>1654</v>
       </c>
     </row>
     <row r="239" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G239">
-        <f t="shared" si="25"/>
+        <f t="shared" si="16"/>
         <v>8424</v>
       </c>
       <c r="H239">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>1576</v>
       </c>
     </row>
     <row r="240" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G240">
-        <f t="shared" si="25"/>
+        <f t="shared" si="16"/>
         <v>8502</v>
       </c>
       <c r="H240">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>1498</v>
       </c>
     </row>
     <row r="241" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G241">
-        <f t="shared" si="25"/>
+        <f t="shared" si="16"/>
         <v>8580</v>
       </c>
       <c r="H241">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>1420</v>
       </c>
     </row>
     <row r="242" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G242">
-        <f t="shared" si="25"/>
+        <f t="shared" si="16"/>
         <v>8658</v>
       </c>
       <c r="H242">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>1342</v>
       </c>
     </row>
     <row r="243" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G243">
-        <f t="shared" si="25"/>
+        <f t="shared" si="16"/>
         <v>8736</v>
       </c>
       <c r="H243">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>1264</v>
       </c>
     </row>
     <row r="244" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G244">
-        <f t="shared" si="25"/>
+        <f t="shared" si="16"/>
         <v>8814</v>
       </c>
       <c r="H244">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>1186</v>
       </c>
     </row>
     <row r="245" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G245">
-        <f t="shared" si="25"/>
+        <f t="shared" si="16"/>
         <v>8892</v>
       </c>
       <c r="H245">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>1108</v>
       </c>
     </row>
     <row r="246" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G246">
-        <f t="shared" si="25"/>
+        <f t="shared" si="16"/>
         <v>8970</v>
       </c>
       <c r="H246">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>1030</v>
       </c>
     </row>
     <row r="247" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G247">
-        <f t="shared" si="25"/>
+        <f t="shared" si="16"/>
         <v>9048</v>
       </c>
       <c r="H247">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>952</v>
       </c>
     </row>
     <row r="248" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G248">
-        <f t="shared" si="25"/>
+        <f t="shared" si="16"/>
         <v>9126</v>
       </c>
       <c r="H248">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>874</v>
       </c>
     </row>
     <row r="249" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G249">
-        <f t="shared" si="25"/>
+        <f t="shared" si="16"/>
         <v>9204</v>
       </c>
       <c r="H249">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>796</v>
       </c>
     </row>
     <row r="250" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G250">
-        <f t="shared" si="25"/>
+        <f t="shared" si="16"/>
         <v>9282</v>
       </c>
       <c r="H250">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>718</v>
       </c>
     </row>
     <row r="251" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G251">
-        <f t="shared" si="25"/>
+        <f t="shared" si="16"/>
         <v>9360</v>
       </c>
       <c r="H251">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>640</v>
       </c>
     </row>
     <row r="252" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G252">
-        <f t="shared" si="25"/>
+        <f t="shared" si="16"/>
         <v>9438</v>
       </c>
       <c r="H252">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>562</v>
       </c>
     </row>
     <row r="253" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G253">
-        <f t="shared" si="25"/>
+        <f t="shared" si="16"/>
         <v>9516</v>
       </c>
       <c r="H253">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>484</v>
       </c>
     </row>
     <row r="254" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G254">
-        <f t="shared" si="25"/>
+        <f t="shared" si="16"/>
         <v>9594</v>
       </c>
       <c r="H254">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>406</v>
       </c>
     </row>
     <row r="255" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G255">
-        <f t="shared" si="25"/>
+        <f t="shared" si="16"/>
         <v>9672</v>
       </c>
       <c r="H255">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>328</v>
       </c>
     </row>
     <row r="256" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G256">
-        <f t="shared" si="25"/>
+        <f t="shared" si="16"/>
         <v>9750</v>
       </c>
       <c r="H256">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>250</v>
       </c>
     </row>
     <row r="257" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G257">
-        <f t="shared" si="25"/>
+        <f t="shared" si="16"/>
         <v>9828</v>
       </c>
       <c r="H257">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>172</v>
       </c>
     </row>
     <row r="258" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G258">
-        <f t="shared" si="25"/>
+        <f t="shared" si="16"/>
         <v>9906</v>
       </c>
       <c r="H258">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>94</v>
       </c>
     </row>
     <row r="259" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G259">
-        <f t="shared" si="25"/>
+        <f t="shared" si="16"/>
         <v>10000</v>
       </c>
       <c r="H259">
